--- a/PythonResources/Data/Consumption/Sympheny/base_1657_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1657_coo.xlsx
@@ -359,7 +359,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2.516137956743888</v>
+        <v>2.516137956743887</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -439,7 +439,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>40.37669006741221</v>
+        <v>40.3766900674122</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -447,7 +447,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>45.49752032594189</v>
+        <v>45.49752032594188</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -479,7 +479,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>28.44172370317531</v>
+        <v>28.4417237031753</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -519,7 +519,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>4.958732667046097</v>
+        <v>4.958732667046096</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -639,7 +639,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.9058386198464192</v>
+        <v>0.905838619846419</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -647,7 +647,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.8980722373218935</v>
+        <v>0.8980722373218933</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -903,7 +903,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>24.89486076488025</v>
+        <v>24.89486076488024</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -911,7 +911,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>21.57940671871218</v>
+        <v>21.57940671871217</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -927,7 +927,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>7.428178545910458</v>
+        <v>7.428178545910457</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -935,7 +935,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>6.040721634679917</v>
+        <v>6.040721634679916</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -943,7 +943,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>4.012347669000881</v>
+        <v>4.01234766900088</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>8.29810130996893</v>
+        <v>8.298101309968928</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1111,7 +1111,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>4.440436535173507</v>
+        <v>4.440436535173506</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1143,7 +1143,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>2.191825545361243</v>
+        <v>2.191825545361242</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>2.480145902485888</v>
+        <v>2.480145902485887</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>3.660896879438195</v>
+        <v>3.660896879438194</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>2.657969685904046</v>
+        <v>2.657969685904045</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1623,7 +1623,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>3.024932725543076</v>
+        <v>3.024932725543075</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>0.8298746066253985</v>
+        <v>0.8298746066253984</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>4.389149103407772</v>
+        <v>4.389149103407771</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1975,7 +1975,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>0.8850452296533967</v>
+        <v>0.8850452296533966</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -1999,7 +1999,7 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>0.820848018634629</v>
+        <v>0.8208480186346289</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>1.147238303681383</v>
+        <v>1.147238303681382</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>1.155168805987559</v>
+        <v>1.155168805987558</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>2.681265902767236</v>
+        <v>2.681265902767235</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2215,7 +2215,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>8.271373231243015</v>
+        <v>8.271373231243013</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2231,7 +2231,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>8.639529070009397</v>
+        <v>8.639529070009395</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>8.154027587363013</v>
+        <v>8.154027587363011</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2327,7 +2327,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>1.731786074553756</v>
+        <v>1.731786074553755</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>2.506290769844866</v>
+        <v>2.506290769844865</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2639,7 +2639,7 @@
         <v>287</v>
       </c>
       <c r="B287">
-        <v>7.856501868914014</v>
+        <v>7.856501868914013</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2751,7 +2751,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>55.50208637272424</v>
+        <v>55.50208637272423</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2791,7 +2791,7 @@
         <v>306</v>
       </c>
       <c r="B306">
-        <v>26.06060943536348</v>
+        <v>26.06060943536347</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -3023,7 +3023,7 @@
         <v>335</v>
       </c>
       <c r="B335">
-        <v>2.754800357077754</v>
+        <v>2.754800357077753</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>366</v>
       </c>
       <c r="B366">
-        <v>1.005444673756251</v>
+        <v>1.00544467375625</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>375</v>
       </c>
       <c r="B375">
-        <v>23.22860537457117</v>
+        <v>23.22860537457116</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>377</v>
       </c>
       <c r="B377">
-        <v>11.07805595429499</v>
+        <v>11.07805595429498</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>396</v>
       </c>
       <c r="B396">
-        <v>7.689773755019575</v>
+        <v>7.689773755019574</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>400</v>
       </c>
       <c r="B400">
-        <v>2.299429507916142</v>
+        <v>2.299429507916141</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>409</v>
       </c>
       <c r="B409">
-        <v>0.8290774534002395</v>
+        <v>0.8290774534002394</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>415</v>
       </c>
       <c r="B415">
-        <v>0.6478364616712905</v>
+        <v>0.6478364616712904</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>416</v>
       </c>
       <c r="B416">
-        <v>0.6245461062288733</v>
+        <v>0.6245461062288732</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>442</v>
       </c>
       <c r="B442">
-        <v>0.6128203339720329</v>
+        <v>0.6128203339720328</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -4023,7 +4023,7 @@
         <v>460</v>
       </c>
       <c r="B460">
-        <v>0.7986303031937124</v>
+        <v>0.7986303031937123</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>464</v>
       </c>
       <c r="B464">
-        <v>0.8185268960084311</v>
+        <v>0.818526896008431</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>472</v>
       </c>
       <c r="B472">
-        <v>4.940650183960692</v>
+        <v>4.940650183960691</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4215,7 +4215,7 @@
         <v>484</v>
       </c>
       <c r="B484">
-        <v>0.8691490565164053</v>
+        <v>0.8691490565164052</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4231,7 +4231,7 @@
         <v>486</v>
       </c>
       <c r="B486">
-        <v>0.7158435961926556</v>
+        <v>0.7158435961926555</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4255,7 +4255,7 @@
         <v>489</v>
       </c>
       <c r="B489">
-        <v>0.9656016660502408</v>
+        <v>0.9656016660502406</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>491</v>
       </c>
       <c r="B491">
-        <v>5.967336646599117</v>
+        <v>5.967336646599116</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>495</v>
       </c>
       <c r="B495">
-        <v>12.59472788647132</v>
+        <v>12.59472788647131</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>513</v>
       </c>
       <c r="B513">
-        <v>0.6277962640476277</v>
+        <v>0.6277962640476276</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4463,7 +4463,7 @@
         <v>515</v>
       </c>
       <c r="B515">
-        <v>0.4208588036488517</v>
+        <v>0.4208588036488516</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4527,7 +4527,7 @@
         <v>523</v>
       </c>
       <c r="B523">
-        <v>1.017378526450541</v>
+        <v>1.01737852645054</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4559,7 +4559,7 @@
         <v>527</v>
       </c>
       <c r="B527">
-        <v>1.704372209597374</v>
+        <v>1.704372209597373</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4663,7 +4663,7 @@
         <v>540</v>
       </c>
       <c r="B540">
-        <v>0.2692461216444099</v>
+        <v>0.2692461216444098</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4687,7 +4687,7 @@
         <v>543</v>
       </c>
       <c r="B543">
-        <v>0.3121323790158792</v>
+        <v>0.3121323790158791</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4703,7 +4703,7 @@
         <v>545</v>
       </c>
       <c r="B545">
-        <v>0.4252138392833593</v>
+        <v>0.4252138392833592</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4711,7 +4711,7 @@
         <v>546</v>
       </c>
       <c r="B546">
-        <v>0.4599017274193161</v>
+        <v>0.459901727419316</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4759,7 +4759,7 @@
         <v>552</v>
       </c>
       <c r="B552">
-        <v>0.992279922699583</v>
+        <v>0.9922799226995828</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4807,7 +4807,7 @@
         <v>558</v>
       </c>
       <c r="B558">
-        <v>0.4448261531905765</v>
+        <v>0.4448261531905764</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4815,7 +4815,7 @@
         <v>559</v>
       </c>
       <c r="B559">
-        <v>0.4580700334276827</v>
+        <v>0.4580700334276826</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4823,7 +4823,7 @@
         <v>560</v>
       </c>
       <c r="B560">
-        <v>0.4693503377057579</v>
+        <v>0.4693503377057578</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -5063,7 +5063,7 @@
         <v>590</v>
       </c>
       <c r="B590">
-        <v>0.4927960207986655</v>
+        <v>0.4927960207986654</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5135,7 +5135,7 @@
         <v>599</v>
       </c>
       <c r="B599">
-        <v>2.902311802967169</v>
+        <v>2.902311802967168</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5159,7 +5159,7 @@
         <v>602</v>
       </c>
       <c r="B602">
-        <v>1.21570262902306</v>
+        <v>1.215702629023059</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5183,7 +5183,7 @@
         <v>605</v>
       </c>
       <c r="B605">
-        <v>0.949723077175569</v>
+        <v>0.9497230771755688</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>616</v>
       </c>
       <c r="B616">
-        <v>0.9708740140357583</v>
+        <v>0.9708740140357582</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5391,7 +5391,7 @@
         <v>631</v>
       </c>
       <c r="B631">
-        <v>0.6178758093889412</v>
+        <v>0.617875809388941</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5487,7 +5487,7 @@
         <v>643</v>
       </c>
       <c r="B643">
-        <v>1.064096980723546</v>
+        <v>1.064096980723545</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5495,7 +5495,7 @@
         <v>644</v>
       </c>
       <c r="B644">
-        <v>1.435831216871983</v>
+        <v>1.435831216871982</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5511,7 +5511,7 @@
         <v>646</v>
       </c>
       <c r="B646">
-        <v>1.53384882575227</v>
+        <v>1.533848825752269</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5567,7 +5567,7 @@
         <v>653</v>
       </c>
       <c r="B653">
-        <v>0.3891748936591737</v>
+        <v>0.3891748936591736</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5615,7 +5615,7 @@
         <v>659</v>
       </c>
       <c r="B659">
-        <v>5.0944245579463</v>
+        <v>5.094424557946299</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5663,7 +5663,7 @@
         <v>665</v>
       </c>
       <c r="B665">
-        <v>7.991549003529162</v>
+        <v>7.991549003529161</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5695,7 +5695,7 @@
         <v>669</v>
       </c>
       <c r="B669">
-        <v>1.461041187617632</v>
+        <v>1.461041187617631</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5759,7 +5759,7 @@
         <v>677</v>
       </c>
       <c r="B677">
-        <v>0.4478887455445876</v>
+        <v>0.4478887455445875</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5783,7 +5783,7 @@
         <v>680</v>
       </c>
       <c r="B680">
-        <v>0.6661504708772379</v>
+        <v>0.6661504708772378</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>700</v>
       </c>
       <c r="B700">
-        <v>0.9498784048260596</v>
+        <v>0.9498784048260592</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -6031,7 +6031,7 @@
         <v>711</v>
       </c>
       <c r="B711">
-        <v>4.729199429566531</v>
+        <v>4.72919942956653</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6095,7 +6095,7 @@
         <v>719</v>
       </c>
       <c r="B719">
-        <v>2.339761944256717</v>
+        <v>2.339761944256716</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6143,7 +6143,7 @@
         <v>725</v>
       </c>
       <c r="B725">
-        <v>0.6660010046475205</v>
+        <v>0.6660010046475204</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6167,7 +6167,7 @@
         <v>728</v>
       </c>
       <c r="B728">
-        <v>0.8573969078660854</v>
+        <v>0.8573969078660852</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6207,7 +6207,7 @@
         <v>733</v>
       </c>
       <c r="B733">
-        <v>12.76681920037326</v>
+        <v>12.76681920037325</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6287,7 +6287,7 @@
         <v>743</v>
       </c>
       <c r="B743">
-        <v>2.155581450009994</v>
+        <v>2.155581450009993</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6319,7 +6319,7 @@
         <v>747</v>
       </c>
       <c r="B747">
-        <v>0.7111104989182748</v>
+        <v>0.7111104989182747</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6375,7 +6375,7 @@
         <v>754</v>
       </c>
       <c r="B754">
-        <v>1.225678767179092</v>
+        <v>1.225678767179091</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6431,7 +6431,7 @@
         <v>761</v>
       </c>
       <c r="B761">
-        <v>2.335149006108187</v>
+        <v>2.335149006108186</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6439,7 +6439,7 @@
         <v>762</v>
       </c>
       <c r="B762">
-        <v>0.8253994118650397</v>
+        <v>0.8253994118650396</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6519,7 +6519,7 @@
         <v>772</v>
       </c>
       <c r="B772">
-        <v>0.8464829423863369</v>
+        <v>0.8464829423863368</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6551,7 +6551,7 @@
         <v>776</v>
       </c>
       <c r="B776">
-        <v>1.105411205043636</v>
+        <v>1.105411205043635</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6559,7 +6559,7 @@
         <v>777</v>
       </c>
       <c r="B777">
-        <v>0.9739952205975017</v>
+        <v>0.9739952205975014</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6623,7 +6623,7 @@
         <v>785</v>
       </c>
       <c r="B785">
-        <v>0.6441379051633842</v>
+        <v>0.6441379051633841</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6647,7 +6647,7 @@
         <v>788</v>
       </c>
       <c r="B788">
-        <v>1.821243078394745</v>
+        <v>1.821243078394744</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6895,7 +6895,7 @@
         <v>819</v>
       </c>
       <c r="B819">
-        <v>0.587443312734347</v>
+        <v>0.5874433127343469</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6903,7 +6903,7 @@
         <v>820</v>
       </c>
       <c r="B820">
-        <v>0.5471108763937726</v>
+        <v>0.5471108763937725</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6991,7 +6991,7 @@
         <v>831</v>
       </c>
       <c r="B831">
-        <v>6.277845412060812</v>
+        <v>6.277845412060811</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7039,7 +7039,7 @@
         <v>837</v>
       </c>
       <c r="B837">
-        <v>0.9163979693693874</v>
+        <v>0.9163979693693872</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -7111,7 +7111,7 @@
         <v>846</v>
       </c>
       <c r="B846">
-        <v>0.1911643770980223</v>
+        <v>0.1911643770980222</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7119,7 +7119,7 @@
         <v>847</v>
       </c>
       <c r="B847">
-        <v>0.1813974916635943</v>
+        <v>0.1813974916635942</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7263,7 +7263,7 @@
         <v>865</v>
       </c>
       <c r="B865">
-        <v>0.6024690648865142</v>
+        <v>0.6024690648865141</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7351,7 +7351,7 @@
         <v>876</v>
       </c>
       <c r="B876">
-        <v>6.58894031959983</v>
+        <v>6.588940319599829</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7375,7 +7375,7 @@
         <v>879</v>
       </c>
       <c r="B879">
-        <v>13.67996994263428</v>
+        <v>13.67996994263427</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7463,7 +7463,7 @@
         <v>890</v>
       </c>
       <c r="B890">
-        <v>0.8126947823390704</v>
+        <v>0.8126947823390703</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7551,7 +7551,7 @@
         <v>901</v>
       </c>
       <c r="B901">
-        <v>0.5186097178839568</v>
+        <v>0.5186097178839567</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7735,7 +7735,7 @@
         <v>924</v>
       </c>
       <c r="B924">
-        <v>0.793425361547087</v>
+        <v>0.7934253615470869</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7815,7 +7815,7 @@
         <v>934</v>
       </c>
       <c r="B934">
-        <v>4.296831726229448</v>
+        <v>4.296831726229447</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7839,7 +7839,7 @@
         <v>937</v>
       </c>
       <c r="B937">
-        <v>2.166515930462449</v>
+        <v>2.166515930462448</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -7871,7 +7871,7 @@
         <v>941</v>
       </c>
       <c r="B941">
-        <v>1.331664977600581</v>
+        <v>1.33166497760058</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -7879,7 +7879,7 @@
         <v>942</v>
       </c>
       <c r="B942">
-        <v>1.50961771227575</v>
+        <v>1.509617712275749</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -8103,7 +8103,7 @@
         <v>970</v>
       </c>
       <c r="B970">
-        <v>6.35580230834473</v>
+        <v>6.355802308344729</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -8151,7 +8151,7 @@
         <v>976</v>
       </c>
       <c r="B976">
-        <v>2.976400161540757</v>
+        <v>2.976400161540756</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8279,7 +8279,7 @@
         <v>992</v>
       </c>
       <c r="B992">
-        <v>2.987478246802156</v>
+        <v>2.987478246802155</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8327,7 +8327,7 @@
         <v>998</v>
       </c>
       <c r="B998">
-        <v>22.88635701562245</v>
+        <v>22.88635701562244</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8359,7 +8359,7 @@
         <v>1002</v>
       </c>
       <c r="B1002">
-        <v>4.677062091788677</v>
+        <v>4.677062091788676</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -8407,7 +8407,7 @@
         <v>1008</v>
       </c>
       <c r="B1008">
-        <v>2.402071777786505</v>
+        <v>2.402071777786504</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -8503,7 +8503,7 @@
         <v>1020</v>
       </c>
       <c r="B1020">
-        <v>0.7275136849521504</v>
+        <v>0.7275136849521503</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -8647,7 +8647,7 @@
         <v>1038</v>
       </c>
       <c r="B1038">
-        <v>0.820226708032667</v>
+        <v>0.8202267080326668</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -8847,7 +8847,7 @@
         <v>1063</v>
       </c>
       <c r="B1063">
-        <v>1.577800689420312</v>
+        <v>1.577800689420311</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -8911,7 +8911,7 @@
         <v>1071</v>
       </c>
       <c r="B1071">
-        <v>7.036401181427972</v>
+        <v>7.036401181427971</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -9015,7 +9015,7 @@
         <v>1084</v>
       </c>
       <c r="B1084">
-        <v>1.323948417152628</v>
+        <v>1.323948417152627</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
@@ -9127,7 +9127,7 @@
         <v>1098</v>
       </c>
       <c r="B1098">
-        <v>1.798445082297279</v>
+        <v>1.798445082297278</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9255,7 +9255,7 @@
         <v>1114</v>
       </c>
       <c r="B1114">
-        <v>0.9573136170768978</v>
+        <v>0.9573136170768975</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
@@ -9271,7 +9271,7 @@
         <v>1116</v>
       </c>
       <c r="B1116">
-        <v>0.596071324112537</v>
+        <v>0.5960713241125369</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
@@ -9303,7 +9303,7 @@
         <v>1120</v>
       </c>
       <c r="B1120">
-        <v>0.5734374477967213</v>
+        <v>0.5734374477967212</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
@@ -9311,7 +9311,7 @@
         <v>1121</v>
       </c>
       <c r="B1121">
-        <v>0.6888253771384661</v>
+        <v>0.688825377138466</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
@@ -9399,7 +9399,7 @@
         <v>1132</v>
       </c>
       <c r="B1132">
-        <v>0.6432440384954672</v>
+        <v>0.6432440384954671</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
@@ -9431,7 +9431,7 @@
         <v>1136</v>
       </c>
       <c r="B1136">
-        <v>0.5924079361292702</v>
+        <v>0.5924079361292701</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
@@ -9463,7 +9463,7 @@
         <v>1140</v>
       </c>
       <c r="B1140">
-        <v>0.6855517736366189</v>
+        <v>0.6855517736366188</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
@@ -9471,7 +9471,7 @@
         <v>1141</v>
       </c>
       <c r="B1141">
-        <v>0.7873412067844774</v>
+        <v>0.7873412067844773</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
@@ -9479,7 +9479,7 @@
         <v>1142</v>
       </c>
       <c r="B1142">
-        <v>0.8170937786293772</v>
+        <v>0.817093778629377</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
@@ -9495,7 +9495,7 @@
         <v>1144</v>
       </c>
       <c r="B1144">
-        <v>0.8177824955702313</v>
+        <v>0.8177824955702312</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
@@ -9511,7 +9511,7 @@
         <v>1146</v>
       </c>
       <c r="B1146">
-        <v>0.7768990856769736</v>
+        <v>0.7768990856769735</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
@@ -9607,7 +9607,7 @@
         <v>1158</v>
       </c>
       <c r="B1158">
-        <v>0.8056903845150643</v>
+        <v>0.8056903845150641</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
@@ -9791,7 +9791,7 @@
         <v>1181</v>
       </c>
       <c r="B1181">
-        <v>0.7368948888997</v>
+        <v>0.7368948888996999</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
@@ -9799,7 +9799,7 @@
         <v>1182</v>
       </c>
       <c r="B1182">
-        <v>0.8091896527166808</v>
+        <v>0.8091896527166806</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
@@ -10039,7 +10039,7 @@
         <v>1212</v>
       </c>
       <c r="B1212">
-        <v>0.9679638186218512</v>
+        <v>0.967963818621851</v>
       </c>
     </row>
     <row r="1213" spans="1:2">
@@ -10119,7 +10119,7 @@
         <v>1222</v>
       </c>
       <c r="B1222">
-        <v>8.175714844223952</v>
+        <v>8.17571484422395</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
@@ -10151,7 +10151,7 @@
         <v>1226</v>
       </c>
       <c r="B1226">
-        <v>3.389395869222325</v>
+        <v>3.389395869222324</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
@@ -10191,7 +10191,7 @@
         <v>1231</v>
       </c>
       <c r="B1231">
-        <v>3.003802303655593</v>
+        <v>3.003802303655592</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
@@ -10223,7 +10223,7 @@
         <v>1235</v>
       </c>
       <c r="B1235">
-        <v>6.426696192596909</v>
+        <v>6.426696192596908</v>
       </c>
     </row>
     <row r="1236" spans="1:2">
@@ -10271,7 +10271,7 @@
         <v>1241</v>
       </c>
       <c r="B1241">
-        <v>5.358510870884038</v>
+        <v>5.358510870884037</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -10503,7 +10503,7 @@
         <v>1270</v>
       </c>
       <c r="B1270">
-        <v>8.430452191028394</v>
+        <v>8.430452191028392</v>
       </c>
     </row>
     <row r="1271" spans="1:2">
@@ -10687,7 +10687,7 @@
         <v>1293</v>
       </c>
       <c r="B1293">
-        <v>9.619060402527211</v>
+        <v>9.619060402527207</v>
       </c>
     </row>
     <row r="1294" spans="1:2">
@@ -10719,7 +10719,7 @@
         <v>1297</v>
       </c>
       <c r="B1297">
-        <v>3.562542238863448</v>
+        <v>3.562542238863447</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
@@ -10759,7 +10759,7 @@
         <v>1302</v>
       </c>
       <c r="B1302">
-        <v>2.336379904470565</v>
+        <v>2.336379904470564</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
@@ -10775,7 +10775,7 @@
         <v>1304</v>
       </c>
       <c r="B1304">
-        <v>2.187464648305962</v>
+        <v>2.187464648305961</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
@@ -10807,7 +10807,7 @@
         <v>1308</v>
       </c>
       <c r="B1308">
-        <v>29.53423392109708</v>
+        <v>29.53423392109707</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
@@ -10863,7 +10863,7 @@
         <v>1315</v>
       </c>
       <c r="B1315">
-        <v>17.50557274580015</v>
+        <v>17.50557274580014</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
@@ -10871,7 +10871,7 @@
         <v>1316</v>
       </c>
       <c r="B1316">
-        <v>17.67230085969459</v>
+        <v>17.67230085969458</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
@@ -10975,7 +10975,7 @@
         <v>1329</v>
       </c>
       <c r="B1329">
-        <v>16.46089172138792</v>
+        <v>16.46089172138791</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
@@ -11207,7 +11207,7 @@
         <v>1358</v>
       </c>
       <c r="B1358">
-        <v>3.962789356363247</v>
+        <v>3.962789356363246</v>
       </c>
     </row>
     <row r="1359" spans="1:2">
@@ -11287,7 +11287,7 @@
         <v>1368</v>
       </c>
       <c r="B1368">
-        <v>4.125121404677766</v>
+        <v>4.125121404677765</v>
       </c>
     </row>
     <row r="1369" spans="1:2">
@@ -11455,7 +11455,7 @@
         <v>1389</v>
       </c>
       <c r="B1389">
-        <v>22.47890035057158</v>
+        <v>22.47890035057157</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
@@ -11655,7 +11655,7 @@
         <v>1414</v>
       </c>
       <c r="B1414">
-        <v>5.592322945528059</v>
+        <v>5.592322945528058</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
@@ -11671,7 +11671,7 @@
         <v>1416</v>
       </c>
       <c r="B1416">
-        <v>3.296609578382143</v>
+        <v>3.296609578382142</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
@@ -11791,7 +11791,7 @@
         <v>1431</v>
       </c>
       <c r="B1431">
-        <v>0.89605883928629</v>
+        <v>0.8960588392862899</v>
       </c>
     </row>
     <row r="1432" spans="1:2">
@@ -11847,7 +11847,7 @@
         <v>1438</v>
       </c>
       <c r="B1438">
-        <v>3.645569264116207</v>
+        <v>3.645569264116206</v>
       </c>
     </row>
     <row r="1439" spans="1:2">
@@ -11879,7 +11879,7 @@
         <v>1442</v>
       </c>
       <c r="B1442">
-        <v>1.417060016845724</v>
+        <v>1.417060016845723</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
@@ -11903,7 +11903,7 @@
         <v>1445</v>
       </c>
       <c r="B1445">
-        <v>0.996274480956537</v>
+        <v>0.9962744809565368</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
@@ -12015,7 +12015,7 @@
         <v>1459</v>
       </c>
       <c r="B1459">
-        <v>1.807459947446502</v>
+        <v>1.807459947446501</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
@@ -12055,7 +12055,7 @@
         <v>1464</v>
       </c>
       <c r="B1464">
-        <v>1.787164778019204</v>
+        <v>1.787164778019203</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
@@ -12079,7 +12079,7 @@
         <v>1467</v>
       </c>
       <c r="B1467">
-        <v>0.8991595308753271</v>
+        <v>0.899159530875327</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
@@ -12135,7 +12135,7 @@
         <v>1474</v>
       </c>
       <c r="B1474">
-        <v>7.394299533841207</v>
+        <v>7.394299533841206</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
@@ -12167,7 +12167,7 @@
         <v>1478</v>
       </c>
       <c r="B1478">
-        <v>13.56101240804164</v>
+        <v>13.56101240804163</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
@@ -12295,7 +12295,7 @@
         <v>1494</v>
       </c>
       <c r="B1494">
-        <v>0.788610204381881</v>
+        <v>0.7886102043818809</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
@@ -12375,7 +12375,7 @@
         <v>1504</v>
       </c>
       <c r="B1504">
-        <v>24.27803414980972</v>
+        <v>24.27803414980971</v>
       </c>
     </row>
     <row r="1505" spans="1:2">
@@ -12591,7 +12591,7 @@
         <v>1531</v>
       </c>
       <c r="B1531">
-        <v>4.947302896538305</v>
+        <v>4.947302896538304</v>
       </c>
     </row>
     <row r="1532" spans="1:2">
@@ -12855,7 +12855,7 @@
         <v>1564</v>
       </c>
       <c r="B1564">
-        <v>1.539253055705185</v>
+        <v>1.539253055705184</v>
       </c>
     </row>
     <row r="1565" spans="1:2">
@@ -13023,7 +13023,7 @@
         <v>1585</v>
       </c>
       <c r="B1585">
-        <v>7.235865330340883</v>
+        <v>7.235865330340882</v>
       </c>
     </row>
     <row r="1586" spans="1:2">
@@ -13151,7 +13151,7 @@
         <v>1601</v>
       </c>
       <c r="B1601">
-        <v>5.636576672365922</v>
+        <v>5.636576672365921</v>
       </c>
     </row>
     <row r="1602" spans="1:2">
@@ -13271,7 +13271,7 @@
         <v>1616</v>
       </c>
       <c r="B1616">
-        <v>0.9120282801829468</v>
+        <v>0.9120282801829466</v>
       </c>
     </row>
     <row r="1617" spans="1:2">
@@ -13367,7 +13367,7 @@
         <v>1628</v>
       </c>
       <c r="B1628">
-        <v>2.674519407457252</v>
+        <v>2.674519407457251</v>
       </c>
     </row>
     <row r="1629" spans="1:2">
@@ -13415,7 +13415,7 @@
         <v>1634</v>
       </c>
       <c r="B1634">
-        <v>0.9511298181611434</v>
+        <v>0.9511298181611432</v>
       </c>
     </row>
     <row r="1635" spans="1:2">
@@ -13431,7 +13431,7 @@
         <v>1636</v>
       </c>
       <c r="B1636">
-        <v>0.7828835962864383</v>
+        <v>0.7828835962864382</v>
       </c>
     </row>
     <row r="1637" spans="1:2">
@@ -13455,7 +13455,7 @@
         <v>1639</v>
       </c>
       <c r="B1639">
-        <v>0.7784904614169048</v>
+        <v>0.7784904614169047</v>
       </c>
     </row>
     <row r="1640" spans="1:2">
@@ -13487,7 +13487,7 @@
         <v>1643</v>
       </c>
       <c r="B1643">
-        <v>3.916835817501148</v>
+        <v>3.916835817501147</v>
       </c>
     </row>
     <row r="1644" spans="1:2">
@@ -13551,7 +13551,7 @@
         <v>1651</v>
       </c>
       <c r="B1651">
-        <v>3.078740568241299</v>
+        <v>3.078740568241298</v>
       </c>
     </row>
     <row r="1652" spans="1:2">
@@ -13599,7 +13599,7 @@
         <v>1657</v>
       </c>
       <c r="B1657">
-        <v>1.423117795214854</v>
+        <v>1.423117795214853</v>
       </c>
     </row>
     <row r="1658" spans="1:2">
@@ -13655,7 +13655,7 @@
         <v>1664</v>
       </c>
       <c r="B1664">
-        <v>4.219373050711255</v>
+        <v>4.219373050711254</v>
       </c>
     </row>
     <row r="1665" spans="1:2">
@@ -13799,7 +13799,7 @@
         <v>1682</v>
       </c>
       <c r="B1682">
-        <v>1.257969334218799</v>
+        <v>1.257969334218798</v>
       </c>
     </row>
     <row r="1683" spans="1:2">
@@ -13823,7 +13823,7 @@
         <v>1685</v>
       </c>
       <c r="B1685">
-        <v>1.167641909392986</v>
+        <v>1.167641909392985</v>
       </c>
     </row>
     <row r="1686" spans="1:2">
@@ -13951,7 +13951,7 @@
         <v>1701</v>
       </c>
       <c r="B1701">
-        <v>6.77946580183357</v>
+        <v>6.779465801833569</v>
       </c>
     </row>
     <row r="1702" spans="1:2">
@@ -13999,7 +13999,7 @@
         <v>1707</v>
       </c>
       <c r="B1707">
-        <v>1.303181403353085</v>
+        <v>1.303181403353084</v>
       </c>
     </row>
     <row r="1708" spans="1:2">
@@ -14119,7 +14119,7 @@
         <v>1722</v>
       </c>
       <c r="B1722">
-        <v>17.84090462823646</v>
+        <v>17.84090462823645</v>
       </c>
     </row>
     <row r="1723" spans="1:2">
@@ -14255,7 +14255,7 @@
         <v>1739</v>
       </c>
       <c r="B1739">
-        <v>17.94274681417128</v>
+        <v>17.94274681417127</v>
       </c>
     </row>
     <row r="1740" spans="1:2">
@@ -14327,7 +14327,7 @@
         <v>1748</v>
       </c>
       <c r="B1748">
-        <v>7.245741824343771</v>
+        <v>7.24574182434377</v>
       </c>
     </row>
     <row r="1749" spans="1:2">
@@ -14351,7 +14351,7 @@
         <v>1751</v>
       </c>
       <c r="B1751">
-        <v>2.623422471866646</v>
+        <v>2.623422471866645</v>
       </c>
     </row>
     <row r="1752" spans="1:2">
@@ -14527,7 +14527,7 @@
         <v>1773</v>
       </c>
       <c r="B1773">
-        <v>5.542823247098158</v>
+        <v>5.542823247098157</v>
       </c>
     </row>
     <row r="1774" spans="1:2">
@@ -14687,7 +14687,7 @@
         <v>1793</v>
       </c>
       <c r="B1793">
-        <v>1.72091313901942</v>
+        <v>1.720913139019419</v>
       </c>
     </row>
     <row r="1794" spans="1:2">
@@ -14727,7 +14727,7 @@
         <v>1798</v>
       </c>
       <c r="B1798">
-        <v>4.113310641819714</v>
+        <v>4.113310641819713</v>
       </c>
     </row>
     <row r="1799" spans="1:2">
@@ -14887,7 +14887,7 @@
         <v>1818</v>
       </c>
       <c r="B1818">
-        <v>8.794270578422587</v>
+        <v>8.794270578422585</v>
       </c>
     </row>
     <row r="1819" spans="1:2">
@@ -14895,7 +14895,7 @@
         <v>1819</v>
       </c>
       <c r="B1819">
-        <v>4.353511665106552</v>
+        <v>4.353511665106551</v>
       </c>
     </row>
     <row r="1820" spans="1:2">
@@ -14999,7 +14999,7 @@
         <v>1832</v>
       </c>
       <c r="B1832">
-        <v>7.315023817883313</v>
+        <v>7.315023817883312</v>
       </c>
     </row>
     <row r="1833" spans="1:2">
@@ -15031,7 +15031,7 @@
         <v>1836</v>
       </c>
       <c r="B1836">
-        <v>29.10406425054995</v>
+        <v>29.10406425054994</v>
       </c>
     </row>
     <row r="1837" spans="1:2">
@@ -15047,7 +15047,7 @@
         <v>1838</v>
       </c>
       <c r="B1838">
-        <v>32.73105281081503</v>
+        <v>32.73105281081502</v>
       </c>
     </row>
     <row r="1839" spans="1:2">
@@ -15071,7 +15071,7 @@
         <v>1841</v>
       </c>
       <c r="B1841">
-        <v>36.17551672820182</v>
+        <v>36.17551672820181</v>
       </c>
     </row>
     <row r="1842" spans="1:2">
@@ -15103,7 +15103,7 @@
         <v>1845</v>
       </c>
       <c r="B1845">
-        <v>6.971691096091547</v>
+        <v>6.971691096091546</v>
       </c>
     </row>
     <row r="1846" spans="1:2">
@@ -15175,7 +15175,7 @@
         <v>1854</v>
       </c>
       <c r="B1854">
-        <v>1.663975297628294</v>
+        <v>1.663975297628293</v>
       </c>
     </row>
     <row r="1855" spans="1:2">
@@ -15215,7 +15215,7 @@
         <v>1859</v>
       </c>
       <c r="B1859">
-        <v>26.16016566719674</v>
+        <v>26.16016566719673</v>
       </c>
     </row>
     <row r="1860" spans="1:2">
@@ -15439,7 +15439,7 @@
         <v>1887</v>
       </c>
       <c r="B1887">
-        <v>1.344243586579926</v>
+        <v>1.344243586579925</v>
       </c>
     </row>
     <row r="1888" spans="1:2">
@@ -15471,7 +15471,7 @@
         <v>1891</v>
       </c>
       <c r="B1891">
-        <v>5.414165061125828</v>
+        <v>5.414165061125827</v>
       </c>
     </row>
     <row r="1892" spans="1:2">
@@ -15487,7 +15487,7 @@
         <v>1893</v>
       </c>
       <c r="B1893">
-        <v>5.265255666381997</v>
+        <v>5.265255666381996</v>
       </c>
     </row>
     <row r="1894" spans="1:2">
@@ -15575,7 +15575,7 @@
         <v>1904</v>
       </c>
       <c r="B1904">
-        <v>8.961643448602082</v>
+        <v>8.96164344860208</v>
       </c>
     </row>
     <row r="1905" spans="1:2">
@@ -15767,7 +15767,7 @@
         <v>1928</v>
       </c>
       <c r="B1928">
-        <v>7.551121846628893</v>
+        <v>7.551121846628892</v>
       </c>
     </row>
     <row r="1929" spans="1:2">
@@ -15839,7 +15839,7 @@
         <v>1937</v>
       </c>
       <c r="B1937">
-        <v>43.40557925197721</v>
+        <v>43.4055792519772</v>
       </c>
     </row>
     <row r="1938" spans="1:2">
@@ -15887,7 +15887,7 @@
         <v>1943</v>
       </c>
       <c r="B1943">
-        <v>5.101282420250975</v>
+        <v>5.101282420250974</v>
       </c>
     </row>
     <row r="1944" spans="1:2">
@@ -16431,7 +16431,7 @@
         <v>2011</v>
       </c>
       <c r="B2011">
-        <v>2.812166082185326</v>
+        <v>2.812166082185325</v>
       </c>
     </row>
     <row r="2012" spans="1:2">
@@ -16503,7 +16503,7 @@
         <v>2020</v>
       </c>
       <c r="B2020">
-        <v>1.419961420128471</v>
+        <v>1.41996142012847</v>
       </c>
     </row>
     <row r="2021" spans="1:2">
@@ -16567,7 +16567,7 @@
         <v>2028</v>
       </c>
       <c r="B2028">
-        <v>0.8959357494500523</v>
+        <v>0.8959357494500522</v>
       </c>
     </row>
     <row r="2029" spans="1:2">
@@ -16815,7 +16815,7 @@
         <v>2059</v>
       </c>
       <c r="B2059">
-        <v>3.952707712633297</v>
+        <v>3.952707712633296</v>
       </c>
     </row>
     <row r="2060" spans="1:2">
@@ -16831,7 +16831,7 @@
         <v>2061</v>
       </c>
       <c r="B2061">
-        <v>4.775123661324764</v>
+        <v>4.775123661324763</v>
       </c>
     </row>
     <row r="2062" spans="1:2">
@@ -17015,7 +17015,7 @@
         <v>2084</v>
       </c>
       <c r="B2084">
-        <v>9.496175716016509</v>
+        <v>9.496175716016507</v>
       </c>
     </row>
     <row r="2085" spans="1:2">
@@ -17079,7 +17079,7 @@
         <v>2092</v>
       </c>
       <c r="B2092">
-        <v>1.919676848149931</v>
+        <v>1.91967684814993</v>
       </c>
     </row>
     <row r="2093" spans="1:2">
@@ -17231,7 +17231,7 @@
         <v>2111</v>
       </c>
       <c r="B2111">
-        <v>4.551920758280283</v>
+        <v>4.551920758280282</v>
       </c>
     </row>
     <row r="2112" spans="1:2">
@@ -17327,7 +17327,7 @@
         <v>2123</v>
       </c>
       <c r="B2123">
-        <v>18.33745488904038</v>
+        <v>18.33745488904037</v>
       </c>
     </row>
     <row r="2124" spans="1:2">
@@ -17415,7 +17415,7 @@
         <v>2134</v>
       </c>
       <c r="B2134">
-        <v>14.48424479403261</v>
+        <v>14.4842447940326</v>
       </c>
     </row>
     <row r="2135" spans="1:2">
@@ -17463,7 +17463,7 @@
         <v>2140</v>
       </c>
       <c r="B2140">
-        <v>1.808421220453311</v>
+        <v>1.80842122045331</v>
       </c>
     </row>
     <row r="2141" spans="1:2">
@@ -17559,7 +17559,7 @@
         <v>2152</v>
       </c>
       <c r="B2152">
-        <v>1.908288107587551</v>
+        <v>1.90828810758755</v>
       </c>
     </row>
     <row r="2153" spans="1:2">
@@ -17575,7 +17575,7 @@
         <v>2154</v>
       </c>
       <c r="B2154">
-        <v>4.263626777549118</v>
+        <v>4.263626777549117</v>
       </c>
     </row>
     <row r="2155" spans="1:2">
@@ -17623,7 +17623,7 @@
         <v>2160</v>
       </c>
       <c r="B2160">
-        <v>2.645402799766247</v>
+        <v>2.645402799766246</v>
       </c>
     </row>
     <row r="2161" spans="1:2">
@@ -17743,7 +17743,7 @@
         <v>2175</v>
       </c>
       <c r="B2175">
-        <v>30.58284209742737</v>
+        <v>30.58284209742736</v>
       </c>
     </row>
     <row r="2176" spans="1:2">
@@ -17799,7 +17799,7 @@
         <v>2182</v>
       </c>
       <c r="B2182">
-        <v>4.758506533432666</v>
+        <v>4.758506533432665</v>
       </c>
     </row>
     <row r="2183" spans="1:2">
@@ -17895,7 +17895,7 @@
         <v>2194</v>
       </c>
       <c r="B2194">
-        <v>29.05113562096772</v>
+        <v>29.05113562096771</v>
       </c>
     </row>
     <row r="2195" spans="1:2">
@@ -17911,7 +17911,7 @@
         <v>2196</v>
       </c>
       <c r="B2196">
-        <v>30.68864074238412</v>
+        <v>30.68864074238411</v>
       </c>
     </row>
     <row r="2197" spans="1:2">
@@ -17935,7 +17935,7 @@
         <v>2199</v>
       </c>
       <c r="B2199">
-        <v>48.39687211141858</v>
+        <v>48.39687211141857</v>
       </c>
     </row>
     <row r="2200" spans="1:2">
@@ -17951,7 +17951,7 @@
         <v>2201</v>
       </c>
       <c r="B2201">
-        <v>54.63811295075059</v>
+        <v>54.63811295075058</v>
       </c>
     </row>
     <row r="2202" spans="1:2">
@@ -17959,7 +17959,7 @@
         <v>2202</v>
       </c>
       <c r="B2202">
-        <v>43.03894738261187</v>
+        <v>43.03894738261186</v>
       </c>
     </row>
     <row r="2203" spans="1:2">
@@ -18071,7 +18071,7 @@
         <v>2216</v>
       </c>
       <c r="B2216">
-        <v>7.603552255445408</v>
+        <v>7.603552255445407</v>
       </c>
     </row>
     <row r="2217" spans="1:2">
@@ -18087,7 +18087,7 @@
         <v>2218</v>
       </c>
       <c r="B2218">
-        <v>35.6608839843125</v>
+        <v>35.66088398431249</v>
       </c>
     </row>
     <row r="2219" spans="1:2">
@@ -18111,7 +18111,7 @@
         <v>2221</v>
       </c>
       <c r="B2221">
-        <v>51.92515434586252</v>
+        <v>51.92515434586251</v>
       </c>
     </row>
     <row r="2222" spans="1:2">
@@ -18119,7 +18119,7 @@
         <v>2222</v>
       </c>
       <c r="B2222">
-        <v>44.68190362534737</v>
+        <v>44.68190362534736</v>
       </c>
     </row>
     <row r="2223" spans="1:2">
@@ -18135,7 +18135,7 @@
         <v>2224</v>
       </c>
       <c r="B2224">
-        <v>66.97024918658134</v>
+        <v>66.97024918658133</v>
       </c>
     </row>
     <row r="2225" spans="1:2">
@@ -18167,7 +18167,7 @@
         <v>2228</v>
       </c>
       <c r="B2228">
-        <v>38.11183708063733</v>
+        <v>38.11183708063732</v>
       </c>
     </row>
     <row r="2229" spans="1:2">
@@ -18367,7 +18367,7 @@
         <v>2253</v>
       </c>
       <c r="B2253">
-        <v>42.72799901059218</v>
+        <v>42.72799901059217</v>
       </c>
     </row>
     <row r="2254" spans="1:2">
@@ -18423,7 +18423,7 @@
         <v>2260</v>
       </c>
       <c r="B2260">
-        <v>3.27638767671451</v>
+        <v>3.276387676714509</v>
       </c>
     </row>
     <row r="2261" spans="1:2">
@@ -18527,7 +18527,7 @@
         <v>2273</v>
       </c>
       <c r="B2273">
-        <v>28.11207739888903</v>
+        <v>28.11207739888902</v>
       </c>
     </row>
     <row r="2274" spans="1:2">
@@ -18639,7 +18639,7 @@
         <v>2287</v>
       </c>
       <c r="B2287">
-        <v>3.151011886375187</v>
+        <v>3.151011886375186</v>
       </c>
     </row>
     <row r="2288" spans="1:2">
@@ -18663,7 +18663,7 @@
         <v>2290</v>
       </c>
       <c r="B2290">
-        <v>6.316208411021582</v>
+        <v>6.316208411021581</v>
       </c>
     </row>
     <row r="2291" spans="1:2">
@@ -18823,7 +18823,7 @@
         <v>2310</v>
       </c>
       <c r="B2310">
-        <v>4.306063463947281</v>
+        <v>4.30606346394728</v>
       </c>
     </row>
     <row r="2311" spans="1:2">
@@ -18831,7 +18831,7 @@
         <v>2311</v>
       </c>
       <c r="B2311">
-        <v>8.974597188510913</v>
+        <v>8.974597188510911</v>
       </c>
     </row>
     <row r="2312" spans="1:2">
@@ -18855,7 +18855,7 @@
         <v>2314</v>
       </c>
       <c r="B2314">
-        <v>52.2308274391863</v>
+        <v>52.23082743918629</v>
       </c>
     </row>
     <row r="2315" spans="1:2">
@@ -18911,7 +18911,7 @@
         <v>2321</v>
       </c>
       <c r="B2321">
-        <v>66.90401513184388</v>
+        <v>66.90401513184386</v>
       </c>
     </row>
     <row r="2322" spans="1:2">
@@ -19007,7 +19007,7 @@
         <v>2333</v>
       </c>
       <c r="B2333">
-        <v>2.133343219596372</v>
+        <v>2.133343219596371</v>
       </c>
     </row>
     <row r="2334" spans="1:2">
@@ -19015,7 +19015,7 @@
         <v>2334</v>
       </c>
       <c r="B2334">
-        <v>2.327285910140903</v>
+        <v>2.327285910140902</v>
       </c>
     </row>
     <row r="2335" spans="1:2">
@@ -19031,7 +19031,7 @@
         <v>2336</v>
       </c>
       <c r="B2336">
-        <v>19.38826109816063</v>
+        <v>19.38826109816062</v>
       </c>
     </row>
     <row r="2337" spans="1:2">
@@ -19223,7 +19223,7 @@
         <v>2360</v>
       </c>
       <c r="B2360">
-        <v>5.824992043121301</v>
+        <v>5.8249920431213</v>
       </c>
     </row>
     <row r="2361" spans="1:2">
@@ -19391,7 +19391,7 @@
         <v>2381</v>
       </c>
       <c r="B2381">
-        <v>1.110375828438559</v>
+        <v>1.110375828438558</v>
       </c>
     </row>
     <row r="2382" spans="1:2">
@@ -19415,7 +19415,7 @@
         <v>2384</v>
       </c>
       <c r="B2384">
-        <v>3.285297036289815</v>
+        <v>3.285297036289814</v>
       </c>
     </row>
     <row r="2385" spans="1:2">
@@ -19519,7 +19519,7 @@
         <v>2397</v>
       </c>
       <c r="B2397">
-        <v>5.545109201199717</v>
+        <v>5.545109201199716</v>
       </c>
     </row>
     <row r="2398" spans="1:2">
@@ -19527,7 +19527,7 @@
         <v>2398</v>
       </c>
       <c r="B2398">
-        <v>4.123597435276727</v>
+        <v>4.123597435276726</v>
       </c>
     </row>
     <row r="2399" spans="1:2">
@@ -19607,7 +19607,7 @@
         <v>2408</v>
       </c>
       <c r="B2408">
-        <v>1.628455087742539</v>
+        <v>1.628455087742538</v>
       </c>
     </row>
     <row r="2409" spans="1:2">
@@ -19647,7 +19647,7 @@
         <v>2413</v>
       </c>
       <c r="B2413">
-        <v>17.0750806971105</v>
+        <v>17.07508069711049</v>
       </c>
     </row>
     <row r="2414" spans="1:2">
@@ -19999,7 +19999,7 @@
         <v>2457</v>
       </c>
       <c r="B2457">
-        <v>38.59599043650587</v>
+        <v>38.59599043650586</v>
       </c>
     </row>
     <row r="2458" spans="1:2">
@@ -20295,7 +20295,7 @@
         <v>2494</v>
       </c>
       <c r="B2494">
-        <v>7.590041680563119</v>
+        <v>7.590041680563118</v>
       </c>
     </row>
     <row r="2495" spans="1:2">
@@ -20439,7 +20439,7 @@
         <v>2512</v>
       </c>
       <c r="B2512">
-        <v>46.60327735481115</v>
+        <v>46.60327735481114</v>
       </c>
     </row>
     <row r="2513" spans="1:2">
@@ -20511,7 +20511,7 @@
         <v>2521</v>
       </c>
       <c r="B2521">
-        <v>2.549844056900329</v>
+        <v>2.549844056900328</v>
       </c>
     </row>
     <row r="2522" spans="1:2">
@@ -20615,7 +20615,7 @@
         <v>2534</v>
       </c>
       <c r="B2534">
-        <v>50.3126774911478</v>
+        <v>50.31267749114779</v>
       </c>
     </row>
     <row r="2535" spans="1:2">
@@ -20623,7 +20623,7 @@
         <v>2535</v>
       </c>
       <c r="B2535">
-        <v>62.61286898376446</v>
+        <v>62.61286898376445</v>
       </c>
     </row>
     <row r="2536" spans="1:2">
@@ -20695,7 +20695,7 @@
         <v>2544</v>
       </c>
       <c r="B2544">
-        <v>5.418649048017346</v>
+        <v>5.418649048017345</v>
       </c>
     </row>
     <row r="2545" spans="1:2">
@@ -20799,7 +20799,7 @@
         <v>2557</v>
       </c>
       <c r="B2557">
-        <v>3.345142142384462</v>
+        <v>3.345142142384461</v>
       </c>
     </row>
     <row r="2558" spans="1:2">
@@ -20807,7 +20807,7 @@
         <v>2558</v>
       </c>
       <c r="B2558">
-        <v>1.79288845540426</v>
+        <v>1.792888455404259</v>
       </c>
     </row>
     <row r="2559" spans="1:2">
@@ -20815,7 +20815,7 @@
         <v>2559</v>
       </c>
       <c r="B2559">
-        <v>1.548276712985568</v>
+        <v>1.548276712985567</v>
       </c>
     </row>
     <row r="2560" spans="1:2">
@@ -20983,7 +20983,7 @@
         <v>2580</v>
       </c>
       <c r="B2580">
-        <v>5.273432348360649</v>
+        <v>5.273432348360648</v>
       </c>
     </row>
     <row r="2581" spans="1:2">
@@ -21015,7 +21015,7 @@
         <v>2584</v>
       </c>
       <c r="B2584">
-        <v>6.017305258690876</v>
+        <v>6.017305258690875</v>
       </c>
     </row>
     <row r="2585" spans="1:2">
@@ -21023,7 +21023,7 @@
         <v>2585</v>
       </c>
       <c r="B2585">
-        <v>13.75153789027538</v>
+        <v>13.75153789027537</v>
       </c>
     </row>
     <row r="2586" spans="1:2">
@@ -21055,7 +21055,7 @@
         <v>2589</v>
       </c>
       <c r="B2589">
-        <v>7.035727118039051</v>
+        <v>7.03572711803905</v>
       </c>
     </row>
     <row r="2590" spans="1:2">
@@ -21167,7 +21167,7 @@
         <v>2603</v>
       </c>
       <c r="B2603">
-        <v>19.45851022612776</v>
+        <v>19.45851022612775</v>
       </c>
     </row>
     <row r="2604" spans="1:2">
@@ -21191,7 +21191,7 @@
         <v>2606</v>
       </c>
       <c r="B2606">
-        <v>31.60566002235547</v>
+        <v>31.60566002235546</v>
       </c>
     </row>
     <row r="2607" spans="1:2">
@@ -21199,7 +21199,7 @@
         <v>2607</v>
       </c>
       <c r="B2607">
-        <v>33.09035790421384</v>
+        <v>33.09035790421383</v>
       </c>
     </row>
     <row r="2608" spans="1:2">
@@ -21399,7 +21399,7 @@
         <v>2632</v>
       </c>
       <c r="B2632">
-        <v>48.66913510633497</v>
+        <v>48.66913510633496</v>
       </c>
     </row>
     <row r="2633" spans="1:2">
@@ -21423,7 +21423,7 @@
         <v>2635</v>
       </c>
       <c r="B2635">
-        <v>36.72326649945988</v>
+        <v>36.72326649945987</v>
       </c>
     </row>
     <row r="2636" spans="1:2">
@@ -21463,7 +21463,7 @@
         <v>2640</v>
       </c>
       <c r="B2640">
-        <v>3.252648922582941</v>
+        <v>3.25264892258294</v>
       </c>
     </row>
     <row r="2641" spans="1:2">
@@ -21471,7 +21471,7 @@
         <v>2641</v>
       </c>
       <c r="B2641">
-        <v>2.60597302222475</v>
+        <v>2.605973022224749</v>
       </c>
     </row>
     <row r="2642" spans="1:2">
@@ -21671,7 +21671,7 @@
         <v>2666</v>
       </c>
       <c r="B2666">
-        <v>2.032799338362824</v>
+        <v>2.032799338362823</v>
       </c>
     </row>
     <row r="2667" spans="1:2">
@@ -21735,7 +21735,7 @@
         <v>2674</v>
       </c>
       <c r="B2674">
-        <v>23.6897526539048</v>
+        <v>23.68975265390479</v>
       </c>
     </row>
     <row r="2675" spans="1:2">
@@ -21839,7 +21839,7 @@
         <v>2687</v>
       </c>
       <c r="B2687">
-        <v>3.976973994634456</v>
+        <v>3.976973994634455</v>
       </c>
     </row>
     <row r="2688" spans="1:2">
@@ -21991,7 +21991,7 @@
         <v>2706</v>
       </c>
       <c r="B2706">
-        <v>3.059192729962587</v>
+        <v>3.059192729962586</v>
       </c>
     </row>
     <row r="2707" spans="1:2">
@@ -22111,7 +22111,7 @@
         <v>2721</v>
       </c>
       <c r="B2721">
-        <v>1.915749696231869</v>
+        <v>1.915749696231868</v>
       </c>
     </row>
     <row r="2722" spans="1:2">
@@ -22151,7 +22151,7 @@
         <v>2726</v>
       </c>
       <c r="B2726">
-        <v>16.39234240544503</v>
+        <v>16.39234240544502</v>
       </c>
     </row>
     <row r="2727" spans="1:2">
@@ -22175,7 +22175,7 @@
         <v>2729</v>
       </c>
       <c r="B2729">
-        <v>15.27676749678062</v>
+        <v>15.27676749678061</v>
       </c>
     </row>
     <row r="2730" spans="1:2">
@@ -22271,7 +22271,7 @@
         <v>2741</v>
       </c>
       <c r="B2741">
-        <v>2.506654177932806</v>
+        <v>2.506654177932805</v>
       </c>
     </row>
     <row r="2742" spans="1:2">
@@ -22319,7 +22319,7 @@
         <v>2747</v>
       </c>
       <c r="B2747">
-        <v>35.22508734982308</v>
+        <v>35.22508734982307</v>
       </c>
     </row>
     <row r="2748" spans="1:2">
@@ -22327,7 +22327,7 @@
         <v>2748</v>
       </c>
       <c r="B2748">
-        <v>36.6927871114391</v>
+        <v>36.69278711143909</v>
       </c>
     </row>
     <row r="2749" spans="1:2">
@@ -22623,7 +22623,7 @@
         <v>2785</v>
       </c>
       <c r="B2785">
-        <v>3.268679908397717</v>
+        <v>3.268679908397716</v>
       </c>
     </row>
     <row r="2786" spans="1:2">
@@ -22703,7 +22703,7 @@
         <v>2795</v>
       </c>
       <c r="B2795">
-        <v>32.94499466903781</v>
+        <v>32.9449946690378</v>
       </c>
     </row>
     <row r="2796" spans="1:2">
@@ -22791,7 +22791,7 @@
         <v>2806</v>
       </c>
       <c r="B2806">
-        <v>9.716506522882108</v>
+        <v>9.716506522882106</v>
       </c>
     </row>
     <row r="2807" spans="1:2">
@@ -22871,7 +22871,7 @@
         <v>2816</v>
       </c>
       <c r="B2816">
-        <v>3.055851720121848</v>
+        <v>3.055851720121847</v>
       </c>
     </row>
     <row r="2817" spans="1:2">
@@ -23039,7 +23039,7 @@
         <v>2837</v>
       </c>
       <c r="B2837">
-        <v>1.982438011079258</v>
+        <v>1.982438011079257</v>
       </c>
     </row>
     <row r="2838" spans="1:2">
@@ -23055,7 +23055,7 @@
         <v>2839</v>
       </c>
       <c r="B2839">
-        <v>8.75467668109944</v>
+        <v>8.754676681099438</v>
       </c>
     </row>
     <row r="2840" spans="1:2">
@@ -23111,7 +23111,7 @@
         <v>2846</v>
       </c>
       <c r="B2846">
-        <v>45.82605296028126</v>
+        <v>45.82605296028125</v>
       </c>
     </row>
     <row r="2847" spans="1:2">
@@ -23143,7 +23143,7 @@
         <v>2850</v>
       </c>
       <c r="B2850">
-        <v>64.22681119367249</v>
+        <v>64.22681119367248</v>
       </c>
     </row>
     <row r="2851" spans="1:2">
@@ -23159,7 +23159,7 @@
         <v>2852</v>
       </c>
       <c r="B2852">
-        <v>32.70291799110354</v>
+        <v>32.70291799110353</v>
       </c>
     </row>
     <row r="2853" spans="1:2">
@@ -23311,7 +23311,7 @@
         <v>2871</v>
       </c>
       <c r="B2871">
-        <v>72.96237964305121</v>
+        <v>72.96237964305119</v>
       </c>
     </row>
     <row r="2872" spans="1:2">
@@ -23343,7 +23343,7 @@
         <v>2875</v>
       </c>
       <c r="B2875">
-        <v>57.35429533706394</v>
+        <v>57.35429533706393</v>
       </c>
     </row>
     <row r="2876" spans="1:2">
@@ -23359,7 +23359,7 @@
         <v>2877</v>
       </c>
       <c r="B2877">
-        <v>40.63635100766616</v>
+        <v>40.63635100766615</v>
       </c>
     </row>
     <row r="2878" spans="1:2">
@@ -23375,7 +23375,7 @@
         <v>2879</v>
       </c>
       <c r="B2879">
-        <v>19.13624931201574</v>
+        <v>19.13624931201573</v>
       </c>
     </row>
     <row r="2880" spans="1:2">
@@ -23415,7 +23415,7 @@
         <v>2884</v>
       </c>
       <c r="B2884">
-        <v>2.592661735648752</v>
+        <v>2.592661735648751</v>
       </c>
     </row>
     <row r="2885" spans="1:2">
@@ -23543,7 +23543,7 @@
         <v>2900</v>
       </c>
       <c r="B2900">
-        <v>51.70066193024793</v>
+        <v>51.70066193024792</v>
       </c>
     </row>
     <row r="2901" spans="1:2">
@@ -23607,7 +23607,7 @@
         <v>2908</v>
       </c>
       <c r="B2908">
-        <v>6.227994028384517</v>
+        <v>6.227994028384516</v>
       </c>
     </row>
     <row r="2909" spans="1:2">
@@ -23687,7 +23687,7 @@
         <v>2918</v>
       </c>
       <c r="B2918">
-        <v>85.29773966030723</v>
+        <v>85.29773966030722</v>
       </c>
     </row>
     <row r="2919" spans="1:2">
@@ -23727,7 +23727,7 @@
         <v>2923</v>
       </c>
       <c r="B2923">
-        <v>77.58410992274062</v>
+        <v>77.58410992274061</v>
       </c>
     </row>
     <row r="2924" spans="1:2">
@@ -23815,7 +23815,7 @@
         <v>2934</v>
       </c>
       <c r="B2934">
-        <v>3.788412088359745</v>
+        <v>3.788412088359746</v>
       </c>
     </row>
     <row r="2935" spans="1:2">
@@ -23919,7 +23919,7 @@
         <v>2947</v>
       </c>
       <c r="B2947">
-        <v>34.65213346924015</v>
+        <v>34.65213346924014</v>
       </c>
     </row>
     <row r="2948" spans="1:2">
@@ -23959,7 +23959,7 @@
         <v>2952</v>
       </c>
       <c r="B2952">
-        <v>3.499590579758991</v>
+        <v>3.49959057975899</v>
       </c>
     </row>
     <row r="2953" spans="1:2">
@@ -23983,7 +23983,7 @@
         <v>2955</v>
       </c>
       <c r="B2955">
-        <v>2.091504398117078</v>
+        <v>2.091504398117077</v>
       </c>
     </row>
     <row r="2956" spans="1:2">
@@ -24135,7 +24135,7 @@
         <v>2974</v>
       </c>
       <c r="B2974">
-        <v>11.79862971705164</v>
+        <v>11.79862971705163</v>
       </c>
     </row>
     <row r="2975" spans="1:2">
@@ -24263,7 +24263,7 @@
         <v>2990</v>
       </c>
       <c r="B2990">
-        <v>60.99716834762446</v>
+        <v>60.99716834762445</v>
       </c>
     </row>
     <row r="2991" spans="1:2">
@@ -24303,7 +24303,7 @@
         <v>2995</v>
       </c>
       <c r="B2995">
-        <v>60.03911912224052</v>
+        <v>60.03911912224051</v>
       </c>
     </row>
     <row r="2996" spans="1:2">
@@ -24455,7 +24455,7 @@
         <v>3014</v>
       </c>
       <c r="B3014">
-        <v>64.31824935773483</v>
+        <v>64.31824935773481</v>
       </c>
     </row>
     <row r="3015" spans="1:2">
@@ -24567,7 +24567,7 @@
         <v>3028</v>
       </c>
       <c r="B3028">
-        <v>4.79130118265887</v>
+        <v>4.791301182658869</v>
       </c>
     </row>
     <row r="3029" spans="1:2">
@@ -24583,7 +24583,7 @@
         <v>3030</v>
       </c>
       <c r="B3030">
-        <v>7.463200535030489</v>
+        <v>7.463200535030488</v>
       </c>
     </row>
     <row r="3031" spans="1:2">
@@ -24599,7 +24599,7 @@
         <v>3032</v>
       </c>
       <c r="B3032">
-        <v>48.66679053802568</v>
+        <v>48.66679053802567</v>
       </c>
     </row>
     <row r="3033" spans="1:2">
@@ -24623,7 +24623,7 @@
         <v>3035</v>
       </c>
       <c r="B3035">
-        <v>49.79540710791052</v>
+        <v>49.79540710791051</v>
       </c>
     </row>
     <row r="3036" spans="1:2">
@@ -24631,7 +24631,7 @@
         <v>3036</v>
       </c>
       <c r="B3036">
-        <v>50.39884037651423</v>
+        <v>50.39884037651422</v>
       </c>
     </row>
     <row r="3037" spans="1:2">
@@ -24647,7 +24647,7 @@
         <v>3038</v>
       </c>
       <c r="B3038">
-        <v>57.75697494418463</v>
+        <v>57.75697494418462</v>
       </c>
     </row>
     <row r="3039" spans="1:2">
@@ -24671,7 +24671,7 @@
         <v>3041</v>
       </c>
       <c r="B3041">
-        <v>56.99499024366513</v>
+        <v>56.99499024366512</v>
       </c>
     </row>
     <row r="3042" spans="1:2">
@@ -24831,7 +24831,7 @@
         <v>3061</v>
       </c>
       <c r="B3061">
-        <v>78.46244382560867</v>
+        <v>78.46244382560866</v>
       </c>
     </row>
     <row r="3062" spans="1:2">
@@ -24855,7 +24855,7 @@
         <v>3064</v>
       </c>
       <c r="B3064">
-        <v>67.18946632350003</v>
+        <v>67.18946632350001</v>
       </c>
     </row>
     <row r="3065" spans="1:2">
@@ -24911,7 +24911,7 @@
         <v>3071</v>
       </c>
       <c r="B3071">
-        <v>28.54585184321169</v>
+        <v>28.54585184321168</v>
       </c>
     </row>
     <row r="3072" spans="1:2">
@@ -24927,7 +24927,7 @@
         <v>3073</v>
       </c>
       <c r="B3073">
-        <v>16.15656675484198</v>
+        <v>16.15656675484197</v>
       </c>
     </row>
     <row r="3074" spans="1:2">
@@ -24951,7 +24951,7 @@
         <v>3076</v>
       </c>
       <c r="B3076">
-        <v>5.180558136208869</v>
+        <v>5.180558136208868</v>
       </c>
     </row>
     <row r="3077" spans="1:2">
@@ -25055,7 +25055,7 @@
         <v>3089</v>
       </c>
       <c r="B3089">
-        <v>35.96655707763628</v>
+        <v>35.96655707763627</v>
       </c>
     </row>
     <row r="3090" spans="1:2">
@@ -25135,7 +25135,7 @@
         <v>3099</v>
       </c>
       <c r="B3099">
-        <v>7.702903337551604</v>
+        <v>7.702903337551603</v>
       </c>
     </row>
     <row r="3100" spans="1:2">
@@ -25151,7 +25151,7 @@
         <v>3101</v>
       </c>
       <c r="B3101">
-        <v>8.126801287871373</v>
+        <v>8.126801287871372</v>
       </c>
     </row>
     <row r="3102" spans="1:2">
@@ -25215,7 +25215,7 @@
         <v>3109</v>
       </c>
       <c r="B3109">
-        <v>70.47068967235245</v>
+        <v>70.47068967235244</v>
       </c>
     </row>
     <row r="3110" spans="1:2">
@@ -25223,7 +25223,7 @@
         <v>3110</v>
       </c>
       <c r="B3110">
-        <v>78.36631652492775</v>
+        <v>78.36631652492774</v>
       </c>
     </row>
     <row r="3111" spans="1:2">
@@ -25335,7 +25335,7 @@
         <v>3124</v>
       </c>
       <c r="B3124">
-        <v>2.913483670960939</v>
+        <v>2.913483670960938</v>
       </c>
     </row>
     <row r="3125" spans="1:2">
@@ -25423,7 +25423,7 @@
         <v>3135</v>
       </c>
       <c r="B3135">
-        <v>71.71389701835388</v>
+        <v>71.71389701835386</v>
       </c>
     </row>
     <row r="3136" spans="1:2">
@@ -25439,7 +25439,7 @@
         <v>3137</v>
       </c>
       <c r="B3137">
-        <v>77.62191608672794</v>
+        <v>77.62191608672792</v>
       </c>
     </row>
     <row r="3138" spans="1:2">
@@ -25455,7 +25455,7 @@
         <v>3139</v>
       </c>
       <c r="B3139">
-        <v>64.90439143505752</v>
+        <v>64.90439143505751</v>
       </c>
     </row>
     <row r="3140" spans="1:2">
@@ -25559,7 +25559,7 @@
         <v>3152</v>
       </c>
       <c r="B3152">
-        <v>35.31681858492408</v>
+        <v>35.31681858492407</v>
       </c>
     </row>
     <row r="3153" spans="1:2">
@@ -25575,7 +25575,7 @@
         <v>3154</v>
       </c>
       <c r="B3154">
-        <v>55.15831404437448</v>
+        <v>55.15831404437447</v>
       </c>
     </row>
     <row r="3155" spans="1:2">
@@ -25711,7 +25711,7 @@
         <v>3171</v>
       </c>
       <c r="B3171">
-        <v>40.04786436203418</v>
+        <v>40.04786436203417</v>
       </c>
     </row>
     <row r="3172" spans="1:2">
@@ -25807,7 +25807,7 @@
         <v>3183</v>
       </c>
       <c r="B3183">
-        <v>86.09049681988617</v>
+        <v>86.09049681988616</v>
       </c>
     </row>
     <row r="3184" spans="1:2">
@@ -25831,7 +25831,7 @@
         <v>3186</v>
       </c>
       <c r="B3186">
-        <v>75.86671363618514</v>
+        <v>75.86671363618512</v>
       </c>
     </row>
     <row r="3187" spans="1:2">
@@ -25943,7 +25943,7 @@
         <v>3200</v>
       </c>
       <c r="B3200">
-        <v>26.40300432983153</v>
+        <v>26.40300432983152</v>
       </c>
     </row>
     <row r="3201" spans="1:2">
@@ -26039,7 +26039,7 @@
         <v>3212</v>
       </c>
       <c r="B3212">
-        <v>29.58522828182415</v>
+        <v>29.58522828182414</v>
       </c>
     </row>
     <row r="3213" spans="1:2">
@@ -26055,7 +26055,7 @@
         <v>3214</v>
       </c>
       <c r="B3214">
-        <v>18.99841800253331</v>
+        <v>18.9984180025333</v>
       </c>
     </row>
     <row r="3215" spans="1:2">
@@ -26191,7 +26191,7 @@
         <v>3231</v>
       </c>
       <c r="B3231">
-        <v>59.05117665091313</v>
+        <v>59.05117665091312</v>
       </c>
     </row>
     <row r="3232" spans="1:2">
@@ -26199,7 +26199,7 @@
         <v>3232</v>
       </c>
       <c r="B3232">
-        <v>68.40688341809926</v>
+        <v>68.40688341809924</v>
       </c>
     </row>
     <row r="3233" spans="1:2">
@@ -26247,7 +26247,7 @@
         <v>3238</v>
       </c>
       <c r="B3238">
-        <v>27.77445956235116</v>
+        <v>27.77445956235115</v>
       </c>
     </row>
     <row r="3239" spans="1:2">
@@ -26327,7 +26327,7 @@
         <v>3248</v>
       </c>
       <c r="B3248">
-        <v>33.85703174135192</v>
+        <v>33.85703174135191</v>
       </c>
     </row>
     <row r="3249" spans="1:2">
@@ -26367,7 +26367,7 @@
         <v>3253</v>
       </c>
       <c r="B3253">
-        <v>69.28638960512195</v>
+        <v>69.28638960512194</v>
       </c>
     </row>
     <row r="3254" spans="1:2">
@@ -26519,7 +26519,7 @@
         <v>3272</v>
       </c>
       <c r="B3272">
-        <v>63.61370658079295</v>
+        <v>63.61370658079294</v>
       </c>
     </row>
     <row r="3273" spans="1:2">
@@ -26535,7 +26535,7 @@
         <v>3274</v>
       </c>
       <c r="B3274">
-        <v>79.10485554235434</v>
+        <v>79.10485554235433</v>
       </c>
     </row>
     <row r="3275" spans="1:2">
@@ -26607,7 +26607,7 @@
         <v>3283</v>
       </c>
       <c r="B3283">
-        <v>73.20738703137209</v>
+        <v>73.20738703137208</v>
       </c>
     </row>
     <row r="3284" spans="1:2">
@@ -26687,7 +26687,7 @@
         <v>3293</v>
       </c>
       <c r="B3293">
-        <v>9.620730907447582</v>
+        <v>9.62073090744758</v>
       </c>
     </row>
     <row r="3294" spans="1:2">
@@ -26695,7 +26695,7 @@
         <v>3294</v>
       </c>
       <c r="B3294">
-        <v>5.616677148840817</v>
+        <v>5.616677148840816</v>
       </c>
     </row>
     <row r="3295" spans="1:2">
@@ -26791,7 +26791,7 @@
         <v>3306</v>
       </c>
       <c r="B3306">
-        <v>12.66151877618224</v>
+        <v>12.66151877618223</v>
       </c>
     </row>
     <row r="3307" spans="1:2">
@@ -26887,7 +26887,7 @@
         <v>3318</v>
       </c>
       <c r="B3318">
-        <v>2.10073613583491</v>
+        <v>2.100736135834909</v>
       </c>
     </row>
     <row r="3319" spans="1:2">
@@ -26895,7 +26895,7 @@
         <v>3319</v>
       </c>
       <c r="B3319">
-        <v>8.459876523309992</v>
+        <v>8.45987652330999</v>
       </c>
     </row>
     <row r="3320" spans="1:2">
@@ -26967,7 +26967,7 @@
         <v>3328</v>
       </c>
       <c r="B3328">
-        <v>42.95718056282535</v>
+        <v>42.95718056282534</v>
       </c>
     </row>
     <row r="3329" spans="1:2">
@@ -26975,7 +26975,7 @@
         <v>3329</v>
       </c>
       <c r="B3329">
-        <v>42.41236150195391</v>
+        <v>42.4123615019539</v>
       </c>
     </row>
     <row r="3330" spans="1:2">
@@ -27055,7 +27055,7 @@
         <v>3339</v>
       </c>
       <c r="B3339">
-        <v>2.187517401092921</v>
+        <v>2.18751740109292</v>
       </c>
     </row>
     <row r="3340" spans="1:2">
@@ -27103,7 +27103,7 @@
         <v>3345</v>
       </c>
       <c r="B3345">
-        <v>34.4455183869839</v>
+        <v>34.44551838698389</v>
       </c>
     </row>
     <row r="3346" spans="1:2">
@@ -27159,7 +27159,7 @@
         <v>3352</v>
       </c>
       <c r="B3352">
-        <v>40.46842130251321</v>
+        <v>40.4684213025132</v>
       </c>
     </row>
     <row r="3353" spans="1:2">
@@ -27239,7 +27239,7 @@
         <v>3362</v>
       </c>
       <c r="B3362">
-        <v>1.947037960319354</v>
+        <v>1.947037960319353</v>
       </c>
     </row>
     <row r="3363" spans="1:2">
@@ -27255,7 +27255,7 @@
         <v>3364</v>
       </c>
       <c r="B3364">
-        <v>1.543704804782451</v>
+        <v>1.54370480478245</v>
       </c>
     </row>
     <row r="3365" spans="1:2">
@@ -27367,7 +27367,7 @@
         <v>3378</v>
       </c>
       <c r="B3378">
-        <v>26.01398183311246</v>
+        <v>26.01398183311245</v>
       </c>
     </row>
     <row r="3379" spans="1:2">
@@ -27375,7 +27375,7 @@
         <v>3379</v>
       </c>
       <c r="B3379">
-        <v>30.91401237111469</v>
+        <v>30.91401237111468</v>
       </c>
     </row>
     <row r="3380" spans="1:2">
@@ -27463,7 +27463,7 @@
         <v>3390</v>
       </c>
       <c r="B3390">
-        <v>2.214957642442783</v>
+        <v>2.214957642442782</v>
       </c>
     </row>
     <row r="3391" spans="1:2">
@@ -27695,7 +27695,7 @@
         <v>3419</v>
       </c>
       <c r="B3419">
-        <v>48.86519963119941</v>
+        <v>48.8651996311994</v>
       </c>
     </row>
     <row r="3420" spans="1:2">
@@ -27735,7 +27735,7 @@
         <v>3424</v>
       </c>
       <c r="B3424">
-        <v>78.38624535555672</v>
+        <v>78.38624535555671</v>
       </c>
     </row>
     <row r="3425" spans="1:2">
@@ -27887,7 +27887,7 @@
         <v>3443</v>
       </c>
       <c r="B3443">
-        <v>68.77117071915531</v>
+        <v>68.77117071915529</v>
       </c>
     </row>
     <row r="3444" spans="1:2">
@@ -27919,7 +27919,7 @@
         <v>3447</v>
       </c>
       <c r="B3447">
-        <v>99.80739371339178</v>
+        <v>99.80739371339176</v>
       </c>
     </row>
     <row r="3448" spans="1:2">
@@ -27951,7 +27951,7 @@
         <v>3451</v>
       </c>
       <c r="B3451">
-        <v>92.65821879628692</v>
+        <v>92.6582187962869</v>
       </c>
     </row>
     <row r="3452" spans="1:2">
@@ -28055,7 +28055,7 @@
         <v>3464</v>
       </c>
       <c r="B3464">
-        <v>54.97485157417248</v>
+        <v>54.97485157417247</v>
       </c>
     </row>
     <row r="3465" spans="1:2">
@@ -28127,7 +28127,7 @@
         <v>3473</v>
       </c>
       <c r="B3473">
-        <v>98.82326116556698</v>
+        <v>98.82326116556696</v>
       </c>
     </row>
     <row r="3474" spans="1:2">
@@ -28159,7 +28159,7 @@
         <v>3477</v>
       </c>
       <c r="B3477">
-        <v>65.95622339281309</v>
+        <v>65.95622339281307</v>
       </c>
     </row>
     <row r="3478" spans="1:2">
@@ -28215,7 +28215,7 @@
         <v>3484</v>
       </c>
       <c r="B3484">
-        <v>13.63864692618303</v>
+        <v>13.63864692618302</v>
       </c>
     </row>
     <row r="3485" spans="1:2">
@@ -28423,7 +28423,7 @@
         <v>3510</v>
       </c>
       <c r="B3510">
-        <v>25.79567321641363</v>
+        <v>25.79567321641362</v>
       </c>
     </row>
     <row r="3511" spans="1:2">
@@ -28607,7 +28607,7 @@
         <v>3533</v>
       </c>
       <c r="B3533">
-        <v>15.72326122418118</v>
+        <v>15.72326122418117</v>
       </c>
     </row>
     <row r="3534" spans="1:2">
@@ -28639,7 +28639,7 @@
         <v>3537</v>
       </c>
       <c r="B3537">
-        <v>80.35333816705167</v>
+        <v>80.35333816705166</v>
       </c>
     </row>
     <row r="3538" spans="1:2">
@@ -28647,7 +28647,7 @@
         <v>3538</v>
       </c>
       <c r="B3538">
-        <v>96.02150203596452</v>
+        <v>96.0215020359645</v>
       </c>
     </row>
     <row r="3539" spans="1:2">
@@ -28751,7 +28751,7 @@
         <v>3551</v>
       </c>
       <c r="B3551">
-        <v>46.37614729984861</v>
+        <v>46.3761472998486</v>
       </c>
     </row>
     <row r="3552" spans="1:2">
@@ -28943,7 +28943,7 @@
         <v>3575</v>
       </c>
       <c r="B3575">
-        <v>53.5250291459148</v>
+        <v>53.52502914591479</v>
       </c>
     </row>
     <row r="3576" spans="1:2">
@@ -28959,7 +28959,7 @@
         <v>3577</v>
       </c>
       <c r="B3577">
-        <v>34.42793412466422</v>
+        <v>34.42793412466421</v>
       </c>
     </row>
     <row r="3578" spans="1:2">
@@ -29039,7 +29039,7 @@
         <v>3587</v>
       </c>
       <c r="B3587">
-        <v>89.03058547973679</v>
+        <v>89.03058547973677</v>
       </c>
     </row>
     <row r="3588" spans="1:2">
@@ -29063,7 +29063,7 @@
         <v>3590</v>
       </c>
       <c r="B3590">
-        <v>109.7146601753386</v>
+        <v>109.7146601753385</v>
       </c>
     </row>
     <row r="3591" spans="1:2">
@@ -29095,7 +29095,7 @@
         <v>3594</v>
       </c>
       <c r="B3594">
-        <v>147.5196518784975</v>
+        <v>147.5196518784974</v>
       </c>
     </row>
     <row r="3595" spans="1:2">
@@ -29119,7 +29119,7 @@
         <v>3597</v>
       </c>
       <c r="B3597">
-        <v>95.24193307312534</v>
+        <v>95.24193307312532</v>
       </c>
     </row>
     <row r="3598" spans="1:2">
@@ -29327,7 +29327,7 @@
         <v>3623</v>
       </c>
       <c r="B3623">
-        <v>83.01061327459409</v>
+        <v>83.01061327459408</v>
       </c>
     </row>
     <row r="3624" spans="1:2">
@@ -29399,7 +29399,7 @@
         <v>3632</v>
       </c>
       <c r="B3632">
-        <v>88.63054351196405</v>
+        <v>88.63054351196404</v>
       </c>
     </row>
     <row r="3633" spans="1:2">
@@ -29471,7 +29471,7 @@
         <v>3641</v>
       </c>
       <c r="B3641">
-        <v>122.4990050238238</v>
+        <v>122.4990050238237</v>
       </c>
     </row>
     <row r="3642" spans="1:2">
@@ -29543,7 +29543,7 @@
         <v>3650</v>
       </c>
       <c r="B3650">
-        <v>30.22089936468061</v>
+        <v>30.2208993646806</v>
       </c>
     </row>
     <row r="3651" spans="1:2">
@@ -29607,7 +29607,7 @@
         <v>3658</v>
       </c>
       <c r="B3658">
-        <v>39.53586925749281</v>
+        <v>39.5358692574928</v>
       </c>
     </row>
     <row r="3659" spans="1:2">
@@ -29679,7 +29679,7 @@
         <v>3667</v>
       </c>
       <c r="B3667">
-        <v>60.91833223822456</v>
+        <v>60.91833223822455</v>
       </c>
     </row>
     <row r="3668" spans="1:2">
@@ -29743,7 +29743,7 @@
         <v>3675</v>
       </c>
       <c r="B3675">
-        <v>3.539272398393737</v>
+        <v>3.539272398393736</v>
       </c>
     </row>
     <row r="3676" spans="1:2">
@@ -29759,7 +29759,7 @@
         <v>3677</v>
       </c>
       <c r="B3677">
-        <v>2.533613782779263</v>
+        <v>2.533613782779262</v>
       </c>
     </row>
     <row r="3678" spans="1:2">
@@ -29847,7 +29847,7 @@
         <v>3688</v>
       </c>
       <c r="B3688">
-        <v>65.16669001465942</v>
+        <v>65.16669001465941</v>
       </c>
     </row>
     <row r="3689" spans="1:2">
@@ -29871,7 +29871,7 @@
         <v>3691</v>
       </c>
       <c r="B3691">
-        <v>61.51707637020969</v>
+        <v>61.51707637020968</v>
       </c>
     </row>
     <row r="3692" spans="1:2">
@@ -30167,7 +30167,7 @@
         <v>3728</v>
       </c>
       <c r="B3728">
-        <v>32.24953709429444</v>
+        <v>32.24953709429443</v>
       </c>
     </row>
     <row r="3729" spans="1:2">
@@ -30207,7 +30207,7 @@
         <v>3733</v>
       </c>
       <c r="B3733">
-        <v>69.41094479655303</v>
+        <v>69.41094479655301</v>
       </c>
     </row>
     <row r="3734" spans="1:2">
@@ -30247,7 +30247,7 @@
         <v>3738</v>
       </c>
       <c r="B3738">
-        <v>76.48861038022451</v>
+        <v>76.4886103802245</v>
       </c>
     </row>
     <row r="3739" spans="1:2">
@@ -30255,7 +30255,7 @@
         <v>3739</v>
       </c>
       <c r="B3739">
-        <v>82.6284486401797</v>
+        <v>82.62844864017968</v>
       </c>
     </row>
     <row r="3740" spans="1:2">
@@ -30383,7 +30383,7 @@
         <v>3755</v>
       </c>
       <c r="B3755">
-        <v>84.58704239155347</v>
+        <v>84.58704239155345</v>
       </c>
     </row>
     <row r="3756" spans="1:2">
@@ -30407,7 +30407,7 @@
         <v>3758</v>
       </c>
       <c r="B3758">
-        <v>123.1282285438297</v>
+        <v>123.1282285438296</v>
       </c>
     </row>
     <row r="3759" spans="1:2">
@@ -30495,7 +30495,7 @@
         <v>3769</v>
       </c>
       <c r="B3769">
-        <v>62.73478653584758</v>
+        <v>62.73478653584757</v>
       </c>
     </row>
     <row r="3770" spans="1:2">
@@ -30535,7 +30535,7 @@
         <v>3774</v>
       </c>
       <c r="B3774">
-        <v>66.88408630121491</v>
+        <v>66.88408630121489</v>
       </c>
     </row>
     <row r="3775" spans="1:2">
@@ -30543,7 +30543,7 @@
         <v>3775</v>
       </c>
       <c r="B3775">
-        <v>76.38662165877037</v>
+        <v>76.38662165877035</v>
       </c>
     </row>
     <row r="3776" spans="1:2">
@@ -30567,7 +30567,7 @@
         <v>3778</v>
       </c>
       <c r="B3778">
-        <v>119.4018302872507</v>
+        <v>119.4018302872506</v>
       </c>
     </row>
     <row r="3779" spans="1:2">
@@ -30575,7 +30575,7 @@
         <v>3779</v>
       </c>
       <c r="B3779">
-        <v>121.074386704891</v>
+        <v>121.0743867048909</v>
       </c>
     </row>
     <row r="3780" spans="1:2">
@@ -30663,7 +30663,7 @@
         <v>3790</v>
       </c>
       <c r="B3790">
-        <v>94.08283711521972</v>
+        <v>94.0828371152197</v>
       </c>
     </row>
     <row r="3791" spans="1:2">
@@ -30679,7 +30679,7 @@
         <v>3792</v>
       </c>
       <c r="B3792">
-        <v>67.38084171174589</v>
+        <v>67.38084171174587</v>
       </c>
     </row>
     <row r="3793" spans="1:2">
@@ -30703,7 +30703,7 @@
         <v>3795</v>
       </c>
       <c r="B3795">
-        <v>48.43497134644456</v>
+        <v>48.43497134644455</v>
       </c>
     </row>
     <row r="3796" spans="1:2">
@@ -30711,7 +30711,7 @@
         <v>3796</v>
       </c>
       <c r="B3796">
-        <v>42.38158904289447</v>
+        <v>42.38158904289446</v>
       </c>
     </row>
     <row r="3797" spans="1:2">
@@ -30783,7 +30783,7 @@
         <v>3805</v>
       </c>
       <c r="B3805">
-        <v>86.48584965104033</v>
+        <v>86.48584965104031</v>
       </c>
     </row>
     <row r="3806" spans="1:2">
@@ -30799,7 +30799,7 @@
         <v>3807</v>
       </c>
       <c r="B3807">
-        <v>111.1187635215651</v>
+        <v>111.118763521565</v>
       </c>
     </row>
     <row r="3808" spans="1:2">
@@ -30847,7 +30847,7 @@
         <v>3813</v>
       </c>
       <c r="B3813">
-        <v>61.70845175845555</v>
+        <v>61.70845175845554</v>
       </c>
     </row>
     <row r="3814" spans="1:2">
@@ -30863,7 +30863,7 @@
         <v>3815</v>
       </c>
       <c r="B3815">
-        <v>36.65175716602651</v>
+        <v>36.6517571660265</v>
       </c>
     </row>
     <row r="3816" spans="1:2">
@@ -31047,7 +31047,7 @@
         <v>3838</v>
       </c>
       <c r="B3838">
-        <v>38.73080311429009</v>
+        <v>38.73080311429008</v>
       </c>
     </row>
     <row r="3839" spans="1:2">
@@ -31087,7 +31087,7 @@
         <v>3843</v>
       </c>
       <c r="B3843">
-        <v>6.064899995369478</v>
+        <v>6.064899995369477</v>
       </c>
     </row>
     <row r="3844" spans="1:2">
@@ -31143,7 +31143,7 @@
         <v>3850</v>
       </c>
       <c r="B3850">
-        <v>53.16103491589741</v>
+        <v>53.1610349158974</v>
       </c>
     </row>
     <row r="3851" spans="1:2">
@@ -31191,7 +31191,7 @@
         <v>3856</v>
       </c>
       <c r="B3856">
-        <v>74.61559337213986</v>
+        <v>74.61559337213984</v>
       </c>
     </row>
     <row r="3857" spans="1:2">
@@ -31247,7 +31247,7 @@
         <v>3863</v>
       </c>
       <c r="B3863">
-        <v>28.9381274284599</v>
+        <v>28.93812742845989</v>
       </c>
     </row>
     <row r="3864" spans="1:2">
@@ -31359,7 +31359,7 @@
         <v>3877</v>
       </c>
       <c r="B3877">
-        <v>34.92732717454315</v>
+        <v>34.92732717454314</v>
       </c>
     </row>
     <row r="3878" spans="1:2">
@@ -31375,7 +31375,7 @@
         <v>3879</v>
       </c>
       <c r="B3879">
-        <v>42.44254781893603</v>
+        <v>42.44254781893602</v>
       </c>
     </row>
     <row r="3880" spans="1:2">
@@ -31431,7 +31431,7 @@
         <v>3886</v>
       </c>
       <c r="B3886">
-        <v>58.50313380861641</v>
+        <v>58.5031338086164</v>
       </c>
     </row>
     <row r="3887" spans="1:2">
@@ -31519,7 +31519,7 @@
         <v>3897</v>
       </c>
       <c r="B3897">
-        <v>71.82116101850393</v>
+        <v>71.82116101850391</v>
       </c>
     </row>
     <row r="3898" spans="1:2">
@@ -31527,7 +31527,7 @@
         <v>3898</v>
       </c>
       <c r="B3898">
-        <v>79.40027114932498</v>
+        <v>79.40027114932496</v>
       </c>
     </row>
     <row r="3899" spans="1:2">
@@ -31535,7 +31535,7 @@
         <v>3899</v>
       </c>
       <c r="B3899">
-        <v>61.94496008665525</v>
+        <v>61.94496008665524</v>
       </c>
     </row>
     <row r="3900" spans="1:2">
@@ -31575,7 +31575,7 @@
         <v>3904</v>
       </c>
       <c r="B3904">
-        <v>97.15539388454526</v>
+        <v>97.15539388454523</v>
       </c>
     </row>
     <row r="3905" spans="1:2">
@@ -31671,7 +31671,7 @@
         <v>3916</v>
       </c>
       <c r="B3916">
-        <v>33.85966938069987</v>
+        <v>33.85966938069986</v>
       </c>
     </row>
     <row r="3917" spans="1:2">
@@ -31719,7 +31719,7 @@
         <v>3922</v>
       </c>
       <c r="B3922">
-        <v>115.4828843582712</v>
+        <v>115.4828843582711</v>
       </c>
     </row>
     <row r="3923" spans="1:2">
@@ -31727,7 +31727,7 @@
         <v>3923</v>
       </c>
       <c r="B3923">
-        <v>119.6072730853523</v>
+        <v>119.6072730853522</v>
       </c>
     </row>
     <row r="3924" spans="1:2">
@@ -31775,7 +31775,7 @@
         <v>3929</v>
       </c>
       <c r="B3929">
-        <v>152.6281731534034</v>
+        <v>152.6281731534033</v>
       </c>
     </row>
     <row r="3930" spans="1:2">
@@ -31823,7 +31823,7 @@
         <v>3935</v>
       </c>
       <c r="B3935">
-        <v>84.46043570285177</v>
+        <v>84.46043570285175</v>
       </c>
     </row>
     <row r="3936" spans="1:2">
@@ -31847,7 +31847,7 @@
         <v>3938</v>
       </c>
       <c r="B3938">
-        <v>60.6791862706769</v>
+        <v>60.67918627067689</v>
       </c>
     </row>
     <row r="3939" spans="1:2">
@@ -31871,7 +31871,7 @@
         <v>3941</v>
       </c>
       <c r="B3941">
-        <v>56.27667312790617</v>
+        <v>56.27667312790616</v>
       </c>
     </row>
     <row r="3942" spans="1:2">
@@ -31887,7 +31887,7 @@
         <v>3943</v>
       </c>
       <c r="B3943">
-        <v>94.673668329161</v>
+        <v>94.67366832916098</v>
       </c>
     </row>
     <row r="3944" spans="1:2">
@@ -32031,7 +32031,7 @@
         <v>3961</v>
       </c>
       <c r="B3961">
-        <v>82.61848422486521</v>
+        <v>82.6184842248652</v>
       </c>
     </row>
     <row r="3962" spans="1:2">
@@ -32231,7 +32231,7 @@
         <v>3986</v>
       </c>
       <c r="B3986">
-        <v>71.41584377203529</v>
+        <v>71.41584377203527</v>
       </c>
     </row>
     <row r="3987" spans="1:2">
@@ -32247,7 +32247,7 @@
         <v>3988</v>
       </c>
       <c r="B3988">
-        <v>55.67499828553443</v>
+        <v>55.67499828553442</v>
       </c>
     </row>
     <row r="3989" spans="1:2">
@@ -32319,7 +32319,7 @@
         <v>3997</v>
       </c>
       <c r="B3997">
-        <v>154.318606904402</v>
+        <v>154.3186069044019</v>
       </c>
     </row>
     <row r="3998" spans="1:2">
@@ -32407,7 +32407,7 @@
         <v>4008</v>
       </c>
       <c r="B4008">
-        <v>68.66185522173463</v>
+        <v>68.66185522173461</v>
       </c>
     </row>
     <row r="4009" spans="1:2">
@@ -32415,7 +32415,7 @@
         <v>4009</v>
       </c>
       <c r="B4009">
-        <v>62.23568655700731</v>
+        <v>62.2356865570073</v>
       </c>
     </row>
     <row r="4010" spans="1:2">
@@ -32455,7 +32455,7 @@
         <v>4014</v>
       </c>
       <c r="B4014">
-        <v>54.48073380298945</v>
+        <v>54.48073380298944</v>
       </c>
     </row>
     <row r="4015" spans="1:2">
@@ -32639,7 +32639,7 @@
         <v>4037</v>
       </c>
       <c r="B4037">
-        <v>50.66406966650275</v>
+        <v>50.66406966650274</v>
       </c>
     </row>
     <row r="4038" spans="1:2">
@@ -32983,7 +32983,7 @@
         <v>4080</v>
       </c>
       <c r="B4080">
-        <v>76.98741728802612</v>
+        <v>76.98741728802611</v>
       </c>
     </row>
     <row r="4081" spans="1:2">
@@ -33071,7 +33071,7 @@
         <v>4091</v>
       </c>
       <c r="B4091">
-        <v>108.3674126106124</v>
+        <v>108.3674126106123</v>
       </c>
     </row>
     <row r="4092" spans="1:2">
@@ -33167,7 +33167,7 @@
         <v>4103</v>
       </c>
       <c r="B4103">
-        <v>72.7258713148515</v>
+        <v>72.72587131485149</v>
       </c>
     </row>
     <row r="4104" spans="1:2">
@@ -33183,7 +33183,7 @@
         <v>4105</v>
       </c>
       <c r="B4105">
-        <v>54.52879745332991</v>
+        <v>54.5287974533299</v>
       </c>
     </row>
     <row r="4106" spans="1:2">
@@ -33239,7 +33239,7 @@
         <v>4112</v>
       </c>
       <c r="B4112">
-        <v>66.18276730569831</v>
+        <v>66.18276730569829</v>
       </c>
     </row>
     <row r="4113" spans="1:2">
@@ -33255,7 +33255,7 @@
         <v>4114</v>
       </c>
       <c r="B4114">
-        <v>72.79151922751164</v>
+        <v>72.79151922751163</v>
       </c>
     </row>
     <row r="4115" spans="1:2">
@@ -33287,7 +33287,7 @@
         <v>4118</v>
       </c>
       <c r="B4118">
-        <v>121.1417930437831</v>
+        <v>121.141793043783</v>
       </c>
     </row>
     <row r="4119" spans="1:2">
@@ -33327,7 +33327,7 @@
         <v>4123</v>
       </c>
       <c r="B4123">
-        <v>111.8936433477857</v>
+        <v>111.8936433477856</v>
       </c>
     </row>
     <row r="4124" spans="1:2">
@@ -33343,7 +33343,7 @@
         <v>4125</v>
       </c>
       <c r="B4125">
-        <v>99.92989740755222</v>
+        <v>99.9298974075522</v>
       </c>
     </row>
     <row r="4126" spans="1:2">
@@ -33495,7 +33495,7 @@
         <v>4144</v>
       </c>
       <c r="B4144">
-        <v>129.5605517003689</v>
+        <v>129.5605517003688</v>
       </c>
     </row>
     <row r="4145" spans="1:2">
@@ -33503,7 +33503,7 @@
         <v>4145</v>
       </c>
       <c r="B4145">
-        <v>131.2301774076226</v>
+        <v>131.2301774076225</v>
       </c>
     </row>
     <row r="4146" spans="1:2">
@@ -33511,7 +33511,7 @@
         <v>4146</v>
       </c>
       <c r="B4146">
-        <v>147.5932127092015</v>
+        <v>147.5932127092014</v>
       </c>
     </row>
     <row r="4147" spans="1:2">
@@ -33519,7 +33519,7 @@
         <v>4147</v>
       </c>
       <c r="B4147">
-        <v>140.3473243493384</v>
+        <v>140.3473243493383</v>
       </c>
     </row>
     <row r="4148" spans="1:2">
@@ -33551,7 +33551,7 @@
         <v>4151</v>
       </c>
       <c r="B4151">
-        <v>70.83292547613787</v>
+        <v>70.83292547613786</v>
       </c>
     </row>
     <row r="4152" spans="1:2">
@@ -33559,7 +33559,7 @@
         <v>4152</v>
       </c>
       <c r="B4152">
-        <v>62.11054522349891</v>
+        <v>62.1105452234989</v>
       </c>
     </row>
     <row r="4153" spans="1:2">
@@ -33583,7 +33583,7 @@
         <v>4155</v>
       </c>
       <c r="B4155">
-        <v>47.97103989224365</v>
+        <v>47.97103989224364</v>
       </c>
     </row>
     <row r="4156" spans="1:2">
@@ -33623,7 +33623,7 @@
         <v>4160</v>
       </c>
       <c r="B4160">
-        <v>107.1162923465671</v>
+        <v>107.116292346567</v>
       </c>
     </row>
     <row r="4161" spans="1:2">
@@ -33679,7 +33679,7 @@
         <v>4167</v>
       </c>
       <c r="B4167">
-        <v>122.4254441931198</v>
+        <v>122.4254441931197</v>
       </c>
     </row>
     <row r="4168" spans="1:2">
@@ -33695,7 +33695,7 @@
         <v>4169</v>
       </c>
       <c r="B4169">
-        <v>132.896579333451</v>
+        <v>132.8965793334509</v>
       </c>
     </row>
     <row r="4170" spans="1:2">
@@ -33759,7 +33759,7 @@
         <v>4177</v>
       </c>
       <c r="B4177">
-        <v>59.18628239973601</v>
+        <v>59.186282399736</v>
       </c>
     </row>
     <row r="4178" spans="1:2">
@@ -33799,7 +33799,7 @@
         <v>4182</v>
       </c>
       <c r="B4182">
-        <v>57.67257048505016</v>
+        <v>57.67257048505015</v>
       </c>
     </row>
     <row r="4183" spans="1:2">
@@ -33895,7 +33895,7 @@
         <v>4194</v>
       </c>
       <c r="B4194">
-        <v>157.2803828211136</v>
+        <v>157.2803828211135</v>
       </c>
     </row>
     <row r="4195" spans="1:2">
@@ -33935,7 +33935,7 @@
         <v>4199</v>
       </c>
       <c r="B4199">
-        <v>95.74132612300428</v>
+        <v>95.74132612300426</v>
       </c>
     </row>
     <row r="4200" spans="1:2">
@@ -33983,7 +33983,7 @@
         <v>4205</v>
       </c>
       <c r="B4205">
-        <v>60.79582854406412</v>
+        <v>60.79582854406411</v>
       </c>
     </row>
     <row r="4206" spans="1:2">
@@ -34111,7 +34111,7 @@
         <v>4221</v>
       </c>
       <c r="B4221">
-        <v>87.12767522570867</v>
+        <v>87.12767522570866</v>
       </c>
     </row>
     <row r="4222" spans="1:2">
@@ -34127,7 +34127,7 @@
         <v>4223</v>
       </c>
       <c r="B4223">
-        <v>53.28324553901919</v>
+        <v>53.28324553901918</v>
       </c>
     </row>
     <row r="4224" spans="1:2">
@@ -34183,7 +34183,7 @@
         <v>4230</v>
       </c>
       <c r="B4230">
-        <v>31.12033438233228</v>
+        <v>31.12033438233227</v>
       </c>
     </row>
     <row r="4231" spans="1:2">
@@ -34191,7 +34191,7 @@
         <v>4231</v>
       </c>
       <c r="B4231">
-        <v>53.03061830369311</v>
+        <v>53.0306183036931</v>
       </c>
     </row>
     <row r="4232" spans="1:2">
@@ -34199,7 +34199,7 @@
         <v>4232</v>
       </c>
       <c r="B4232">
-        <v>69.22220704765512</v>
+        <v>69.2222070476551</v>
       </c>
     </row>
     <row r="4233" spans="1:2">
@@ -34207,7 +34207,7 @@
         <v>4233</v>
       </c>
       <c r="B4233">
-        <v>83.92733948352678</v>
+        <v>83.92733948352677</v>
       </c>
     </row>
     <row r="4234" spans="1:2">
@@ -34223,7 +34223,7 @@
         <v>4235</v>
       </c>
       <c r="B4235">
-        <v>99.17553255403791</v>
+        <v>99.1755325540379</v>
       </c>
     </row>
     <row r="4236" spans="1:2">
@@ -34231,7 +34231,7 @@
         <v>4236</v>
       </c>
       <c r="B4236">
-        <v>98.9557292750419</v>
+        <v>98.95572927504188</v>
       </c>
     </row>
     <row r="4237" spans="1:2">
@@ -34543,7 +34543,7 @@
         <v>4275</v>
       </c>
       <c r="B4275">
-        <v>33.24070334704711</v>
+        <v>33.2407033470471</v>
       </c>
     </row>
     <row r="4276" spans="1:2">
@@ -34623,7 +34623,7 @@
         <v>4285</v>
       </c>
       <c r="B4285">
-        <v>88.28677118361429</v>
+        <v>88.28677118361428</v>
       </c>
     </row>
     <row r="4286" spans="1:2">
@@ -34775,7 +34775,7 @@
         <v>4304</v>
       </c>
       <c r="B4304">
-        <v>74.75861203900659</v>
+        <v>74.75861203900658</v>
       </c>
     </row>
     <row r="4305" spans="1:2">
@@ -34911,7 +34911,7 @@
         <v>4321</v>
       </c>
       <c r="B4321">
-        <v>44.6490796690173</v>
+        <v>44.64907966901729</v>
       </c>
     </row>
     <row r="4322" spans="1:2">
@@ -34919,7 +34919,7 @@
         <v>4322</v>
       </c>
       <c r="B4322">
-        <v>37.64790562643642</v>
+        <v>37.64790562643641</v>
       </c>
     </row>
     <row r="4323" spans="1:2">
@@ -35031,7 +35031,7 @@
         <v>4336</v>
       </c>
       <c r="B4336">
-        <v>96.92357469296414</v>
+        <v>96.92357469296412</v>
       </c>
     </row>
     <row r="4337" spans="1:2">
@@ -35039,7 +35039,7 @@
         <v>4337</v>
       </c>
       <c r="B4337">
-        <v>88.51126359922888</v>
+        <v>88.51126359922887</v>
       </c>
     </row>
     <row r="4338" spans="1:2">
@@ -35095,7 +35095,7 @@
         <v>4344</v>
       </c>
       <c r="B4344">
-        <v>54.31485559510713</v>
+        <v>54.31485559510712</v>
       </c>
     </row>
     <row r="4345" spans="1:2">
@@ -35159,7 +35159,7 @@
         <v>4352</v>
       </c>
       <c r="B4352">
-        <v>61.8505912122063</v>
+        <v>61.85059121220629</v>
       </c>
     </row>
     <row r="4353" spans="1:2">
@@ -35167,7 +35167,7 @@
         <v>4353</v>
       </c>
       <c r="B4353">
-        <v>61.82509403184276</v>
+        <v>61.82509403184275</v>
       </c>
     </row>
     <row r="4354" spans="1:2">
@@ -35199,7 +35199,7 @@
         <v>4357</v>
       </c>
       <c r="B4357">
-        <v>84.03665498094746</v>
+        <v>84.03665498094745</v>
       </c>
     </row>
     <row r="4358" spans="1:2">
@@ -35247,7 +35247,7 @@
         <v>4363</v>
       </c>
       <c r="B4363">
-        <v>111.1870490735732</v>
+        <v>111.1870490735731</v>
       </c>
     </row>
     <row r="4364" spans="1:2">
@@ -35335,7 +35335,7 @@
         <v>4374</v>
       </c>
       <c r="B4374">
-        <v>66.24900136043577</v>
+        <v>66.24900136043576</v>
       </c>
     </row>
     <row r="4375" spans="1:2">
@@ -35359,7 +35359,7 @@
         <v>4377</v>
       </c>
       <c r="B4377">
-        <v>80.29970616697665</v>
+        <v>80.29970616697663</v>
       </c>
     </row>
     <row r="4378" spans="1:2">
@@ -35367,7 +35367,7 @@
         <v>4378</v>
       </c>
       <c r="B4378">
-        <v>81.33688457279915</v>
+        <v>81.33688457279914</v>
       </c>
     </row>
     <row r="4379" spans="1:2">
@@ -35415,7 +35415,7 @@
         <v>4384</v>
       </c>
       <c r="B4384">
-        <v>146.3936729479606</v>
+        <v>146.3936729479605</v>
       </c>
     </row>
     <row r="4385" spans="1:2">
@@ -35479,7 +35479,7 @@
         <v>4392</v>
       </c>
       <c r="B4392">
-        <v>73.35187105343213</v>
+        <v>73.35187105343212</v>
       </c>
     </row>
     <row r="4393" spans="1:2">
@@ -35559,7 +35559,7 @@
         <v>4402</v>
       </c>
       <c r="B4402">
-        <v>97.13751655118692</v>
+        <v>97.13751655118691</v>
       </c>
     </row>
     <row r="4403" spans="1:2">
@@ -35695,7 +35695,7 @@
         <v>4419</v>
       </c>
       <c r="B4419">
-        <v>50.21068876969365</v>
+        <v>50.21068876969364</v>
       </c>
     </row>
     <row r="4420" spans="1:2">
@@ -35783,7 +35783,7 @@
         <v>4430</v>
       </c>
       <c r="B4430">
-        <v>60.35798041230407</v>
+        <v>60.35798041230406</v>
       </c>
     </row>
     <row r="4431" spans="1:2">
@@ -35871,7 +35871,7 @@
         <v>4441</v>
       </c>
       <c r="B4441">
-        <v>43.25523380914394</v>
+        <v>43.25523380914393</v>
       </c>
     </row>
     <row r="4442" spans="1:2">
@@ -36079,7 +36079,7 @@
         <v>4467</v>
       </c>
       <c r="B4467">
-        <v>50.46536750229036</v>
+        <v>50.46536750229035</v>
       </c>
     </row>
     <row r="4468" spans="1:2">
@@ -36111,7 +36111,7 @@
         <v>4471</v>
       </c>
       <c r="B4471">
-        <v>79.13328343310449</v>
+        <v>79.13328343310448</v>
       </c>
     </row>
     <row r="4472" spans="1:2">
@@ -36447,7 +36447,7 @@
         <v>4513</v>
       </c>
       <c r="B4513">
-        <v>78.28220513683195</v>
+        <v>78.28220513683193</v>
       </c>
     </row>
     <row r="4514" spans="1:2">
@@ -36463,7 +36463,7 @@
         <v>4515</v>
       </c>
       <c r="B4515">
-        <v>66.46352936073588</v>
+        <v>66.46352936073586</v>
       </c>
     </row>
     <row r="4516" spans="1:2">
@@ -36607,7 +36607,7 @@
         <v>4533</v>
       </c>
       <c r="B4533">
-        <v>117.9461464382198</v>
+        <v>117.9461464382197</v>
       </c>
     </row>
     <row r="4534" spans="1:2">
@@ -36823,7 +36823,7 @@
         <v>4560</v>
       </c>
       <c r="B4560">
-        <v>59.28299584249425</v>
+        <v>59.28299584249424</v>
       </c>
     </row>
     <row r="4561" spans="1:2">
@@ -36879,7 +36879,7 @@
         <v>4567</v>
       </c>
       <c r="B4567">
-        <v>61.77468581319301</v>
+        <v>61.774685813193</v>
       </c>
     </row>
     <row r="4568" spans="1:2">
@@ -36919,7 +36919,7 @@
         <v>4572</v>
       </c>
       <c r="B4572">
-        <v>68.41215869679516</v>
+        <v>68.41215869679515</v>
       </c>
     </row>
     <row r="4573" spans="1:2">
@@ -36927,7 +36927,7 @@
         <v>4573</v>
       </c>
       <c r="B4573">
-        <v>70.78134497333347</v>
+        <v>70.78134497333346</v>
       </c>
     </row>
     <row r="4574" spans="1:2">
@@ -36935,7 +36935,7 @@
         <v>4574</v>
       </c>
       <c r="B4574">
-        <v>79.50753514947503</v>
+        <v>79.50753514947502</v>
       </c>
     </row>
     <row r="4575" spans="1:2">
@@ -36959,7 +36959,7 @@
         <v>4577</v>
       </c>
       <c r="B4577">
-        <v>84.78633069784318</v>
+        <v>84.78633069784317</v>
       </c>
     </row>
     <row r="4578" spans="1:2">
@@ -36967,7 +36967,7 @@
         <v>4578</v>
       </c>
       <c r="B4578">
-        <v>91.81505341805824</v>
+        <v>91.8150534180582</v>
       </c>
     </row>
     <row r="4579" spans="1:2">
@@ -37079,7 +37079,7 @@
         <v>4592</v>
       </c>
       <c r="B4592">
-        <v>83.33650826958551</v>
+        <v>83.33650826958549</v>
       </c>
     </row>
     <row r="4593" spans="1:2">
@@ -37119,7 +37119,7 @@
         <v>4597</v>
       </c>
       <c r="B4597">
-        <v>98.50000380992353</v>
+        <v>98.5000038099235</v>
       </c>
     </row>
     <row r="4598" spans="1:2">
@@ -37231,7 +37231,7 @@
         <v>4611</v>
       </c>
       <c r="B4611">
-        <v>43.07470204932855</v>
+        <v>43.07470204932854</v>
       </c>
     </row>
     <row r="4612" spans="1:2">
@@ -37255,7 +37255,7 @@
         <v>4614</v>
       </c>
       <c r="B4614">
-        <v>47.37229576025852</v>
+        <v>47.37229576025851</v>
       </c>
     </row>
     <row r="4615" spans="1:2">
@@ -37671,7 +37671,7 @@
         <v>4666</v>
       </c>
       <c r="B4666">
-        <v>92.57146976884316</v>
+        <v>92.57146976884314</v>
       </c>
     </row>
     <row r="4667" spans="1:2">
@@ -37679,7 +37679,7 @@
         <v>4667</v>
       </c>
       <c r="B4667">
-        <v>99.61806982241654</v>
+        <v>99.61806982241652</v>
       </c>
     </row>
     <row r="4668" spans="1:2">
@@ -37783,7 +37783,7 @@
         <v>4680</v>
       </c>
       <c r="B4680">
-        <v>62.32741779210831</v>
+        <v>62.3274177921083</v>
       </c>
     </row>
     <row r="4681" spans="1:2">
@@ -37791,7 +37791,7 @@
         <v>4681</v>
       </c>
       <c r="B4681">
-        <v>51.96618429127511</v>
+        <v>51.9661842912751</v>
       </c>
     </row>
     <row r="4682" spans="1:2">
@@ -37831,7 +37831,7 @@
         <v>4686</v>
       </c>
       <c r="B4686">
-        <v>40.46812823147455</v>
+        <v>40.46812823147454</v>
       </c>
     </row>
     <row r="4687" spans="1:2">
@@ -37847,7 +37847,7 @@
         <v>4688</v>
       </c>
       <c r="B4688">
-        <v>84.27697323264977</v>
+        <v>84.27697323264975</v>
       </c>
     </row>
     <row r="4689" spans="1:2">
@@ -37943,7 +37943,7 @@
         <v>4700</v>
       </c>
       <c r="B4700">
-        <v>95.17569901838787</v>
+        <v>95.17569901838786</v>
       </c>
     </row>
     <row r="4701" spans="1:2">
@@ -38215,7 +38215,7 @@
         <v>4734</v>
       </c>
       <c r="B4734">
-        <v>63.2494192797369</v>
+        <v>63.24941927973689</v>
       </c>
     </row>
     <row r="4735" spans="1:2">
@@ -38567,7 +38567,7 @@
         <v>4778</v>
       </c>
       <c r="B4778">
-        <v>77.60667639271755</v>
+        <v>77.60667639271753</v>
       </c>
     </row>
     <row r="4779" spans="1:2">
@@ -38823,7 +38823,7 @@
         <v>4810</v>
       </c>
       <c r="B4810">
-        <v>153.9549057454233</v>
+        <v>153.9549057454232</v>
       </c>
     </row>
     <row r="4811" spans="1:2">
@@ -38855,7 +38855,7 @@
         <v>4814</v>
       </c>
       <c r="B4814">
-        <v>182.6943310096708</v>
+        <v>182.6943310096707</v>
       </c>
     </row>
     <row r="4815" spans="1:2">
@@ -39175,7 +39175,7 @@
         <v>4854</v>
       </c>
       <c r="B4854">
-        <v>84.06508287169761</v>
+        <v>84.0650828716976</v>
       </c>
     </row>
     <row r="4855" spans="1:2">
@@ -39495,7 +39495,7 @@
         <v>4894</v>
       </c>
       <c r="B4894">
-        <v>136.419586289199</v>
+        <v>136.4195862891989</v>
       </c>
     </row>
     <row r="4895" spans="1:2">
@@ -39551,7 +39551,7 @@
         <v>4901</v>
       </c>
       <c r="B4901">
-        <v>69.38779218449878</v>
+        <v>69.38779218449876</v>
       </c>
     </row>
     <row r="4902" spans="1:2">
@@ -39647,7 +39647,7 @@
         <v>4913</v>
       </c>
       <c r="B4913">
-        <v>153.1422197552154</v>
+        <v>153.1422197552153</v>
       </c>
     </row>
     <row r="4914" spans="1:2">
@@ -39743,7 +39743,7 @@
         <v>4925</v>
       </c>
       <c r="B4925">
-        <v>68.78963419459097</v>
+        <v>68.78963419459096</v>
       </c>
     </row>
     <row r="4926" spans="1:2">
@@ -39759,7 +39759,7 @@
         <v>4927</v>
       </c>
       <c r="B4927">
-        <v>73.47173710824462</v>
+        <v>73.47173710824461</v>
       </c>
     </row>
     <row r="4928" spans="1:2">
@@ -39815,7 +39815,7 @@
         <v>4934</v>
       </c>
       <c r="B4934">
-        <v>126.3027740346094</v>
+        <v>126.3027740346093</v>
       </c>
     </row>
     <row r="4935" spans="1:2">
@@ -39919,7 +39919,7 @@
         <v>4947</v>
       </c>
       <c r="B4947">
-        <v>62.29693840408753</v>
+        <v>62.29693840408752</v>
       </c>
     </row>
     <row r="4948" spans="1:2">
@@ -40071,7 +40071,7 @@
         <v>4966</v>
       </c>
       <c r="B4966">
-        <v>98.07270623555527</v>
+        <v>98.07270623555526</v>
       </c>
     </row>
     <row r="4967" spans="1:2">
@@ -40119,7 +40119,7 @@
         <v>4972</v>
       </c>
       <c r="B4972">
-        <v>43.16115800573365</v>
+        <v>43.16115800573364</v>
       </c>
     </row>
     <row r="4973" spans="1:2">
@@ -40167,7 +40167,7 @@
         <v>4978</v>
       </c>
       <c r="B4978">
-        <v>81.36208868212402</v>
+        <v>81.36208868212401</v>
       </c>
     </row>
     <row r="4979" spans="1:2">
@@ -40199,7 +40199,7 @@
         <v>4982</v>
       </c>
       <c r="B4982">
-        <v>90.06981538282992</v>
+        <v>90.0698153828299</v>
       </c>
     </row>
     <row r="4983" spans="1:2">
@@ -40343,7 +40343,7 @@
         <v>5000</v>
       </c>
       <c r="B5000">
-        <v>73.25310611340326</v>
+        <v>73.25310611340325</v>
       </c>
     </row>
     <row r="5001" spans="1:2">
@@ -40431,7 +40431,7 @@
         <v>5011</v>
       </c>
       <c r="B5011">
-        <v>93.22648354025128</v>
+        <v>93.22648354025124</v>
       </c>
     </row>
     <row r="5012" spans="1:2">
@@ -40519,7 +40519,7 @@
         <v>5022</v>
       </c>
       <c r="B5022">
-        <v>43.47708858541058</v>
+        <v>43.47708858541057</v>
       </c>
     </row>
     <row r="5023" spans="1:2">
@@ -40551,7 +40551,7 @@
         <v>5026</v>
       </c>
       <c r="B5026">
-        <v>68.97778580141156</v>
+        <v>68.97778580141154</v>
       </c>
     </row>
     <row r="5027" spans="1:2">
@@ -40559,7 +40559,7 @@
         <v>5027</v>
       </c>
       <c r="B5027">
-        <v>58.58958976502151</v>
+        <v>58.5895897650215</v>
       </c>
     </row>
     <row r="5028" spans="1:2">
@@ -40599,7 +40599,7 @@
         <v>5032</v>
       </c>
       <c r="B5032">
-        <v>76.80981623859735</v>
+        <v>76.80981623859734</v>
       </c>
     </row>
     <row r="5033" spans="1:2">
@@ -40607,7 +40607,7 @@
         <v>5033</v>
       </c>
       <c r="B5033">
-        <v>76.64364495967637</v>
+        <v>76.64364495967635</v>
       </c>
     </row>
     <row r="5034" spans="1:2">
@@ -40623,7 +40623,7 @@
         <v>5035</v>
       </c>
       <c r="B5035">
-        <v>77.6881501414654</v>
+        <v>77.68815014146539</v>
       </c>
     </row>
     <row r="5036" spans="1:2">
@@ -40687,7 +40687,7 @@
         <v>5043</v>
       </c>
       <c r="B5043">
-        <v>29.0298586635609</v>
+        <v>29.02985866356089</v>
       </c>
     </row>
     <row r="5044" spans="1:2">
@@ -40751,7 +40751,7 @@
         <v>5051</v>
       </c>
       <c r="B5051">
-        <v>57.19339933683886</v>
+        <v>57.19339933683885</v>
       </c>
     </row>
     <row r="5052" spans="1:2">
@@ -40759,7 +40759,7 @@
         <v>5052</v>
       </c>
       <c r="B5052">
-        <v>62.54634185798833</v>
+        <v>62.54634185798832</v>
       </c>
     </row>
     <row r="5053" spans="1:2">
@@ -40791,7 +40791,7 @@
         <v>5056</v>
       </c>
       <c r="B5056">
-        <v>79.2121195425044</v>
+        <v>79.21211954250438</v>
       </c>
     </row>
     <row r="5057" spans="1:2">
@@ -40831,7 +40831,7 @@
         <v>5061</v>
       </c>
       <c r="B5061">
-        <v>85.75727504892822</v>
+        <v>85.75727504892821</v>
       </c>
     </row>
     <row r="5062" spans="1:2">
@@ -40839,7 +40839,7 @@
         <v>5062</v>
       </c>
       <c r="B5062">
-        <v>76.32302524338085</v>
+        <v>76.32302524338084</v>
       </c>
     </row>
     <row r="5063" spans="1:2">
@@ -40847,7 +40847,7 @@
         <v>5063</v>
       </c>
       <c r="B5063">
-        <v>62.65096821879043</v>
+        <v>62.65096821879042</v>
       </c>
     </row>
     <row r="5064" spans="1:2">
@@ -40863,7 +40863,7 @@
         <v>5065</v>
       </c>
       <c r="B5065">
-        <v>45.08223866415877</v>
+        <v>45.08223866415876</v>
       </c>
     </row>
     <row r="5066" spans="1:2">
@@ -40887,7 +40887,7 @@
         <v>5068</v>
       </c>
       <c r="B5068">
-        <v>30.33050793313995</v>
+        <v>30.33050793313994</v>
       </c>
     </row>
     <row r="5069" spans="1:2">
@@ -40911,7 +40911,7 @@
         <v>5071</v>
       </c>
       <c r="B5071">
-        <v>51.73172746034603</v>
+        <v>51.73172746034602</v>
       </c>
     </row>
     <row r="5072" spans="1:2">
@@ -41031,7 +41031,7 @@
         <v>5086</v>
       </c>
       <c r="B5086">
-        <v>85.33349432702391</v>
+        <v>85.3334943270239</v>
       </c>
     </row>
     <row r="5087" spans="1:2">
@@ -41303,7 +41303,7 @@
         <v>5120</v>
       </c>
       <c r="B5120">
-        <v>110.6047169197531</v>
+        <v>110.604716919753</v>
       </c>
     </row>
     <row r="5121" spans="1:2">
@@ -41399,7 +41399,7 @@
         <v>5132</v>
       </c>
       <c r="B5132">
-        <v>123.5467339870381</v>
+        <v>123.546733987038</v>
       </c>
     </row>
     <row r="5133" spans="1:2">
@@ -41423,7 +41423,7 @@
         <v>5135</v>
       </c>
       <c r="B5135">
-        <v>86.4799882302671</v>
+        <v>86.47998823026708</v>
       </c>
     </row>
     <row r="5136" spans="1:2">
@@ -41447,7 +41447,7 @@
         <v>5138</v>
       </c>
       <c r="B5138">
-        <v>59.95559387622204</v>
+        <v>59.95559387622203</v>
       </c>
     </row>
     <row r="5139" spans="1:2">
@@ -41519,7 +41519,7 @@
         <v>5147</v>
       </c>
       <c r="B5147">
-        <v>87.99076943456633</v>
+        <v>87.99076943456632</v>
       </c>
     </row>
     <row r="5148" spans="1:2">
@@ -41623,7 +41623,7 @@
         <v>5160</v>
       </c>
       <c r="B5160">
-        <v>74.32281540451717</v>
+        <v>74.32281540451716</v>
       </c>
     </row>
     <row r="5161" spans="1:2">
@@ -41679,7 +41679,7 @@
         <v>5167</v>
       </c>
       <c r="B5167">
-        <v>78.62802896245233</v>
+        <v>78.62802896245232</v>
       </c>
     </row>
     <row r="5168" spans="1:2">
@@ -41823,7 +41823,7 @@
         <v>5185</v>
       </c>
       <c r="B5185">
-        <v>83.01530241121267</v>
+        <v>83.01530241121266</v>
       </c>
     </row>
     <row r="5186" spans="1:2">
@@ -41847,7 +41847,7 @@
         <v>5188</v>
       </c>
       <c r="B5188">
-        <v>64.24937766364941</v>
+        <v>64.2493776636494</v>
       </c>
     </row>
     <row r="5189" spans="1:2">
@@ -41959,7 +41959,7 @@
         <v>5202</v>
       </c>
       <c r="B5202">
-        <v>76.75882187787028</v>
+        <v>76.75882187787026</v>
       </c>
     </row>
     <row r="5203" spans="1:2">
@@ -42151,7 +42151,7 @@
         <v>5226</v>
       </c>
       <c r="B5226">
-        <v>83.50209340642917</v>
+        <v>83.50209340642915</v>
       </c>
     </row>
     <row r="5227" spans="1:2">
@@ -42159,7 +42159,7 @@
         <v>5227</v>
       </c>
       <c r="B5227">
-        <v>74.87056517577523</v>
+        <v>74.87056517577521</v>
       </c>
     </row>
     <row r="5228" spans="1:2">
@@ -42215,7 +42215,7 @@
         <v>5234</v>
       </c>
       <c r="B5234">
-        <v>9.610883720548561</v>
+        <v>9.610883720548555</v>
       </c>
     </row>
     <row r="5235" spans="1:2">
@@ -42231,7 +42231,7 @@
         <v>5236</v>
       </c>
       <c r="B5236">
-        <v>5.581186246058928</v>
+        <v>5.581186246058927</v>
       </c>
     </row>
     <row r="5237" spans="1:2">
@@ -42239,7 +42239,7 @@
         <v>5237</v>
       </c>
       <c r="B5237">
-        <v>4.477304871837105</v>
+        <v>4.477304871837104</v>
       </c>
     </row>
     <row r="5238" spans="1:2">
@@ -42271,7 +42271,7 @@
         <v>5241</v>
       </c>
       <c r="B5241">
-        <v>52.86796387723607</v>
+        <v>52.86796387723606</v>
       </c>
     </row>
     <row r="5242" spans="1:2">
@@ -42295,7 +42295,7 @@
         <v>5244</v>
       </c>
       <c r="B5244">
-        <v>65.93570842010679</v>
+        <v>65.93570842010678</v>
       </c>
     </row>
     <row r="5245" spans="1:2">
@@ -42335,7 +42335,7 @@
         <v>5249</v>
       </c>
       <c r="B5249">
-        <v>92.18461599781018</v>
+        <v>92.18461599781016</v>
       </c>
     </row>
     <row r="5250" spans="1:2">
@@ -42383,7 +42383,7 @@
         <v>5255</v>
       </c>
       <c r="B5255">
-        <v>39.98954322534057</v>
+        <v>39.98954322534056</v>
       </c>
     </row>
     <row r="5256" spans="1:2">
@@ -42407,7 +42407,7 @@
         <v>5258</v>
       </c>
       <c r="B5258">
-        <v>19.34101804672843</v>
+        <v>19.34101804672842</v>
       </c>
     </row>
     <row r="5259" spans="1:2">
@@ -42447,7 +42447,7 @@
         <v>5263</v>
       </c>
       <c r="B5263">
-        <v>43.56383761285434</v>
+        <v>43.56383761285433</v>
       </c>
     </row>
     <row r="5264" spans="1:2">
@@ -42471,7 +42471,7 @@
         <v>5266</v>
       </c>
       <c r="B5266">
-        <v>75.70112849934148</v>
+        <v>75.70112849934146</v>
       </c>
     </row>
     <row r="5267" spans="1:2">
@@ -42543,7 +42543,7 @@
         <v>5275</v>
       </c>
       <c r="B5275">
-        <v>93.70331012015328</v>
+        <v>93.70331012015326</v>
       </c>
     </row>
     <row r="5276" spans="1:2">
@@ -42583,7 +42583,7 @@
         <v>5280</v>
       </c>
       <c r="B5280">
-        <v>37.92075476343013</v>
+        <v>37.92075476343012</v>
       </c>
     </row>
     <row r="5281" spans="1:2">
@@ -42647,7 +42647,7 @@
         <v>5288</v>
       </c>
       <c r="B5288">
-        <v>62.78871160696127</v>
+        <v>62.78871160696126</v>
       </c>
     </row>
     <row r="5289" spans="1:2">
@@ -42839,7 +42839,7 @@
         <v>5312</v>
       </c>
       <c r="B5312">
-        <v>62.58707873236226</v>
+        <v>62.58707873236225</v>
       </c>
     </row>
     <row r="5313" spans="1:2">
@@ -42855,7 +42855,7 @@
         <v>5314</v>
       </c>
       <c r="B5314">
-        <v>87.18863400175023</v>
+        <v>87.18863400175022</v>
       </c>
     </row>
     <row r="5315" spans="1:2">
@@ -42919,7 +42919,7 @@
         <v>5322</v>
       </c>
       <c r="B5322">
-        <v>112.8109556987957</v>
+        <v>112.8109556987956</v>
       </c>
     </row>
     <row r="5323" spans="1:2">
@@ -42943,7 +42943,7 @@
         <v>5325</v>
       </c>
       <c r="B5325">
-        <v>104.1715145500979</v>
+        <v>104.1715145500978</v>
       </c>
     </row>
     <row r="5326" spans="1:2">
@@ -42967,7 +42967,7 @@
         <v>5328</v>
       </c>
       <c r="B5328">
-        <v>58.92339767805678</v>
+        <v>58.92339767805677</v>
       </c>
     </row>
     <row r="5329" spans="1:2">
@@ -43031,7 +43031,7 @@
         <v>5336</v>
       </c>
       <c r="B5336">
-        <v>54.62316632777886</v>
+        <v>54.62316632777885</v>
       </c>
     </row>
     <row r="5337" spans="1:2">
@@ -43039,7 +43039,7 @@
         <v>5337</v>
       </c>
       <c r="B5337">
-        <v>72.67165317269915</v>
+        <v>72.67165317269914</v>
       </c>
     </row>
     <row r="5338" spans="1:2">
@@ -43303,7 +43303,7 @@
         <v>5370</v>
       </c>
       <c r="B5370">
-        <v>131.1733216261223</v>
+        <v>131.1733216261222</v>
       </c>
     </row>
     <row r="5371" spans="1:2">
@@ -43359,7 +43359,7 @@
         <v>5377</v>
       </c>
       <c r="B5377">
-        <v>71.70393260303939</v>
+        <v>71.70393260303938</v>
       </c>
     </row>
     <row r="5378" spans="1:2">
@@ -43375,7 +43375,7 @@
         <v>5379</v>
       </c>
       <c r="B5379">
-        <v>62.48010780325087</v>
+        <v>62.48010780325086</v>
       </c>
     </row>
     <row r="5380" spans="1:2">
@@ -43559,7 +43559,7 @@
         <v>5402</v>
       </c>
       <c r="B5402">
-        <v>71.25817155323548</v>
+        <v>71.25817155323547</v>
       </c>
     </row>
     <row r="5403" spans="1:2">
@@ -43847,7 +43847,7 @@
         <v>5438</v>
       </c>
       <c r="B5438">
-        <v>73.19947411332824</v>
+        <v>73.19947411332822</v>
       </c>
     </row>
     <row r="5439" spans="1:2">
@@ -43919,7 +43919,7 @@
         <v>5447</v>
       </c>
       <c r="B5447">
-        <v>49.58117217864908</v>
+        <v>49.58117217864907</v>
       </c>
     </row>
     <row r="5448" spans="1:2">
@@ -43943,7 +43943,7 @@
         <v>5450</v>
       </c>
       <c r="B5450">
-        <v>26.9866553033256</v>
+        <v>26.98665530332559</v>
       </c>
     </row>
     <row r="5451" spans="1:2">
@@ -43951,7 +43951,7 @@
         <v>5451</v>
       </c>
       <c r="B5451">
-        <v>26.20755525414828</v>
+        <v>26.20755525414827</v>
       </c>
     </row>
     <row r="5452" spans="1:2">
@@ -43983,7 +43983,7 @@
         <v>5455</v>
       </c>
       <c r="B5455">
-        <v>25.06689346457446</v>
+        <v>25.06689346457445</v>
       </c>
     </row>
     <row r="5456" spans="1:2">
@@ -44079,7 +44079,7 @@
         <v>5467</v>
       </c>
       <c r="B5467">
-        <v>62.18234762797094</v>
+        <v>62.18234762797093</v>
       </c>
     </row>
     <row r="5468" spans="1:2">
@@ -44103,7 +44103,7 @@
         <v>5470</v>
       </c>
       <c r="B5470">
-        <v>60.05992716598548</v>
+        <v>60.05992716598547</v>
       </c>
     </row>
     <row r="5471" spans="1:2">
@@ -44223,7 +44223,7 @@
         <v>5485</v>
       </c>
       <c r="B5485">
-        <v>87.66018530295634</v>
+        <v>87.66018530295632</v>
       </c>
     </row>
     <row r="5486" spans="1:2">
@@ -44303,7 +44303,7 @@
         <v>5495</v>
       </c>
       <c r="B5495">
-        <v>84.68639347365966</v>
+        <v>84.68639347365965</v>
       </c>
     </row>
     <row r="5496" spans="1:2">
@@ -44319,7 +44319,7 @@
         <v>5497</v>
       </c>
       <c r="B5497">
-        <v>62.6125759127258</v>
+        <v>62.61257591272579</v>
       </c>
     </row>
     <row r="5498" spans="1:2">
@@ -44399,7 +44399,7 @@
         <v>5507</v>
       </c>
       <c r="B5507">
-        <v>87.62120685481437</v>
+        <v>87.62120685481436</v>
       </c>
     </row>
     <row r="5508" spans="1:2">
@@ -44471,7 +44471,7 @@
         <v>5516</v>
       </c>
       <c r="B5516">
-        <v>89.55313114166997</v>
+        <v>89.55313114166995</v>
       </c>
     </row>
     <row r="5517" spans="1:2">
@@ -44575,7 +44575,7 @@
         <v>5529</v>
       </c>
       <c r="B5529">
-        <v>75.68852644467904</v>
+        <v>75.68852644467903</v>
       </c>
     </row>
     <row r="5530" spans="1:2">
@@ -44591,7 +44591,7 @@
         <v>5531</v>
       </c>
       <c r="B5531">
-        <v>96.1718474787978</v>
+        <v>96.17184747879776</v>
       </c>
     </row>
     <row r="5532" spans="1:2">
@@ -44695,7 +44695,7 @@
         <v>5544</v>
       </c>
       <c r="B5544">
-        <v>53.26771277397014</v>
+        <v>53.26771277397013</v>
       </c>
     </row>
     <row r="5545" spans="1:2">
@@ -44703,7 +44703,7 @@
         <v>5545</v>
       </c>
       <c r="B5545">
-        <v>50.78129808196729</v>
+        <v>50.78129808196728</v>
       </c>
     </row>
     <row r="5546" spans="1:2">
@@ -44727,7 +44727,7 @@
         <v>5548</v>
       </c>
       <c r="B5548">
-        <v>35.20486544815545</v>
+        <v>35.20486544815544</v>
       </c>
     </row>
     <row r="5549" spans="1:2">
@@ -44735,7 +44735,7 @@
         <v>5549</v>
       </c>
       <c r="B5549">
-        <v>35.81357399545506</v>
+        <v>35.81357399545505</v>
       </c>
     </row>
     <row r="5550" spans="1:2">
@@ -44767,7 +44767,7 @@
         <v>5553</v>
       </c>
       <c r="B5553">
-        <v>102.4998373455736</v>
+        <v>102.4998373455735</v>
       </c>
     </row>
     <row r="5554" spans="1:2">
@@ -44879,7 +44879,7 @@
         <v>5567</v>
       </c>
       <c r="B5567">
-        <v>86.94098897408139</v>
+        <v>86.94098897408138</v>
       </c>
     </row>
     <row r="5568" spans="1:2">
@@ -44983,7 +44983,7 @@
         <v>5580</v>
       </c>
       <c r="B5580">
-        <v>89.48631094485518</v>
+        <v>89.48631094485516</v>
       </c>
     </row>
     <row r="5581" spans="1:2">
@@ -45007,7 +45007,7 @@
         <v>5583</v>
       </c>
       <c r="B5583">
-        <v>127.0260733580256</v>
+        <v>127.0260733580255</v>
       </c>
     </row>
     <row r="5584" spans="1:2">
@@ -45063,7 +45063,7 @@
         <v>5590</v>
       </c>
       <c r="B5590">
-        <v>86.94362661342934</v>
+        <v>86.94362661342933</v>
       </c>
     </row>
     <row r="5591" spans="1:2">
@@ -45215,7 +45215,7 @@
         <v>5609</v>
       </c>
       <c r="B5609">
-        <v>64.02019611141624</v>
+        <v>64.02019611141623</v>
       </c>
     </row>
     <row r="5610" spans="1:2">
@@ -45247,7 +45247,7 @@
         <v>5613</v>
       </c>
       <c r="B5613">
-        <v>63.6421344715431</v>
+        <v>63.64213447154309</v>
       </c>
     </row>
     <row r="5614" spans="1:2">
@@ -45303,7 +45303,7 @@
         <v>5620</v>
       </c>
       <c r="B5620">
-        <v>8.577691080851853</v>
+        <v>8.577691080851851</v>
       </c>
     </row>
     <row r="5621" spans="1:2">
@@ -45335,7 +45335,7 @@
         <v>5624</v>
       </c>
       <c r="B5624">
-        <v>39.61470536689271</v>
+        <v>39.6147053668927</v>
       </c>
     </row>
     <row r="5625" spans="1:2">
@@ -45343,7 +45343,7 @@
         <v>5625</v>
       </c>
       <c r="B5625">
-        <v>55.19348256901384</v>
+        <v>55.19348256901383</v>
       </c>
     </row>
     <row r="5626" spans="1:2">
@@ -45375,7 +45375,7 @@
         <v>5629</v>
       </c>
       <c r="B5629">
-        <v>69.62224901542785</v>
+        <v>69.62224901542784</v>
       </c>
     </row>
     <row r="5630" spans="1:2">
@@ -45407,7 +45407,7 @@
         <v>5633</v>
       </c>
       <c r="B5633">
-        <v>91.83820603011247</v>
+        <v>91.83820603011246</v>
       </c>
     </row>
     <row r="5634" spans="1:2">
@@ -45431,7 +45431,7 @@
         <v>5636</v>
       </c>
       <c r="B5636">
-        <v>69.45666387858419</v>
+        <v>69.45666387858418</v>
       </c>
     </row>
     <row r="5637" spans="1:2">
@@ -45503,7 +45503,7 @@
         <v>5645</v>
       </c>
       <c r="B5645">
-        <v>5.436145389025429</v>
+        <v>5.436145389025428</v>
       </c>
     </row>
     <row r="5646" spans="1:2">
@@ -45511,7 +45511,7 @@
         <v>5646</v>
       </c>
       <c r="B5646">
-        <v>6.017305258690876</v>
+        <v>6.017305258690875</v>
       </c>
     </row>
     <row r="5647" spans="1:2">
@@ -45807,7 +45807,7 @@
         <v>5683</v>
       </c>
       <c r="B5683">
-        <v>96.92357469296414</v>
+        <v>96.92357469296412</v>
       </c>
     </row>
     <row r="5684" spans="1:2">
@@ -45815,7 +45815,7 @@
         <v>5684</v>
       </c>
       <c r="B5684">
-        <v>86.9720545041795</v>
+        <v>86.97205450417948</v>
       </c>
     </row>
     <row r="5685" spans="1:2">
@@ -45903,7 +45903,7 @@
         <v>5695</v>
       </c>
       <c r="B5695">
-        <v>61.34914666505674</v>
+        <v>61.34914666505673</v>
       </c>
     </row>
     <row r="5696" spans="1:2">
@@ -46023,7 +46023,7 @@
         <v>5710</v>
       </c>
       <c r="B5710">
-        <v>88.56694709657454</v>
+        <v>88.56694709657452</v>
       </c>
     </row>
     <row r="5711" spans="1:2">
@@ -46031,7 +46031,7 @@
         <v>5711</v>
       </c>
       <c r="B5711">
-        <v>73.30673811347829</v>
+        <v>73.30673811347827</v>
       </c>
     </row>
     <row r="5712" spans="1:2">
@@ -46239,7 +46239,7 @@
         <v>5737</v>
       </c>
       <c r="B5737">
-        <v>59.3797092852525</v>
+        <v>59.37970928525249</v>
       </c>
     </row>
     <row r="5738" spans="1:2">
@@ -46351,7 +46351,7 @@
         <v>5751</v>
       </c>
       <c r="B5751">
-        <v>119.0516103960504</v>
+        <v>119.0516103960503</v>
       </c>
     </row>
     <row r="5752" spans="1:2">
@@ -46447,7 +46447,7 @@
         <v>5763</v>
       </c>
       <c r="B5763">
-        <v>59.14525245432342</v>
+        <v>59.14525245432341</v>
       </c>
     </row>
     <row r="5764" spans="1:2">
@@ -46463,7 +46463,7 @@
         <v>5765</v>
       </c>
       <c r="B5765">
-        <v>58.13122666055517</v>
+        <v>58.13122666055516</v>
       </c>
     </row>
     <row r="5766" spans="1:2">
@@ -46471,7 +46471,7 @@
         <v>5766</v>
       </c>
       <c r="B5766">
-        <v>60.5563895054778</v>
+        <v>60.55638950547779</v>
       </c>
     </row>
     <row r="5767" spans="1:2">
@@ -46591,7 +46591,7 @@
         <v>5781</v>
       </c>
       <c r="B5781">
-        <v>67.66306912197676</v>
+        <v>67.66306912197675</v>
       </c>
     </row>
     <row r="5782" spans="1:2">
@@ -46607,7 +46607,7 @@
         <v>5783</v>
       </c>
       <c r="B5783">
-        <v>42.34847201552574</v>
+        <v>42.34847201552573</v>
       </c>
     </row>
     <row r="5784" spans="1:2">
@@ -46719,7 +46719,7 @@
         <v>5797</v>
       </c>
       <c r="B5797">
-        <v>80.93156732633051</v>
+        <v>80.93156732633049</v>
       </c>
     </row>
     <row r="5798" spans="1:2">
@@ -46759,7 +46759,7 @@
         <v>5802</v>
       </c>
       <c r="B5802">
-        <v>98.57620227997546</v>
+        <v>98.57620227997543</v>
       </c>
     </row>
     <row r="5803" spans="1:2">
@@ -46767,7 +46767,7 @@
         <v>5803</v>
       </c>
       <c r="B5803">
-        <v>89.56778469360303</v>
+        <v>89.56778469360302</v>
       </c>
     </row>
     <row r="5804" spans="1:2">
@@ -46839,7 +46839,7 @@
         <v>5812</v>
       </c>
       <c r="B5812">
-        <v>19.84178853048906</v>
+        <v>19.84178853048905</v>
       </c>
     </row>
     <row r="5813" spans="1:2">
@@ -46903,7 +46903,7 @@
         <v>5820</v>
       </c>
       <c r="B5820">
-        <v>77.77753680825711</v>
+        <v>77.7775368082571</v>
       </c>
     </row>
     <row r="5821" spans="1:2">
@@ -46919,7 +46919,7 @@
         <v>5822</v>
       </c>
       <c r="B5822">
-        <v>94.94065604538147</v>
+        <v>94.94065604538146</v>
       </c>
     </row>
     <row r="5823" spans="1:2">
@@ -46991,7 +46991,7 @@
         <v>5831</v>
       </c>
       <c r="B5831">
-        <v>76.35555612867226</v>
+        <v>76.35555612867225</v>
       </c>
     </row>
     <row r="5832" spans="1:2">
@@ -47071,7 +47071,7 @@
         <v>5841</v>
       </c>
       <c r="B5841">
-        <v>75.64016972329992</v>
+        <v>75.64016972329991</v>
       </c>
     </row>
     <row r="5842" spans="1:2">
@@ -47167,7 +47167,7 @@
         <v>5853</v>
       </c>
       <c r="B5853">
-        <v>98.98884630241064</v>
+        <v>98.98884630241062</v>
       </c>
     </row>
     <row r="5854" spans="1:2">
@@ -47207,7 +47207,7 @@
         <v>5858</v>
       </c>
       <c r="B5858">
-        <v>54.57451653536108</v>
+        <v>54.57451653536107</v>
       </c>
     </row>
     <row r="5859" spans="1:2">
@@ -47247,7 +47247,7 @@
         <v>5863</v>
       </c>
       <c r="B5863">
-        <v>79.93014358722469</v>
+        <v>79.93014358722468</v>
       </c>
     </row>
     <row r="5864" spans="1:2">
@@ -47271,7 +47271,7 @@
         <v>5866</v>
       </c>
       <c r="B5866">
-        <v>139.1583351454893</v>
+        <v>139.1583351454892</v>
       </c>
     </row>
     <row r="5867" spans="1:2">
@@ -47335,7 +47335,7 @@
         <v>5874</v>
       </c>
       <c r="B5874">
-        <v>118.7468165158426</v>
+        <v>118.7468165158425</v>
       </c>
     </row>
     <row r="5875" spans="1:2">
@@ -47375,7 +47375,7 @@
         <v>5879</v>
       </c>
       <c r="B5879">
-        <v>76.09061990972241</v>
+        <v>76.09061990972239</v>
       </c>
     </row>
     <row r="5880" spans="1:2">
@@ -47391,7 +47391,7 @@
         <v>5881</v>
       </c>
       <c r="B5881">
-        <v>62.46486810924048</v>
+        <v>62.46486810924047</v>
       </c>
     </row>
     <row r="5882" spans="1:2">
@@ -47399,7 +47399,7 @@
         <v>5882</v>
       </c>
       <c r="B5882">
-        <v>55.89450849349178</v>
+        <v>55.89450849349177</v>
       </c>
     </row>
     <row r="5883" spans="1:2">
@@ -47415,7 +47415,7 @@
         <v>5884</v>
       </c>
       <c r="B5884">
-        <v>47.6120278698835</v>
+        <v>47.61202786988349</v>
       </c>
     </row>
     <row r="5885" spans="1:2">
@@ -47455,7 +47455,7 @@
         <v>5889</v>
       </c>
       <c r="B5889">
-        <v>56.58234622122996</v>
+        <v>56.58234622122995</v>
       </c>
     </row>
     <row r="5890" spans="1:2">
@@ -47567,7 +47567,7 @@
         <v>5903</v>
       </c>
       <c r="B5903">
-        <v>21.96517612690211</v>
+        <v>21.9651761269021</v>
       </c>
     </row>
     <row r="5904" spans="1:2">
@@ -47631,7 +47631,7 @@
         <v>5911</v>
       </c>
       <c r="B5911">
-        <v>8.808836209044056</v>
+        <v>8.808836209044054</v>
       </c>
     </row>
     <row r="5912" spans="1:2">
@@ -47719,7 +47719,7 @@
         <v>5922</v>
       </c>
       <c r="B5922">
-        <v>67.52796337315388</v>
+        <v>67.52796337315387</v>
       </c>
     </row>
     <row r="5923" spans="1:2">
@@ -47743,7 +47743,7 @@
         <v>5925</v>
       </c>
       <c r="B5925">
-        <v>36.51694448824229</v>
+        <v>36.51694448824228</v>
       </c>
     </row>
     <row r="5926" spans="1:2">
@@ -47927,7 +47927,7 @@
         <v>5948</v>
       </c>
       <c r="B5948">
-        <v>56.16471999113754</v>
+        <v>56.16471999113753</v>
       </c>
     </row>
     <row r="5949" spans="1:2">
@@ -48007,7 +48007,7 @@
         <v>5958</v>
       </c>
       <c r="B5958">
-        <v>4.702559272152215</v>
+        <v>4.702559272152214</v>
       </c>
     </row>
     <row r="5959" spans="1:2">
@@ -48079,7 +48079,7 @@
         <v>5967</v>
       </c>
       <c r="B5967">
-        <v>77.62719136542384</v>
+        <v>77.62719136542383</v>
       </c>
     </row>
     <row r="5968" spans="1:2">
@@ -48095,7 +48095,7 @@
         <v>5969</v>
       </c>
       <c r="B5969">
-        <v>86.82698434004213</v>
+        <v>86.82698434004212</v>
       </c>
     </row>
     <row r="5970" spans="1:2">
@@ -48199,7 +48199,7 @@
         <v>5982</v>
       </c>
       <c r="B5982">
-        <v>8.080290914035817</v>
+        <v>8.080290914035816</v>
       </c>
     </row>
     <row r="5983" spans="1:2">
@@ -48255,7 +48255,7 @@
         <v>5989</v>
       </c>
       <c r="B5989">
-        <v>96.08246081200608</v>
+        <v>96.08246081200606</v>
       </c>
     </row>
     <row r="5990" spans="1:2">
@@ -48335,7 +48335,7 @@
         <v>5999</v>
       </c>
       <c r="B5999">
-        <v>72.95446672500735</v>
+        <v>72.95446672500734</v>
       </c>
     </row>
     <row r="6000" spans="1:2">
@@ -48455,7 +48455,7 @@
         <v>6014</v>
       </c>
       <c r="B6014">
-        <v>87.11712466831686</v>
+        <v>87.11712466831685</v>
       </c>
     </row>
     <row r="6015" spans="1:2">
@@ -48503,7 +48503,7 @@
         <v>6020</v>
       </c>
       <c r="B6020">
-        <v>83.07684732933156</v>
+        <v>83.07684732933154</v>
       </c>
     </row>
     <row r="6021" spans="1:2">
@@ -48527,7 +48527,7 @@
         <v>6023</v>
       </c>
       <c r="B6023">
-        <v>57.35898447368252</v>
+        <v>57.35898447368251</v>
       </c>
     </row>
     <row r="6024" spans="1:2">
@@ -48543,7 +48543,7 @@
         <v>6025</v>
       </c>
       <c r="B6025">
-        <v>47.8160053127918</v>
+        <v>47.81600531279179</v>
       </c>
     </row>
     <row r="6026" spans="1:2">
@@ -48599,7 +48599,7 @@
         <v>6032</v>
       </c>
       <c r="B6032">
-        <v>57.04569153335354</v>
+        <v>57.04569153335353</v>
       </c>
     </row>
     <row r="6033" spans="1:2">
@@ -48647,7 +48647,7 @@
         <v>6038</v>
       </c>
       <c r="B6038">
-        <v>79.61948828624367</v>
+        <v>79.61948828624365</v>
       </c>
     </row>
     <row r="6039" spans="1:2">
@@ -48759,7 +48759,7 @@
         <v>6052</v>
       </c>
       <c r="B6052">
-        <v>30.06674399834474</v>
+        <v>30.06674399834473</v>
       </c>
     </row>
     <row r="6053" spans="1:2">
@@ -48935,7 +48935,7 @@
         <v>6074</v>
       </c>
       <c r="B6074">
-        <v>27.76628288037251</v>
+        <v>27.7662828803725</v>
       </c>
     </row>
     <row r="6075" spans="1:2">
@@ -49183,7 +49183,7 @@
         <v>6105</v>
       </c>
       <c r="B6105">
-        <v>58.52628642067066</v>
+        <v>58.52628642067065</v>
       </c>
     </row>
     <row r="6106" spans="1:2">
@@ -49255,7 +49255,7 @@
         <v>6114</v>
       </c>
       <c r="B6114">
-        <v>90.05985096751543</v>
+        <v>90.05985096751542</v>
       </c>
     </row>
     <row r="6115" spans="1:2">
@@ -49295,7 +49295,7 @@
         <v>6119</v>
       </c>
       <c r="B6119">
-        <v>52.01952322031147</v>
+        <v>52.01952322031146</v>
       </c>
     </row>
     <row r="6120" spans="1:2">
@@ -49439,7 +49439,7 @@
         <v>6137</v>
       </c>
       <c r="B6137">
-        <v>78.04716216382555</v>
+        <v>78.04716216382553</v>
       </c>
     </row>
     <row r="6138" spans="1:2">
@@ -49479,7 +49479,7 @@
         <v>6142</v>
       </c>
       <c r="B6142">
-        <v>56.45251575110298</v>
+        <v>56.45251575110297</v>
       </c>
     </row>
     <row r="6143" spans="1:2">
@@ -49543,7 +49543,7 @@
         <v>6150</v>
       </c>
       <c r="B6150">
-        <v>12.04815039936791</v>
+        <v>12.0481503993679</v>
       </c>
     </row>
     <row r="6151" spans="1:2">
@@ -49599,7 +49599,7 @@
         <v>6157</v>
       </c>
       <c r="B6157">
-        <v>80.76598218948685</v>
+        <v>80.76598218948683</v>
       </c>
     </row>
     <row r="6158" spans="1:2">
@@ -49647,7 +49647,7 @@
         <v>6163</v>
       </c>
       <c r="B6163">
-        <v>80.44536247319134</v>
+        <v>80.44536247319132</v>
       </c>
     </row>
     <row r="6164" spans="1:2">
@@ -49655,7 +49655,7 @@
         <v>6164</v>
       </c>
       <c r="B6164">
-        <v>74.34860565591937</v>
+        <v>74.34860565591936</v>
       </c>
     </row>
     <row r="6165" spans="1:2">
@@ -49703,7 +49703,7 @@
         <v>6170</v>
       </c>
       <c r="B6170">
-        <v>29.88591916749069</v>
+        <v>29.88591916749068</v>
       </c>
     </row>
     <row r="6171" spans="1:2">
@@ -49767,7 +49767,7 @@
         <v>6178</v>
       </c>
       <c r="B6178">
-        <v>57.8686350099146</v>
+        <v>57.86863500991459</v>
       </c>
     </row>
     <row r="6179" spans="1:2">
@@ -49815,7 +49815,7 @@
         <v>6184</v>
       </c>
       <c r="B6184">
-        <v>85.98381896181344</v>
+        <v>85.98381896181343</v>
       </c>
     </row>
     <row r="6185" spans="1:2">
@@ -49823,7 +49823,7 @@
         <v>6185</v>
       </c>
       <c r="B6185">
-        <v>86.95212567355053</v>
+        <v>86.95212567355051</v>
       </c>
     </row>
     <row r="6186" spans="1:2">
@@ -49943,7 +49943,7 @@
         <v>6200</v>
       </c>
       <c r="B6200">
-        <v>54.42710180291442</v>
+        <v>54.42710180291441</v>
       </c>
     </row>
     <row r="6201" spans="1:2">
@@ -49951,7 +49951,7 @@
         <v>6201</v>
       </c>
       <c r="B6201">
-        <v>63.69254269019285</v>
+        <v>63.69254269019284</v>
       </c>
     </row>
     <row r="6202" spans="1:2">
@@ -49991,7 +49991,7 @@
         <v>6206</v>
       </c>
       <c r="B6206">
-        <v>95.68300498631066</v>
+        <v>95.68300498631064</v>
       </c>
     </row>
     <row r="6207" spans="1:2">
@@ -50007,7 +50007,7 @@
         <v>6208</v>
       </c>
       <c r="B6208">
-        <v>99.87567926539988</v>
+        <v>99.87567926539984</v>
       </c>
     </row>
     <row r="6209" spans="1:2">
@@ -50087,7 +50087,7 @@
         <v>6218</v>
       </c>
       <c r="B6218">
-        <v>26.2045073153462</v>
+        <v>26.20450731534619</v>
       </c>
     </row>
     <row r="6219" spans="1:2">
@@ -50143,7 +50143,7 @@
         <v>6225</v>
       </c>
       <c r="B6225">
-        <v>57.50932991651579</v>
+        <v>57.50932991651578</v>
       </c>
     </row>
     <row r="6226" spans="1:2">
@@ -50215,7 +50215,7 @@
         <v>6234</v>
       </c>
       <c r="B6234">
-        <v>81.01304107507836</v>
+        <v>81.01304107507835</v>
       </c>
     </row>
     <row r="6235" spans="1:2">
@@ -50255,7 +50255,7 @@
         <v>6239</v>
       </c>
       <c r="B6239">
-        <v>60.61998592086731</v>
+        <v>60.6199859208673</v>
       </c>
     </row>
     <row r="6240" spans="1:2">
@@ -50343,7 +50343,7 @@
         <v>6250</v>
       </c>
       <c r="B6250">
-        <v>78.15501230605292</v>
+        <v>78.15501230605291</v>
       </c>
     </row>
     <row r="6251" spans="1:2">
@@ -50351,7 +50351,7 @@
         <v>6251</v>
       </c>
       <c r="B6251">
-        <v>65.5535437856924</v>
+        <v>65.55354378569238</v>
       </c>
     </row>
     <row r="6252" spans="1:2">
@@ -50687,7 +50687,7 @@
         <v>6293</v>
       </c>
       <c r="B6293">
-        <v>34.32067012451417</v>
+        <v>34.32067012451416</v>
       </c>
     </row>
     <row r="6294" spans="1:2">
@@ -50719,7 +50719,7 @@
         <v>6297</v>
       </c>
       <c r="B6297">
-        <v>68.57774383363882</v>
+        <v>68.57774383363881</v>
       </c>
     </row>
     <row r="6298" spans="1:2">
@@ -50727,7 +50727,7 @@
         <v>6298</v>
       </c>
       <c r="B6298">
-        <v>89.14312475858274</v>
+        <v>89.14312475858273</v>
       </c>
     </row>
     <row r="6299" spans="1:2">
@@ -50823,7 +50823,7 @@
         <v>6310</v>
       </c>
       <c r="B6310">
-        <v>53.80813576926166</v>
+        <v>53.80813576926165</v>
       </c>
     </row>
     <row r="6311" spans="1:2">
@@ -50855,7 +50855,7 @@
         <v>6314</v>
       </c>
       <c r="B6314">
-        <v>14.08839374211273</v>
+        <v>14.08839374211272</v>
       </c>
     </row>
     <row r="6315" spans="1:2">
@@ -50863,7 +50863,7 @@
         <v>6315</v>
       </c>
       <c r="B6315">
-        <v>10.81921561294929</v>
+        <v>10.81921561294928</v>
       </c>
     </row>
     <row r="6316" spans="1:2">
@@ -50967,7 +50967,7 @@
         <v>6328</v>
       </c>
       <c r="B6328">
-        <v>64.60370054939098</v>
+        <v>64.60370054939096</v>
       </c>
     </row>
     <row r="6329" spans="1:2">
@@ -50975,7 +50975,7 @@
         <v>6329</v>
       </c>
       <c r="B6329">
-        <v>55.36463605559207</v>
+        <v>55.36463605559206</v>
       </c>
     </row>
     <row r="6330" spans="1:2">
@@ -50991,7 +50991,7 @@
         <v>6331</v>
       </c>
       <c r="B6331">
-        <v>39.87465937818532</v>
+        <v>39.87465937818531</v>
       </c>
     </row>
     <row r="6332" spans="1:2">
@@ -51127,7 +51127,7 @@
         <v>6348</v>
       </c>
       <c r="B6348">
-        <v>50.85749655201924</v>
+        <v>50.85749655201923</v>
       </c>
     </row>
     <row r="6349" spans="1:2">
@@ -51247,7 +51247,7 @@
         <v>6363</v>
       </c>
       <c r="B6363">
-        <v>5.596806932419577</v>
+        <v>5.596806932419576</v>
       </c>
     </row>
     <row r="6364" spans="1:2">
@@ -51559,7 +51559,7 @@
         <v>6402</v>
       </c>
       <c r="B6402">
-        <v>22.45029661719824</v>
+        <v>22.45029661719823</v>
       </c>
     </row>
     <row r="6403" spans="1:2">
@@ -51567,7 +51567,7 @@
         <v>6403</v>
       </c>
       <c r="B6403">
-        <v>22.92328396649378</v>
+        <v>22.92328396649377</v>
       </c>
     </row>
     <row r="6404" spans="1:2">
@@ -51615,7 +51615,7 @@
         <v>6409</v>
       </c>
       <c r="B6409">
-        <v>3.095445617444996</v>
+        <v>3.095445617444995</v>
       </c>
     </row>
     <row r="6410" spans="1:2">
@@ -51631,7 +51631,7 @@
         <v>6411</v>
       </c>
       <c r="B6411">
-        <v>2.361988451828793</v>
+        <v>2.361988451828792</v>
       </c>
     </row>
     <row r="6412" spans="1:2">
@@ -51719,7 +51719,7 @@
         <v>6422</v>
       </c>
       <c r="B6422">
-        <v>34.80218584103476</v>
+        <v>34.80218584103475</v>
       </c>
     </row>
     <row r="6423" spans="1:2">
@@ -51759,7 +51759,7 @@
         <v>6427</v>
       </c>
       <c r="B6427">
-        <v>33.22546365303672</v>
+        <v>33.22546365303671</v>
       </c>
     </row>
     <row r="6428" spans="1:2">
@@ -51823,7 +51823,7 @@
         <v>6435</v>
       </c>
       <c r="B6435">
-        <v>3.829471340876201</v>
+        <v>3.8294713408762</v>
       </c>
     </row>
     <row r="6436" spans="1:2">
@@ -51847,7 +51847,7 @@
         <v>6438</v>
       </c>
       <c r="B6438">
-        <v>3.659372910037156</v>
+        <v>3.659372910037155</v>
       </c>
     </row>
     <row r="6439" spans="1:2">
@@ -51895,7 +51895,7 @@
         <v>6444</v>
       </c>
       <c r="B6444">
-        <v>59.43304821428886</v>
+        <v>59.43304821428885</v>
       </c>
     </row>
     <row r="6445" spans="1:2">
@@ -52031,7 +52031,7 @@
         <v>6461</v>
       </c>
       <c r="B6461">
-        <v>3.700725233592272</v>
+        <v>3.700725233592271</v>
       </c>
     </row>
     <row r="6462" spans="1:2">
@@ -52135,7 +52135,7 @@
         <v>6474</v>
       </c>
       <c r="B6474">
-        <v>56.80390792645793</v>
+        <v>56.80390792645792</v>
       </c>
     </row>
     <row r="6475" spans="1:2">
@@ -52255,7 +52255,7 @@
         <v>6489</v>
       </c>
       <c r="B6489">
-        <v>14.55165113292472</v>
+        <v>14.55165113292471</v>
       </c>
     </row>
     <row r="6490" spans="1:2">
@@ -52351,7 +52351,7 @@
         <v>6501</v>
       </c>
       <c r="B6501">
-        <v>58.89526285834529</v>
+        <v>58.89526285834528</v>
       </c>
     </row>
     <row r="6502" spans="1:2">
@@ -52423,7 +52423,7 @@
         <v>6510</v>
       </c>
       <c r="B6510">
-        <v>6.447914535795991</v>
+        <v>6.44791453579599</v>
       </c>
     </row>
     <row r="6511" spans="1:2">
@@ -52479,7 +52479,7 @@
         <v>6517</v>
       </c>
       <c r="B6517">
-        <v>75.98130441230172</v>
+        <v>75.98130441230171</v>
       </c>
     </row>
     <row r="6518" spans="1:2">
@@ -52519,7 +52519,7 @@
         <v>6522</v>
       </c>
       <c r="B6522">
-        <v>63.70016253719805</v>
+        <v>63.70016253719804</v>
       </c>
     </row>
     <row r="6523" spans="1:2">
@@ -52663,7 +52663,7 @@
         <v>6540</v>
       </c>
       <c r="B6540">
-        <v>70.99059769493768</v>
+        <v>70.99059769493766</v>
       </c>
     </row>
     <row r="6541" spans="1:2">
@@ -52695,7 +52695,7 @@
         <v>6544</v>
       </c>
       <c r="B6544">
-        <v>54.8321259783444</v>
+        <v>54.83212597834439</v>
       </c>
     </row>
     <row r="6545" spans="1:2">
@@ -52719,7 +52719,7 @@
         <v>6547</v>
       </c>
       <c r="B6547">
-        <v>40.7664745488318</v>
+        <v>40.76647454883179</v>
       </c>
     </row>
     <row r="6548" spans="1:2">
@@ -52727,7 +52727,7 @@
         <v>6548</v>
       </c>
       <c r="B6548">
-        <v>41.948430047753</v>
+        <v>41.94843004775299</v>
       </c>
     </row>
     <row r="6549" spans="1:2">
@@ -52863,7 +52863,7 @@
         <v>6565</v>
       </c>
       <c r="B6565">
-        <v>31.22994295079162</v>
+        <v>31.22994295079161</v>
       </c>
     </row>
     <row r="6566" spans="1:2">
@@ -52943,7 +52943,7 @@
         <v>6575</v>
       </c>
       <c r="B6575">
-        <v>7.789505829476031</v>
+        <v>7.78950582947603</v>
       </c>
     </row>
     <row r="6576" spans="1:2">
@@ -52959,7 +52959,7 @@
         <v>6577</v>
       </c>
       <c r="B6577">
-        <v>3.934009780366703</v>
+        <v>3.934009780366702</v>
       </c>
     </row>
     <row r="6578" spans="1:2">
@@ -53039,7 +53039,7 @@
         <v>6587</v>
       </c>
       <c r="B6587">
-        <v>61.85088428324496</v>
+        <v>61.85088428324495</v>
       </c>
     </row>
     <row r="6588" spans="1:2">
@@ -53047,7 +53047,7 @@
         <v>6588</v>
       </c>
       <c r="B6588">
-        <v>68.49421858762034</v>
+        <v>68.49421858762032</v>
       </c>
     </row>
     <row r="6589" spans="1:2">
@@ -53175,7 +53175,7 @@
         <v>6604</v>
       </c>
       <c r="B6604">
-        <v>9.84076864327452</v>
+        <v>9.840768643274515</v>
       </c>
     </row>
     <row r="6605" spans="1:2">
@@ -53199,7 +53199,7 @@
         <v>6607</v>
       </c>
       <c r="B6607">
-        <v>7.621253746180552</v>
+        <v>7.621253746180551</v>
       </c>
     </row>
     <row r="6608" spans="1:2">
@@ -53215,7 +53215,7 @@
         <v>6609</v>
       </c>
       <c r="B6609">
-        <v>63.16032568398385</v>
+        <v>63.16032568398384</v>
       </c>
     </row>
     <row r="6610" spans="1:2">
@@ -53287,7 +53287,7 @@
         <v>6618</v>
       </c>
       <c r="B6618">
-        <v>80.46060216720173</v>
+        <v>80.46060216720171</v>
       </c>
     </row>
     <row r="6619" spans="1:2">
@@ -53359,7 +53359,7 @@
         <v>6627</v>
       </c>
       <c r="B6627">
-        <v>15.80643478495327</v>
+        <v>15.80643478495326</v>
       </c>
     </row>
     <row r="6628" spans="1:2">
@@ -53479,7 +53479,7 @@
         <v>6642</v>
       </c>
       <c r="B6642">
-        <v>70.74617644869411</v>
+        <v>70.7461764486941</v>
       </c>
     </row>
     <row r="6643" spans="1:2">
@@ -53575,7 +53575,7 @@
         <v>6654</v>
       </c>
       <c r="B6654">
-        <v>5.099846372161535</v>
+        <v>5.099846372161534</v>
       </c>
     </row>
     <row r="6655" spans="1:2">
@@ -53583,7 +53583,7 @@
         <v>6655</v>
       </c>
       <c r="B6655">
-        <v>5.354319955031181</v>
+        <v>5.35431995503118</v>
       </c>
     </row>
     <row r="6656" spans="1:2">
@@ -53623,7 +53623,7 @@
         <v>6660</v>
       </c>
       <c r="B6660">
-        <v>82.09857620227999</v>
+        <v>82.09857620227997</v>
       </c>
     </row>
     <row r="6661" spans="1:2">
@@ -54031,7 +54031,7 @@
         <v>6711</v>
       </c>
       <c r="B6711">
-        <v>41.70635336981873</v>
+        <v>41.70635336981872</v>
       </c>
     </row>
     <row r="6712" spans="1:2">
@@ -54087,7 +54087,7 @@
         <v>6718</v>
       </c>
       <c r="B6718">
-        <v>3.558263401698992</v>
+        <v>3.558263401698991</v>
       </c>
     </row>
     <row r="6719" spans="1:2">
@@ -54183,7 +54183,7 @@
         <v>6730</v>
       </c>
       <c r="B6730">
-        <v>28.67228268929019</v>
+        <v>28.67228268929018</v>
       </c>
     </row>
     <row r="6731" spans="1:2">
@@ -54335,7 +54335,7 @@
         <v>6749</v>
       </c>
       <c r="B6749">
-        <v>1.277909887689317</v>
+        <v>1.277909887689316</v>
       </c>
     </row>
     <row r="6750" spans="1:2">
@@ -54415,7 +54415,7 @@
         <v>6759</v>
       </c>
       <c r="B6759">
-        <v>49.12251600314407</v>
+        <v>49.12251600314406</v>
       </c>
     </row>
     <row r="6760" spans="1:2">
@@ -54567,7 +54567,7 @@
         <v>6778</v>
       </c>
       <c r="B6778">
-        <v>33.66360485583543</v>
+        <v>33.66360485583542</v>
       </c>
     </row>
     <row r="6779" spans="1:2">
@@ -54735,7 +54735,7 @@
         <v>6799</v>
       </c>
       <c r="B6799">
-        <v>3.869827222899868</v>
+        <v>3.869827222899867</v>
       </c>
     </row>
     <row r="6800" spans="1:2">
@@ -54903,7 +54903,7 @@
         <v>6820</v>
       </c>
       <c r="B6820">
-        <v>4.559188920039085</v>
+        <v>4.559188920039084</v>
       </c>
     </row>
     <row r="6821" spans="1:2">
@@ -54959,7 +54959,7 @@
         <v>6827</v>
       </c>
       <c r="B6827">
-        <v>70.96275594626485</v>
+        <v>70.96275594626483</v>
       </c>
     </row>
     <row r="6828" spans="1:2">
@@ -54967,7 +54967,7 @@
         <v>6828</v>
       </c>
       <c r="B6828">
-        <v>75.47194694710831</v>
+        <v>75.47194694710829</v>
       </c>
     </row>
     <row r="6829" spans="1:2">
@@ -55007,7 +55007,7 @@
         <v>6833</v>
       </c>
       <c r="B6833">
-        <v>69.56861701535283</v>
+        <v>69.56861701535281</v>
       </c>
     </row>
     <row r="6834" spans="1:2">
@@ -55015,7 +55015,7 @@
         <v>6834</v>
       </c>
       <c r="B6834">
-        <v>58.92076003870883</v>
+        <v>58.92076003870882</v>
       </c>
     </row>
     <row r="6835" spans="1:2">
@@ -55039,7 +55039,7 @@
         <v>6837</v>
       </c>
       <c r="B6837">
-        <v>60.35036056529887</v>
+        <v>60.35036056529886</v>
       </c>
     </row>
     <row r="6838" spans="1:2">
@@ -55119,7 +55119,7 @@
         <v>6847</v>
       </c>
       <c r="B6847">
-        <v>7.703401558317327</v>
+        <v>7.703401558317326</v>
       </c>
     </row>
     <row r="6848" spans="1:2">
@@ -55151,7 +55151,7 @@
         <v>6851</v>
       </c>
       <c r="B6851">
-        <v>82.56954136140877</v>
+        <v>82.56954136140875</v>
       </c>
     </row>
     <row r="6852" spans="1:2">
@@ -55191,7 +55191,7 @@
         <v>6856</v>
       </c>
       <c r="B6856">
-        <v>87.19654691979409</v>
+        <v>87.19654691979407</v>
       </c>
     </row>
     <row r="6857" spans="1:2">
@@ -55215,7 +55215,7 @@
         <v>6859</v>
       </c>
       <c r="B6859">
-        <v>61.53466063252937</v>
+        <v>61.53466063252936</v>
       </c>
     </row>
     <row r="6860" spans="1:2">
@@ -55287,7 +55287,7 @@
         <v>6868</v>
       </c>
       <c r="B6868">
-        <v>8.161178520706349</v>
+        <v>8.161178520706347</v>
       </c>
     </row>
     <row r="6869" spans="1:2">
@@ -55303,7 +55303,7 @@
         <v>6870</v>
       </c>
       <c r="B6870">
-        <v>9.899177701279726</v>
+        <v>9.899177701279724</v>
       </c>
     </row>
     <row r="6871" spans="1:2">
@@ -55383,7 +55383,7 @@
         <v>6880</v>
       </c>
       <c r="B6880">
-        <v>65.71443978591748</v>
+        <v>65.71443978591746</v>
       </c>
     </row>
     <row r="6881" spans="1:2">
@@ -55415,7 +55415,7 @@
         <v>6884</v>
       </c>
       <c r="B6884">
-        <v>59.22408856372332</v>
+        <v>59.22408856372331</v>
       </c>
     </row>
     <row r="6885" spans="1:2">
@@ -55423,7 +55423,7 @@
         <v>6885</v>
       </c>
       <c r="B6885">
-        <v>55.27554245983902</v>
+        <v>55.27554245983901</v>
       </c>
     </row>
     <row r="6886" spans="1:2">
@@ -55431,7 +55431,7 @@
         <v>6886</v>
       </c>
       <c r="B6886">
-        <v>39.25071113687532</v>
+        <v>39.25071113687531</v>
       </c>
     </row>
     <row r="6887" spans="1:2">
@@ -55447,7 +55447,7 @@
         <v>6888</v>
       </c>
       <c r="B6888">
-        <v>17.50973435454914</v>
+        <v>17.50973435454913</v>
       </c>
     </row>
     <row r="6889" spans="1:2">
@@ -55535,7 +55535,7 @@
         <v>6899</v>
       </c>
       <c r="B6899">
-        <v>49.9123424523364</v>
+        <v>49.91234245233639</v>
       </c>
     </row>
     <row r="6900" spans="1:2">
@@ -55551,7 +55551,7 @@
         <v>6901</v>
       </c>
       <c r="B6901">
-        <v>58.62006915304229</v>
+        <v>58.62006915304228</v>
       </c>
     </row>
     <row r="6902" spans="1:2">
@@ -55655,7 +55655,7 @@
         <v>6914</v>
       </c>
       <c r="B6914">
-        <v>3.687683572371842</v>
+        <v>3.687683572371841</v>
       </c>
     </row>
     <row r="6915" spans="1:2">
@@ -55679,7 +55679,7 @@
         <v>6917</v>
       </c>
       <c r="B6917">
-        <v>3.437547440874384</v>
+        <v>3.437547440874383</v>
       </c>
     </row>
     <row r="6918" spans="1:2">
@@ -55735,7 +55735,7 @@
         <v>6924</v>
       </c>
       <c r="B6924">
-        <v>51.17606477104412</v>
+        <v>51.17606477104411</v>
       </c>
     </row>
     <row r="6925" spans="1:2">
@@ -55767,7 +55767,7 @@
         <v>6928</v>
       </c>
       <c r="B6928">
-        <v>61.97075033805745</v>
+        <v>61.97075033805744</v>
       </c>
     </row>
     <row r="6929" spans="1:2">
@@ -55951,7 +55951,7 @@
         <v>6951</v>
       </c>
       <c r="B6951">
-        <v>37.71941495986979</v>
+        <v>37.71941495986978</v>
       </c>
     </row>
     <row r="6952" spans="1:2">
@@ -56023,7 +56023,7 @@
         <v>6960</v>
       </c>
       <c r="B6960">
-        <v>3.081788507043377</v>
+        <v>3.081788507043376</v>
       </c>
     </row>
     <row r="6961" spans="1:2">
@@ -56175,7 +56175,7 @@
         <v>6979</v>
       </c>
       <c r="B6979">
-        <v>15.0411383816969</v>
+        <v>15.04113838169689</v>
       </c>
     </row>
     <row r="6980" spans="1:2">
@@ -56199,7 +56199,7 @@
         <v>6982</v>
       </c>
       <c r="B6982">
-        <v>8.093508417879445</v>
+        <v>8.093508417879443</v>
       </c>
     </row>
     <row r="6983" spans="1:2">
@@ -56223,7 +56223,7 @@
         <v>6985</v>
       </c>
       <c r="B6985">
-        <v>2.322224573303222</v>
+        <v>2.322224573303221</v>
       </c>
     </row>
     <row r="6986" spans="1:2">
@@ -56335,7 +56335,7 @@
         <v>6999</v>
       </c>
       <c r="B6999">
-        <v>52.2179323134852</v>
+        <v>52.21793231348519</v>
       </c>
     </row>
     <row r="7000" spans="1:2">
@@ -56535,7 +56535,7 @@
         <v>7024</v>
       </c>
       <c r="B7024">
-        <v>74.92947245454616</v>
+        <v>74.92947245454614</v>
       </c>
     </row>
     <row r="7025" spans="1:2">
@@ -56551,7 +56551,7 @@
         <v>7026</v>
       </c>
       <c r="B7026">
-        <v>42.09613785123832</v>
+        <v>42.09613785123831</v>
       </c>
     </row>
     <row r="7027" spans="1:2">
@@ -56567,7 +56567,7 @@
         <v>7028</v>
       </c>
       <c r="B7028">
-        <v>31.67453171644088</v>
+        <v>31.67453171644087</v>
       </c>
     </row>
     <row r="7029" spans="1:2">
@@ -56591,7 +56591,7 @@
         <v>7031</v>
       </c>
       <c r="B7031">
-        <v>12.20303844330043</v>
+        <v>12.20303844330042</v>
       </c>
     </row>
     <row r="7032" spans="1:2">
@@ -56695,7 +56695,7 @@
         <v>7044</v>
       </c>
       <c r="B7044">
-        <v>75.52030366848743</v>
+        <v>75.52030366848741</v>
       </c>
     </row>
     <row r="7045" spans="1:2">
@@ -56719,7 +56719,7 @@
         <v>7047</v>
       </c>
       <c r="B7047">
-        <v>85.0917107201283</v>
+        <v>85.09171072012829</v>
       </c>
     </row>
     <row r="7048" spans="1:2">
@@ -56919,7 +56919,7 @@
         <v>7072</v>
       </c>
       <c r="B7072">
-        <v>95.19885163044212</v>
+        <v>95.19885163044211</v>
       </c>
     </row>
     <row r="7073" spans="1:2">
@@ -56943,7 +56943,7 @@
         <v>7075</v>
       </c>
       <c r="B7075">
-        <v>55.74152541131056</v>
+        <v>55.74152541131055</v>
       </c>
     </row>
     <row r="7076" spans="1:2">
@@ -56983,7 +56983,7 @@
         <v>7080</v>
       </c>
       <c r="B7080">
-        <v>23.33947414849676</v>
+        <v>23.33947414849675</v>
       </c>
     </row>
     <row r="7081" spans="1:2">
@@ -56991,7 +56991,7 @@
         <v>7081</v>
       </c>
       <c r="B7081">
-        <v>19.33339819972323</v>
+        <v>19.33339819972322</v>
       </c>
     </row>
     <row r="7082" spans="1:2">
@@ -57063,7 +57063,7 @@
         <v>7090</v>
       </c>
       <c r="B7090">
-        <v>55.13281686401094</v>
+        <v>55.13281686401093</v>
       </c>
     </row>
     <row r="7091" spans="1:2">
@@ -57079,7 +57079,7 @@
         <v>7092</v>
       </c>
       <c r="B7092">
-        <v>73.2346426379676</v>
+        <v>73.23464263796758</v>
       </c>
     </row>
     <row r="7093" spans="1:2">
@@ -57095,7 +57095,7 @@
         <v>7094</v>
       </c>
       <c r="B7094">
-        <v>87.3131891931813</v>
+        <v>87.31318919318129</v>
       </c>
     </row>
     <row r="7095" spans="1:2">
@@ -57103,7 +57103,7 @@
         <v>7095</v>
       </c>
       <c r="B7095">
-        <v>71.4794401874248</v>
+        <v>71.47944018742479</v>
       </c>
     </row>
     <row r="7096" spans="1:2">
@@ -57143,7 +57143,7 @@
         <v>7100</v>
       </c>
       <c r="B7100">
-        <v>69.79047179161947</v>
+        <v>69.79047179161945</v>
       </c>
     </row>
     <row r="7101" spans="1:2">
@@ -57151,7 +57151,7 @@
         <v>7101</v>
       </c>
       <c r="B7101">
-        <v>67.76769548277886</v>
+        <v>67.76769548277885</v>
       </c>
     </row>
     <row r="7102" spans="1:2">
@@ -57183,7 +57183,7 @@
         <v>7105</v>
       </c>
       <c r="B7105">
-        <v>33.96429574150197</v>
+        <v>33.96429574150196</v>
       </c>
     </row>
     <row r="7106" spans="1:2">
@@ -57327,7 +57327,7 @@
         <v>7123</v>
       </c>
       <c r="B7123">
-        <v>75.26269422550411</v>
+        <v>75.26269422550409</v>
       </c>
     </row>
     <row r="7124" spans="1:2">
@@ -57431,7 +57431,7 @@
         <v>7136</v>
       </c>
       <c r="B7136">
-        <v>57.66993284570221</v>
+        <v>57.6699328457022</v>
       </c>
     </row>
     <row r="7137" spans="1:2">
@@ -57479,7 +57479,7 @@
         <v>7142</v>
       </c>
       <c r="B7142">
-        <v>86.33228042678178</v>
+        <v>86.33228042678176</v>
       </c>
     </row>
     <row r="7143" spans="1:2">
@@ -57535,7 +57535,7 @@
         <v>7149</v>
       </c>
       <c r="B7149">
-        <v>45.00047184437225</v>
+        <v>45.00047184437224</v>
       </c>
     </row>
     <row r="7150" spans="1:2">
@@ -57639,7 +57639,7 @@
         <v>7162</v>
       </c>
       <c r="B7162">
-        <v>30.28977105876602</v>
+        <v>30.28977105876601</v>
       </c>
     </row>
     <row r="7163" spans="1:2">
@@ -57687,7 +57687,7 @@
         <v>7168</v>
       </c>
       <c r="B7168">
-        <v>32.2316597609361</v>
+        <v>32.23165976093609</v>
       </c>
     </row>
     <row r="7169" spans="1:2">
@@ -57815,7 +57815,7 @@
         <v>7184</v>
       </c>
       <c r="B7184">
-        <v>3.704857535237397</v>
+        <v>3.704857535237396</v>
       </c>
     </row>
     <row r="7185" spans="1:2">
@@ -58047,7 +58047,7 @@
         <v>7213</v>
       </c>
       <c r="B7213">
-        <v>24.9120347277458</v>
+        <v>24.91203472774579</v>
       </c>
     </row>
     <row r="7214" spans="1:2">
@@ -58063,7 +58063,7 @@
         <v>7215</v>
       </c>
       <c r="B7215">
-        <v>32.22169534562161</v>
+        <v>32.2216953456216</v>
       </c>
     </row>
     <row r="7216" spans="1:2">
@@ -58095,7 +58095,7 @@
         <v>7219</v>
       </c>
       <c r="B7219">
-        <v>6.241416681955206</v>
+        <v>6.241416681955205</v>
       </c>
     </row>
     <row r="7220" spans="1:2">
@@ -58103,7 +58103,7 @@
         <v>7220</v>
       </c>
       <c r="B7220">
-        <v>6.362542942233941</v>
+        <v>6.36254294223394</v>
       </c>
     </row>
     <row r="7221" spans="1:2">
@@ -58231,7 +58231,7 @@
         <v>7236</v>
       </c>
       <c r="B7236">
-        <v>28.1140116677442</v>
+        <v>28.11401166774419</v>
       </c>
     </row>
     <row r="7237" spans="1:2">
@@ -58263,7 +58263,7 @@
         <v>7240</v>
       </c>
       <c r="B7240">
-        <v>42.8886019397786</v>
+        <v>42.88860193977859</v>
       </c>
     </row>
     <row r="7241" spans="1:2">
@@ -58271,7 +58271,7 @@
         <v>7241</v>
       </c>
       <c r="B7241">
-        <v>29.60691553868509</v>
+        <v>29.60691553868508</v>
       </c>
     </row>
     <row r="7242" spans="1:2">
@@ -58495,7 +58495,7 @@
         <v>7269</v>
       </c>
       <c r="B7269">
-        <v>15.81727841338374</v>
+        <v>15.81727841338373</v>
       </c>
     </row>
     <row r="7270" spans="1:2">
@@ -58711,7 +58711,7 @@
         <v>7296</v>
       </c>
       <c r="B7296">
-        <v>3.375269845158848</v>
+        <v>3.375269845158847</v>
       </c>
     </row>
     <row r="7297" spans="1:2">
@@ -58775,7 +58775,7 @@
         <v>7304</v>
       </c>
       <c r="B7304">
-        <v>3.33605694018596</v>
+        <v>3.336056940185959</v>
       </c>
     </row>
     <row r="7305" spans="1:2">
@@ -58895,7 +58895,7 @@
         <v>7319</v>
       </c>
       <c r="B7319">
-        <v>4.725389506063934</v>
+        <v>4.725389506063933</v>
       </c>
     </row>
     <row r="7320" spans="1:2">
@@ -59119,7 +59119,7 @@
         <v>7347</v>
       </c>
       <c r="B7347">
-        <v>1.71559096895733</v>
+        <v>1.715590968957329</v>
       </c>
     </row>
     <row r="7348" spans="1:2">
@@ -59127,7 +59127,7 @@
         <v>7348</v>
       </c>
       <c r="B7348">
-        <v>1.566593652901902</v>
+        <v>1.566593652901901</v>
       </c>
     </row>
     <row r="7349" spans="1:2">
@@ -59271,7 +59271,7 @@
         <v>7366</v>
       </c>
       <c r="B7366">
-        <v>12.6710728920426</v>
+        <v>12.67107289204259</v>
       </c>
     </row>
     <row r="7367" spans="1:2">
@@ -59399,7 +59399,7 @@
         <v>7382</v>
       </c>
       <c r="B7382">
-        <v>35.9360776896155</v>
+        <v>35.93607768961549</v>
       </c>
     </row>
     <row r="7383" spans="1:2">
@@ -59439,7 +59439,7 @@
         <v>7387</v>
       </c>
       <c r="B7387">
-        <v>5.348136156115426</v>
+        <v>5.348136156115425</v>
       </c>
     </row>
     <row r="7388" spans="1:2">
@@ -59455,7 +59455,7 @@
         <v>7389</v>
       </c>
       <c r="B7389">
-        <v>12.21904012201134</v>
+        <v>12.21904012201133</v>
       </c>
     </row>
     <row r="7390" spans="1:2">
@@ -59471,7 +59471,7 @@
         <v>7391</v>
       </c>
       <c r="B7391">
-        <v>7.827751600021337</v>
+        <v>7.827751600021336</v>
       </c>
     </row>
     <row r="7392" spans="1:2">
@@ -59519,7 +59519,7 @@
         <v>7397</v>
       </c>
       <c r="B7397">
-        <v>1.993510234919884</v>
+        <v>1.993510234919883</v>
       </c>
     </row>
     <row r="7398" spans="1:2">
@@ -59583,7 +59583,7 @@
         <v>7405</v>
       </c>
       <c r="B7405">
-        <v>13.49134942215184</v>
+        <v>13.49134942215183</v>
       </c>
     </row>
     <row r="7406" spans="1:2">
@@ -59615,7 +59615,7 @@
         <v>7409</v>
       </c>
       <c r="B7409">
-        <v>11.25275560044102</v>
+        <v>11.25275560044101</v>
       </c>
     </row>
     <row r="7410" spans="1:2">
@@ -59655,7 +59655,7 @@
         <v>7414</v>
       </c>
       <c r="B7414">
-        <v>5.402178455644578</v>
+        <v>5.402178455644577</v>
       </c>
     </row>
     <row r="7415" spans="1:2">
@@ -59679,7 +59679,7 @@
         <v>7417</v>
       </c>
       <c r="B7417">
-        <v>2.308541086508124</v>
+        <v>2.308541086508123</v>
       </c>
     </row>
     <row r="7418" spans="1:2">
@@ -59743,7 +59743,7 @@
         <v>7425</v>
       </c>
       <c r="B7425">
-        <v>7.522488806151679</v>
+        <v>7.522488806151678</v>
       </c>
     </row>
     <row r="7426" spans="1:2">
@@ -59815,7 +59815,7 @@
         <v>7434</v>
       </c>
       <c r="B7434">
-        <v>6.23789982949127</v>
+        <v>6.237899829491269</v>
       </c>
     </row>
     <row r="7435" spans="1:2">
@@ -59855,7 +59855,7 @@
         <v>7439</v>
       </c>
       <c r="B7439">
-        <v>3.50020602894018</v>
+        <v>3.500206028940179</v>
       </c>
     </row>
     <row r="7440" spans="1:2">
@@ -60047,7 +60047,7 @@
         <v>7463</v>
       </c>
       <c r="B7463">
-        <v>7.066089277644366</v>
+        <v>7.066089277644365</v>
       </c>
     </row>
     <row r="7464" spans="1:2">
@@ -60055,7 +60055,7 @@
         <v>7464</v>
       </c>
       <c r="B7464">
-        <v>4.350317190785144</v>
+        <v>4.350317190785143</v>
       </c>
     </row>
     <row r="7465" spans="1:2">
@@ -60143,7 +60143,7 @@
         <v>7475</v>
       </c>
       <c r="B7475">
-        <v>4.526364963709014</v>
+        <v>4.526364963709013</v>
       </c>
     </row>
     <row r="7476" spans="1:2">
@@ -60191,7 +60191,7 @@
         <v>7481</v>
       </c>
       <c r="B7481">
-        <v>7.594994581116496</v>
+        <v>7.594994581116495</v>
       </c>
     </row>
     <row r="7482" spans="1:2">
@@ -60255,7 +60255,7 @@
         <v>7489</v>
       </c>
       <c r="B7489">
-        <v>4.051267502935107</v>
+        <v>4.051267502935106</v>
       </c>
     </row>
     <row r="7490" spans="1:2">
@@ -60399,7 +60399,7 @@
         <v>7507</v>
       </c>
       <c r="B7507">
-        <v>9.803636542676127</v>
+        <v>9.803636542676124</v>
       </c>
     </row>
     <row r="7508" spans="1:2">
@@ -60463,7 +60463,7 @@
         <v>7515</v>
       </c>
       <c r="B7515">
-        <v>10.19934105907668</v>
+        <v>10.19934105907667</v>
       </c>
     </row>
     <row r="7516" spans="1:2">
@@ -60799,7 +60799,7 @@
         <v>7557</v>
       </c>
       <c r="B7557">
-        <v>7.467948285856803</v>
+        <v>7.467948285856802</v>
       </c>
     </row>
     <row r="7558" spans="1:2">
@@ -60807,7 +60807,7 @@
         <v>7558</v>
       </c>
       <c r="B7558">
-        <v>5.289140956032897</v>
+        <v>5.289140956032896</v>
       </c>
     </row>
     <row r="7559" spans="1:2">
@@ -60927,7 +60927,7 @@
         <v>7573</v>
       </c>
       <c r="B7573">
-        <v>31.87059624130532</v>
+        <v>31.87059624130531</v>
       </c>
     </row>
     <row r="7574" spans="1:2">
@@ -60943,7 +60943,7 @@
         <v>7575</v>
       </c>
       <c r="B7575">
-        <v>34.10409062694343</v>
+        <v>34.10409062694342</v>
       </c>
     </row>
     <row r="7576" spans="1:2">
@@ -60967,7 +60967,7 @@
         <v>7578</v>
       </c>
       <c r="B7578">
-        <v>4.391757435651858</v>
+        <v>4.391757435651857</v>
       </c>
     </row>
     <row r="7579" spans="1:2">
@@ -61087,7 +61087,7 @@
         <v>7593</v>
       </c>
       <c r="B7593">
-        <v>8.691021651502195</v>
+        <v>8.691021651502194</v>
       </c>
     </row>
     <row r="7594" spans="1:2">
@@ -61279,7 +61279,7 @@
         <v>7617</v>
       </c>
       <c r="B7617">
-        <v>2.279515330839104</v>
+        <v>2.279515330839103</v>
       </c>
     </row>
     <row r="7618" spans="1:2">
@@ -61319,7 +61319,7 @@
         <v>7622</v>
       </c>
       <c r="B7622">
-        <v>9.441254203371374</v>
+        <v>9.441254203371372</v>
       </c>
     </row>
     <row r="7623" spans="1:2">
@@ -61567,7 +61567,7 @@
         <v>7653</v>
       </c>
       <c r="B7653">
-        <v>3.950656215362667</v>
+        <v>3.950656215362666</v>
       </c>
     </row>
     <row r="7654" spans="1:2">
@@ -61671,7 +61671,7 @@
         <v>7666</v>
       </c>
       <c r="B7666">
-        <v>5.54522642961518</v>
+        <v>5.545226429615179</v>
       </c>
     </row>
     <row r="7667" spans="1:2">
@@ -61783,7 +61783,7 @@
         <v>7680</v>
       </c>
       <c r="B7680">
-        <v>3.453490505377561</v>
+        <v>3.45349050537756</v>
       </c>
     </row>
     <row r="7681" spans="1:2">
@@ -61983,7 +61983,7 @@
         <v>7705</v>
       </c>
       <c r="B7705">
-        <v>1.879479224487141</v>
+        <v>1.87947922448714</v>
       </c>
     </row>
     <row r="7706" spans="1:2">
@@ -62239,7 +62239,7 @@
         <v>7737</v>
       </c>
       <c r="B7737">
-        <v>1.350020016751941</v>
+        <v>1.35002001675194</v>
       </c>
     </row>
     <row r="7738" spans="1:2">
@@ -62287,7 +62287,7 @@
         <v>7743</v>
       </c>
       <c r="B7743">
-        <v>0.7713893501501404</v>
+        <v>0.7713893501501403</v>
       </c>
     </row>
     <row r="7744" spans="1:2">
@@ -62399,7 +62399,7 @@
         <v>7757</v>
       </c>
       <c r="B7757">
-        <v>0.927470193210013</v>
+        <v>0.9274701932100128</v>
       </c>
     </row>
     <row r="7758" spans="1:2">
@@ -62447,7 +62447,7 @@
         <v>7763</v>
       </c>
       <c r="B7763">
-        <v>6.995664307054045</v>
+        <v>6.995664307054044</v>
       </c>
     </row>
     <row r="7764" spans="1:2">
@@ -62463,7 +62463,7 @@
         <v>7765</v>
       </c>
       <c r="B7765">
-        <v>6.686679510993389</v>
+        <v>6.686679510993388</v>
       </c>
     </row>
     <row r="7766" spans="1:2">
@@ -62679,7 +62679,7 @@
         <v>7792</v>
       </c>
       <c r="B7792">
-        <v>0.7901165895206003</v>
+        <v>0.7901165895206002</v>
       </c>
     </row>
     <row r="7793" spans="1:2">
@@ -62695,7 +62695,7 @@
         <v>7794</v>
       </c>
       <c r="B7794">
-        <v>0.8778767120477402</v>
+        <v>0.8778767120477401</v>
       </c>
     </row>
     <row r="7795" spans="1:2">
@@ -62727,7 +62727,7 @@
         <v>7798</v>
       </c>
       <c r="B7798">
-        <v>2.813871755630335</v>
+        <v>2.813871755630334</v>
       </c>
     </row>
     <row r="7799" spans="1:2">
@@ -62767,7 +62767,7 @@
         <v>7803</v>
       </c>
       <c r="B7803">
-        <v>0.9386244769414638</v>
+        <v>0.9386244769414636</v>
       </c>
     </row>
     <row r="7804" spans="1:2">
@@ -62799,7 +62799,7 @@
         <v>7807</v>
       </c>
       <c r="B7807">
-        <v>0.8748844567430079</v>
+        <v>0.8748844567430077</v>
       </c>
     </row>
     <row r="7808" spans="1:2">
@@ -62823,7 +62823,7 @@
         <v>7810</v>
       </c>
       <c r="B7810">
-        <v>3.839699520125482</v>
+        <v>3.839699520125481</v>
       </c>
     </row>
     <row r="7811" spans="1:2">
@@ -62831,7 +62831,7 @@
         <v>7811</v>
       </c>
       <c r="B7811">
-        <v>6.504447939153764</v>
+        <v>6.504447939153763</v>
       </c>
     </row>
     <row r="7812" spans="1:2">
@@ -62967,7 +62967,7 @@
         <v>7828</v>
       </c>
       <c r="B7828">
-        <v>0.7683707184519285</v>
+        <v>0.7683707184519284</v>
       </c>
     </row>
     <row r="7829" spans="1:2">
@@ -62975,7 +62975,7 @@
         <v>7829</v>
       </c>
       <c r="B7829">
-        <v>0.7361563498822734</v>
+        <v>0.7361563498822733</v>
       </c>
     </row>
     <row r="7830" spans="1:2">
@@ -63007,7 +63007,7 @@
         <v>7833</v>
       </c>
       <c r="B7833">
-        <v>0.9935899502423992</v>
+        <v>0.993589950242399</v>
       </c>
     </row>
     <row r="7834" spans="1:2">
@@ -63079,7 +63079,7 @@
         <v>7842</v>
       </c>
       <c r="B7842">
-        <v>0.762711516695378</v>
+        <v>0.7627115166953778</v>
       </c>
     </row>
     <row r="7843" spans="1:2">
@@ -63151,7 +63151,7 @@
         <v>7851</v>
       </c>
       <c r="B7851">
-        <v>0.719184606033395</v>
+        <v>0.7191846060333948</v>
       </c>
     </row>
     <row r="7852" spans="1:2">
@@ -63167,7 +63167,7 @@
         <v>7853</v>
       </c>
       <c r="B7853">
-        <v>0.7494500521959521</v>
+        <v>0.749450052195952</v>
       </c>
     </row>
     <row r="7854" spans="1:2">
@@ -63215,7 +63215,7 @@
         <v>7859</v>
       </c>
       <c r="B7859">
-        <v>8.319143810544814</v>
+        <v>8.319143810544812</v>
       </c>
     </row>
     <row r="7860" spans="1:2">
@@ -63223,7 +63223,7 @@
         <v>7860</v>
       </c>
       <c r="B7860">
-        <v>12.04815039936791</v>
+        <v>12.0481503993679</v>
       </c>
     </row>
     <row r="7861" spans="1:2">
@@ -63231,7 +63231,7 @@
         <v>7861</v>
       </c>
       <c r="B7861">
-        <v>16.84437517547629</v>
+        <v>16.84437517547628</v>
       </c>
     </row>
     <row r="7862" spans="1:2">
@@ -63263,7 +63263,7 @@
         <v>7865</v>
       </c>
       <c r="B7865">
-        <v>1.879795741208895</v>
+        <v>1.879795741208894</v>
       </c>
     </row>
     <row r="7866" spans="1:2">
@@ -63359,7 +63359,7 @@
         <v>7877</v>
       </c>
       <c r="B7877">
-        <v>0.935576538139386</v>
+        <v>0.9355765381393858</v>
       </c>
     </row>
     <row r="7878" spans="1:2">
@@ -63367,7 +63367,7 @@
         <v>7878</v>
       </c>
       <c r="B7878">
-        <v>0.9694291738151578</v>
+        <v>0.9694291738151576</v>
       </c>
     </row>
     <row r="7879" spans="1:2">
@@ -63447,7 +63447,7 @@
         <v>7888</v>
       </c>
       <c r="B7888">
-        <v>0.6523526863770618</v>
+        <v>0.6523526863770617</v>
       </c>
     </row>
     <row r="7889" spans="1:2">
@@ -63495,7 +63495,7 @@
         <v>7894</v>
       </c>
       <c r="B7894">
-        <v>2.97077319759846</v>
+        <v>2.970773197598459</v>
       </c>
     </row>
     <row r="7895" spans="1:2">
@@ -63503,7 +63503,7 @@
         <v>7895</v>
       </c>
       <c r="B7895">
-        <v>2.890187454097749</v>
+        <v>2.890187454097748</v>
       </c>
     </row>
     <row r="7896" spans="1:2">
@@ -63519,7 +63519,7 @@
         <v>7897</v>
       </c>
       <c r="B7897">
-        <v>2.38344418256919</v>
+        <v>2.383444182569189</v>
       </c>
     </row>
     <row r="7898" spans="1:2">
@@ -63575,7 +63575,7 @@
         <v>7904</v>
       </c>
       <c r="B7904">
-        <v>2.541972168801885</v>
+        <v>2.541972168801884</v>
       </c>
     </row>
     <row r="7905" spans="1:2">
@@ -63647,7 +63647,7 @@
         <v>7913</v>
       </c>
       <c r="B7913">
-        <v>4.097133120485608</v>
+        <v>4.097133120485607</v>
       </c>
     </row>
     <row r="7914" spans="1:2">
@@ -63743,7 +63743,7 @@
         <v>7925</v>
       </c>
       <c r="B7925">
-        <v>1.766154515257572</v>
+        <v>1.766154515257571</v>
       </c>
     </row>
     <row r="7926" spans="1:2">
@@ -63751,7 +63751,7 @@
         <v>7926</v>
       </c>
       <c r="B7926">
-        <v>2.044188078925204</v>
+        <v>2.044188078925203</v>
       </c>
     </row>
     <row r="7927" spans="1:2">
@@ -63879,7 +63879,7 @@
         <v>7942</v>
       </c>
       <c r="B7942">
-        <v>4.26110636661663</v>
+        <v>4.261106366616629</v>
       </c>
     </row>
     <row r="7943" spans="1:2">
@@ -64063,7 +64063,7 @@
         <v>7965</v>
       </c>
       <c r="B7965">
-        <v>5.401416470944059</v>
+        <v>5.401416470944058</v>
       </c>
     </row>
     <row r="7966" spans="1:2">
@@ -64071,7 +64071,7 @@
         <v>7966</v>
       </c>
       <c r="B7966">
-        <v>4.483019757091001</v>
+        <v>4.483019757091</v>
       </c>
     </row>
     <row r="7967" spans="1:2">
@@ -64095,7 +64095,7 @@
         <v>7969</v>
       </c>
       <c r="B7969">
-        <v>2.114519266783153</v>
+        <v>2.114519266783152</v>
       </c>
     </row>
     <row r="7970" spans="1:2">
@@ -64199,7 +64199,7 @@
         <v>7982</v>
       </c>
       <c r="B7982">
-        <v>13.72774052193608</v>
+        <v>13.72774052193607</v>
       </c>
     </row>
     <row r="7983" spans="1:2">
@@ -64207,7 +64207,7 @@
         <v>7983</v>
       </c>
       <c r="B7983">
-        <v>3.104911811993757</v>
+        <v>3.104911811993756</v>
       </c>
     </row>
     <row r="7984" spans="1:2">
@@ -64287,7 +64287,7 @@
         <v>7993</v>
       </c>
       <c r="B7993">
-        <v>1.903783605723326</v>
+        <v>1.903783605723325</v>
       </c>
     </row>
     <row r="7994" spans="1:2">
@@ -64303,7 +64303,7 @@
         <v>7995</v>
       </c>
       <c r="B7995">
-        <v>1.477318353104883</v>
+        <v>1.477318353104882</v>
       </c>
     </row>
     <row r="7996" spans="1:2">
@@ -64311,7 +64311,7 @@
         <v>7996</v>
       </c>
       <c r="B7996">
-        <v>1.396937759331236</v>
+        <v>1.396937759331235</v>
       </c>
     </row>
     <row r="7997" spans="1:2">
@@ -64359,7 +64359,7 @@
         <v>8002</v>
       </c>
       <c r="B8002">
-        <v>6.011707601852444</v>
+        <v>6.011707601852443</v>
       </c>
     </row>
     <row r="8003" spans="1:2">
@@ -64527,7 +64527,7 @@
         <v>8023</v>
       </c>
       <c r="B8023">
-        <v>2.432228787664758</v>
+        <v>2.432228787664757</v>
       </c>
     </row>
     <row r="8024" spans="1:2">
@@ -64551,7 +64551,7 @@
         <v>8026</v>
       </c>
       <c r="B8026">
-        <v>34.86343768811498</v>
+        <v>34.86343768811497</v>
       </c>
     </row>
     <row r="8027" spans="1:2">
@@ -64751,7 +64751,7 @@
         <v>8051</v>
       </c>
       <c r="B8051">
-        <v>30.21708944117801</v>
+        <v>30.217089441178</v>
       </c>
     </row>
     <row r="8052" spans="1:2">
@@ -64823,7 +64823,7 @@
         <v>8060</v>
       </c>
       <c r="B8060">
-        <v>5.009844256188635</v>
+        <v>5.009844256188634</v>
       </c>
     </row>
     <row r="8061" spans="1:2">
@@ -64871,7 +64871,7 @@
         <v>8066</v>
       </c>
       <c r="B8066">
-        <v>2.263988427210826</v>
+        <v>2.263988427210825</v>
       </c>
     </row>
     <row r="8067" spans="1:2">
@@ -64959,7 +64959,7 @@
         <v>8077</v>
       </c>
       <c r="B8077">
-        <v>38.09659738662694</v>
+        <v>38.09659738662693</v>
       </c>
     </row>
     <row r="8078" spans="1:2">
@@ -65015,7 +65015,7 @@
         <v>8084</v>
       </c>
       <c r="B8084">
-        <v>25.51757810782788</v>
+        <v>25.51757810782787</v>
       </c>
     </row>
     <row r="8085" spans="1:2">
@@ -65063,7 +65063,7 @@
         <v>8090</v>
       </c>
       <c r="B8090">
-        <v>4.784970848223785</v>
+        <v>4.784970848223784</v>
       </c>
     </row>
     <row r="8091" spans="1:2">
@@ -65103,7 +65103,7 @@
         <v>8095</v>
       </c>
       <c r="B8095">
-        <v>3.821001587858888</v>
+        <v>3.821001587858887</v>
       </c>
     </row>
     <row r="8096" spans="1:2">
@@ -65135,7 +65135,7 @@
         <v>8099</v>
       </c>
       <c r="B8099">
-        <v>17.83826698888851</v>
+        <v>17.8382669888885</v>
       </c>
     </row>
     <row r="8100" spans="1:2">
@@ -65159,7 +65159,7 @@
         <v>8102</v>
       </c>
       <c r="B8102">
-        <v>43.81324106675514</v>
+        <v>43.81324106675513</v>
       </c>
     </row>
     <row r="8103" spans="1:2">
@@ -65231,7 +65231,7 @@
         <v>8111</v>
       </c>
       <c r="B8111">
-        <v>22.66423847542102</v>
+        <v>22.66423847542101</v>
       </c>
     </row>
     <row r="8112" spans="1:2">
@@ -65247,7 +65247,7 @@
         <v>8113</v>
       </c>
       <c r="B8113">
-        <v>8.96870646063382</v>
+        <v>8.968706460633818</v>
       </c>
     </row>
     <row r="8114" spans="1:2">
@@ -65287,7 +65287,7 @@
         <v>8118</v>
       </c>
       <c r="B8118">
-        <v>4.043266663579653</v>
+        <v>4.043266663579652</v>
       </c>
     </row>
     <row r="8119" spans="1:2">
@@ -65391,7 +65391,7 @@
         <v>8131</v>
       </c>
       <c r="B8131">
-        <v>27.85262160836215</v>
+        <v>27.85262160836214</v>
       </c>
     </row>
     <row r="8132" spans="1:2">
@@ -65607,7 +65607,7 @@
         <v>8158</v>
       </c>
       <c r="B8158">
-        <v>47.08948220795032</v>
+        <v>47.08948220795031</v>
       </c>
     </row>
     <row r="8159" spans="1:2">
@@ -65615,7 +65615,7 @@
         <v>8159</v>
       </c>
       <c r="B8159">
-        <v>42.36371170953613</v>
+        <v>42.36371170953612</v>
       </c>
     </row>
     <row r="8160" spans="1:2">
@@ -65775,7 +65775,7 @@
         <v>8179</v>
       </c>
       <c r="B8179">
-        <v>36.42755782145058</v>
+        <v>36.42755782145057</v>
       </c>
     </row>
     <row r="8180" spans="1:2">
@@ -65831,7 +65831,7 @@
         <v>8186</v>
       </c>
       <c r="B8186">
-        <v>10.17363872898608</v>
+        <v>10.17363872898607</v>
       </c>
     </row>
     <row r="8187" spans="1:2">
@@ -65839,7 +65839,7 @@
         <v>8187</v>
       </c>
       <c r="B8187">
-        <v>4.695789331159138</v>
+        <v>4.695789331159137</v>
       </c>
     </row>
     <row r="8188" spans="1:2">
@@ -65943,7 +65943,7 @@
         <v>8200</v>
       </c>
       <c r="B8200">
-        <v>1.964138655425244</v>
+        <v>1.964138655425243</v>
       </c>
     </row>
     <row r="8201" spans="1:2">
@@ -65991,7 +65991,7 @@
         <v>8206</v>
       </c>
       <c r="B8206">
-        <v>7.314173911871195</v>
+        <v>7.314173911871194</v>
       </c>
     </row>
     <row r="8207" spans="1:2">
@@ -65999,7 +65999,7 @@
         <v>8207</v>
       </c>
       <c r="B8207">
-        <v>6.635099008188992</v>
+        <v>6.635099008188991</v>
       </c>
     </row>
     <row r="8208" spans="1:2">
@@ -66015,7 +66015,7 @@
         <v>8209</v>
       </c>
       <c r="B8209">
-        <v>3.101336345322089</v>
+        <v>3.101336345322088</v>
       </c>
     </row>
     <row r="8210" spans="1:2">
@@ -66023,7 +66023,7 @@
         <v>8210</v>
       </c>
       <c r="B8210">
-        <v>2.885492456058394</v>
+        <v>2.885492456058393</v>
       </c>
     </row>
     <row r="8211" spans="1:2">
@@ -66047,7 +66047,7 @@
         <v>8213</v>
       </c>
       <c r="B8213">
-        <v>1.988396145295243</v>
+        <v>1.988396145295242</v>
       </c>
     </row>
     <row r="8214" spans="1:2">
@@ -66071,7 +66071,7 @@
         <v>8216</v>
       </c>
       <c r="B8216">
-        <v>2.507278419245155</v>
+        <v>2.507278419245154</v>
       </c>
     </row>
     <row r="8217" spans="1:2">
@@ -66151,7 +66151,7 @@
         <v>8226</v>
       </c>
       <c r="B8226">
-        <v>2.071065623880836</v>
+        <v>2.071065623880835</v>
       </c>
     </row>
     <row r="8227" spans="1:2">
@@ -66191,7 +66191,7 @@
         <v>8231</v>
       </c>
       <c r="B8231">
-        <v>2.541728919839796</v>
+        <v>2.541728919839795</v>
       </c>
     </row>
     <row r="8232" spans="1:2">
@@ -66407,7 +66407,7 @@
         <v>8258</v>
       </c>
       <c r="B8258">
-        <v>2.281326509858031</v>
+        <v>2.28132650985803</v>
       </c>
     </row>
     <row r="8259" spans="1:2">
@@ -66887,7 +66887,7 @@
         <v>8318</v>
       </c>
       <c r="B8318">
-        <v>0.8104146896582851</v>
+        <v>0.810414689658285</v>
       </c>
     </row>
     <row r="8319" spans="1:2">
@@ -66983,7 +66983,7 @@
         <v>8330</v>
       </c>
       <c r="B8330">
-        <v>1.755653779942336</v>
+        <v>1.755653779942335</v>
       </c>
     </row>
     <row r="8331" spans="1:2">
@@ -67047,7 +67047,7 @@
         <v>8338</v>
       </c>
       <c r="B8338">
-        <v>8.292386424715033</v>
+        <v>8.292386424715032</v>
       </c>
     </row>
     <row r="8339" spans="1:2">
@@ -67175,7 +67175,7 @@
         <v>8354</v>
       </c>
       <c r="B8354">
-        <v>1.135046548473071</v>
+        <v>1.13504654847307</v>
       </c>
     </row>
     <row r="8355" spans="1:2">
@@ -67199,7 +67199,7 @@
         <v>8357</v>
       </c>
       <c r="B8357">
-        <v>0.8536514599919934</v>
+        <v>0.8536514599919933</v>
       </c>
     </row>
     <row r="8358" spans="1:2">
@@ -67207,7 +67207,7 @@
         <v>8358</v>
       </c>
       <c r="B8358">
-        <v>0.776866847862721</v>
+        <v>0.7768668478627209</v>
       </c>
     </row>
     <row r="8359" spans="1:2">
@@ -67239,7 +67239,7 @@
         <v>8362</v>
       </c>
       <c r="B8362">
-        <v>7.87420335964916</v>
+        <v>7.874203359649159</v>
       </c>
     </row>
     <row r="8363" spans="1:2">
@@ -67279,7 +67279,7 @@
         <v>8367</v>
       </c>
       <c r="B8367">
-        <v>29.49760004126441</v>
+        <v>29.4976000412644</v>
       </c>
     </row>
     <row r="8368" spans="1:2">
@@ -67543,7 +67543,7 @@
         <v>8400</v>
       </c>
       <c r="B8400">
-        <v>2.210687597409487</v>
+        <v>2.210687597409486</v>
       </c>
     </row>
     <row r="8401" spans="1:2">
@@ -67623,7 +67623,7 @@
         <v>8410</v>
       </c>
       <c r="B8410">
-        <v>1.482033866116944</v>
+        <v>1.482033866116943</v>
       </c>
     </row>
     <row r="8411" spans="1:2">
@@ -67655,7 +67655,7 @@
         <v>8414</v>
       </c>
       <c r="B8414">
-        <v>4.72064175523762</v>
+        <v>4.720641755237619</v>
       </c>
     </row>
     <row r="8415" spans="1:2">
@@ -67815,7 +67815,7 @@
         <v>8434</v>
       </c>
       <c r="B8434">
-        <v>6.189924100462409</v>
+        <v>6.189924100462408</v>
       </c>
     </row>
     <row r="8435" spans="1:2">
@@ -67895,7 +67895,7 @@
         <v>8444</v>
       </c>
       <c r="B8444">
-        <v>2.66470738908287</v>
+        <v>2.664707389082869</v>
       </c>
     </row>
     <row r="8445" spans="1:2">
@@ -67919,7 +67919,7 @@
         <v>8447</v>
       </c>
       <c r="B8447">
-        <v>3.40656983208788</v>
+        <v>3.406569832087879</v>
       </c>
     </row>
     <row r="8448" spans="1:2">
@@ -68087,7 +68087,7 @@
         <v>8468</v>
       </c>
       <c r="B8468">
-        <v>5.03551727917537</v>
+        <v>5.035517279175369</v>
       </c>
     </row>
     <row r="8469" spans="1:2">
@@ -68095,7 +68095,7 @@
         <v>8469</v>
       </c>
       <c r="B8469">
-        <v>6.372448743340694</v>
+        <v>6.372448743340693</v>
       </c>
     </row>
     <row r="8470" spans="1:2">
@@ -68151,7 +68151,7 @@
         <v>8476</v>
       </c>
       <c r="B8476">
-        <v>1.805481717935538</v>
+        <v>1.805481717935537</v>
       </c>
     </row>
     <row r="8477" spans="1:2">
@@ -68215,7 +68215,7 @@
         <v>8484</v>
       </c>
       <c r="B8484">
-        <v>8.494781284014559</v>
+        <v>8.494781284014557</v>
       </c>
     </row>
     <row r="8485" spans="1:2">
@@ -68279,7 +68279,7 @@
         <v>8492</v>
       </c>
       <c r="B8492">
-        <v>8.207044138256849</v>
+        <v>8.207044138256848</v>
       </c>
     </row>
     <row r="8493" spans="1:2">
@@ -68295,7 +68295,7 @@
         <v>8494</v>
       </c>
       <c r="B8494">
-        <v>7.932817567381429</v>
+        <v>7.932817567381428</v>
       </c>
     </row>
     <row r="8495" spans="1:2">
@@ -68375,7 +68375,7 @@
         <v>8504</v>
       </c>
       <c r="B8504">
-        <v>2.256406679440657</v>
+        <v>2.256406679440656</v>
       </c>
     </row>
     <row r="8505" spans="1:2">
@@ -68583,7 +68583,7 @@
         <v>8530</v>
       </c>
       <c r="B8530">
-        <v>2.656322626666769</v>
+        <v>2.656322626666768</v>
       </c>
     </row>
     <row r="8531" spans="1:2">
@@ -68831,7 +68831,7 @@
         <v>8561</v>
       </c>
       <c r="B8561">
-        <v>0.4796840225289569</v>
+        <v>0.4796840225289568</v>
       </c>
     </row>
     <row r="8562" spans="1:2">
@@ -68935,7 +68935,7 @@
         <v>8574</v>
       </c>
       <c r="B8574">
-        <v>0.8146583582981014</v>
+        <v>0.8146583582981013</v>
       </c>
     </row>
     <row r="8575" spans="1:2">
@@ -68983,7 +68983,7 @@
         <v>8580</v>
       </c>
       <c r="B8580">
-        <v>0.4717652430643274</v>
+        <v>0.4717652430643273</v>
       </c>
     </row>
     <row r="8581" spans="1:2">
@@ -69031,7 +69031,7 @@
         <v>8586</v>
       </c>
       <c r="B8586">
-        <v>0.7062308661245635</v>
+        <v>0.7062308661245634</v>
       </c>
     </row>
     <row r="8587" spans="1:2">
@@ -69183,7 +69183,7 @@
         <v>8605</v>
       </c>
       <c r="B8605">
-        <v>12.81095569879566</v>
+        <v>12.81095569879565</v>
       </c>
     </row>
     <row r="8606" spans="1:2">
@@ -69247,7 +69247,7 @@
         <v>8613</v>
       </c>
       <c r="B8613">
-        <v>1.529549473615108</v>
+        <v>1.529549473615107</v>
       </c>
     </row>
     <row r="8614" spans="1:2">
@@ -69295,7 +69295,7 @@
         <v>8619</v>
       </c>
       <c r="B8619">
-        <v>0.6269580808770562</v>
+        <v>0.6269580808770561</v>
       </c>
     </row>
     <row r="8620" spans="1:2">
@@ -69303,7 +69303,7 @@
         <v>8620</v>
       </c>
       <c r="B8620">
-        <v>0.5421257380261432</v>
+        <v>0.5421257380261431</v>
       </c>
     </row>
     <row r="8621" spans="1:2">
@@ -69311,7 +69311,7 @@
         <v>8621</v>
       </c>
       <c r="B8621">
-        <v>0.563317704831745</v>
+        <v>0.5633177048317449</v>
       </c>
     </row>
     <row r="8622" spans="1:2">
@@ -69383,7 +69383,7 @@
         <v>8630</v>
       </c>
       <c r="B8630">
-        <v>0.4757979005563075</v>
+        <v>0.4757979005563074</v>
       </c>
     </row>
     <row r="8631" spans="1:2">
@@ -69439,7 +69439,7 @@
         <v>8637</v>
       </c>
       <c r="B8637">
-        <v>2.614762222674204</v>
+        <v>2.614762222674203</v>
       </c>
     </row>
     <row r="8638" spans="1:2">
@@ -69543,7 +69543,7 @@
         <v>8650</v>
       </c>
       <c r="B8650">
-        <v>1.842906889572592</v>
+        <v>1.842906889572591</v>
       </c>
     </row>
     <row r="8651" spans="1:2">
@@ -69551,7 +69551,7 @@
         <v>8651</v>
       </c>
       <c r="B8651">
-        <v>4.854721755425185</v>
+        <v>4.854721755425184</v>
       </c>
     </row>
     <row r="8652" spans="1:2">
@@ -69775,7 +69775,7 @@
         <v>8679</v>
       </c>
       <c r="B8679">
-        <v>0.8204259963389566</v>
+        <v>0.8204259963389565</v>
       </c>
     </row>
     <row r="8680" spans="1:2">
@@ -69823,7 +69823,7 @@
         <v>8685</v>
       </c>
       <c r="B8685">
-        <v>3.621215060803449</v>
+        <v>3.621215060803448</v>
       </c>
     </row>
     <row r="8686" spans="1:2">
@@ -69919,7 +69919,7 @@
         <v>8697</v>
       </c>
       <c r="B8697">
-        <v>1.315288167960185</v>
+        <v>1.315288167960184</v>
       </c>
     </row>
     <row r="8698" spans="1:2">
@@ -70031,7 +70031,7 @@
         <v>8711</v>
       </c>
       <c r="B8711">
-        <v>2.939561131981026</v>
+        <v>2.939561131981025</v>
       </c>
     </row>
     <row r="8712" spans="1:2">
@@ -70247,7 +70247,7 @@
         <v>8738</v>
       </c>
       <c r="B8738">
-        <v>0.8590468978137488</v>
+        <v>0.8590468978137487</v>
       </c>
     </row>
     <row r="8739" spans="1:2">
@@ -70295,7 +70295,7 @@
         <v>8744</v>
       </c>
       <c r="B8744">
-        <v>0.8023669589366446</v>
+        <v>0.8023669589366444</v>
       </c>
     </row>
     <row r="8745" spans="1:2">
@@ -70311,7 +70311,7 @@
         <v>8746</v>
       </c>
       <c r="B8746">
-        <v>0.6616254540403067</v>
+        <v>0.6616254540403066</v>
       </c>
     </row>
     <row r="8747" spans="1:2">
@@ -70327,7 +70327,7 @@
         <v>8748</v>
       </c>
       <c r="B8748">
-        <v>0.4095990143434828</v>
+        <v>0.4095990143434827</v>
       </c>
     </row>
     <row r="8749" spans="1:2">
@@ -70375,7 +70375,7 @@
         <v>8754</v>
       </c>
       <c r="B8754">
-        <v>0.6117916546263316</v>
+        <v>0.6117916546263314</v>
       </c>
     </row>
     <row r="8755" spans="1:2">
